--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16918341-2148-46AB-A535-CE3FC96215DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE359EA-ACFC-4B09-B601-426D2F96F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="59">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Spende W.Baum Team</t>
+  </si>
+  <si>
+    <t>Vereinsring Weihnachtsgabe</t>
+  </si>
+  <si>
+    <t>Vereinsring Mitgliedsbeitrag</t>
   </si>
 </sst>
 </file>
@@ -4954,9 +4960,9 @@
   </sheetPr>
   <dimension ref="A1:IJ175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5165,14 +5171,22 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>45693</v>
+      </c>
       <c r="B9" s="49">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="20">
+        <v>105</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="2"/>
@@ -6609,7 +6623,7 @@
       </c>
       <c r="F110" s="26">
         <f>SUM(F3:F109)</f>
-        <v>4281.630000000021</v>
+        <v>4386.630000000021</v>
       </c>
       <c r="G110" s="26">
         <f>SUM(G3:G109)</f>
@@ -6647,7 +6661,7 @@
       </c>
       <c r="F112" s="26">
         <f>F110+Ausgaben!G175</f>
-        <v>3623.9900000000212</v>
+        <v>3412.7500000000209</v>
       </c>
       <c r="G112" s="26">
         <f>G110+Ausgaben!H175</f>
@@ -6680,7 +6694,7 @@
       <c r="C114" s="22"/>
       <c r="D114" s="27">
         <f>SUM(E112:H112)</f>
-        <v>5778.460000000021</v>
+        <v>5567.2200000000203</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="17"/>
@@ -7578,9 +7592,9 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7989,14 +8003,22 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14">
+        <v>45692</v>
+      </c>
       <c r="C16" s="49">
         <v>14</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>-44</v>
+      </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="4"/>
@@ -8007,14 +8029,22 @@
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="14">
+        <v>45692</v>
+      </c>
       <c r="C17" s="49">
         <v>15</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>-139</v>
+      </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="4"/>
@@ -8025,14 +8055,22 @@
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="14">
+        <v>45692</v>
+      </c>
       <c r="C18" s="49">
         <v>16</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>-50</v>
+      </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="4"/>
@@ -8043,14 +8081,22 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14">
+        <v>45693</v>
+      </c>
       <c r="C19" s="49">
         <v>17</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="83"/>
+      <c r="D19" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>-12</v>
+      </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="4"/>
@@ -8061,14 +8107,22 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="14">
+        <v>45693</v>
+      </c>
       <c r="C20" s="49">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>0</v>
+      </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>-4.9000000000000004</v>
+      </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="4"/>
@@ -8077,14 +8131,22 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14">
+        <v>45705</v>
+      </c>
       <c r="C21" s="49">
         <v>19</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>0</v>
+      </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>-46.34</v>
+      </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="4"/>
@@ -8093,14 +8155,22 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14">
+        <v>45705</v>
+      </c>
       <c r="C22" s="49">
         <v>20</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>-20</v>
+      </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="4"/>
@@ -10553,7 +10623,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-657.64</v>
+        <v>-973.88</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE359EA-ACFC-4B09-B601-426D2F96F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AED5119-AD88-49B6-B4CE-2760AAD16438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="66">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -211,6 +211,27 @@
   </si>
   <si>
     <t>Vereinsring Mitgliedsbeitrag</t>
+  </si>
+  <si>
+    <t>Verm Häusle</t>
+  </si>
+  <si>
+    <t>Helferessen</t>
+  </si>
+  <si>
+    <t>Vereinsförderung Stadt</t>
+  </si>
+  <si>
+    <t>Abrechnung Wasser/Abwasser</t>
+  </si>
+  <si>
+    <t>Urkunden</t>
+  </si>
+  <si>
+    <t>Kettkar</t>
+  </si>
+  <si>
+    <t>JHV Briefe</t>
   </si>
 </sst>
 </file>
@@ -4962,7 +4983,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5195,14 +5216,22 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>45705</v>
+      </c>
       <c r="B10" s="49">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="20">
+        <v>40</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="2"/>
@@ -5211,14 +5240,22 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>45707</v>
+      </c>
       <c r="B11" s="49">
         <v>8</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="20">
+        <v>176.5</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="2"/>
@@ -5227,14 +5264,22 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14">
+        <v>45712</v>
+      </c>
       <c r="B12" s="49">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="20">
+        <v>150</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="2"/>
@@ -5243,14 +5288,22 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>45712</v>
+      </c>
       <c r="B13" s="49">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20">
+        <v>300</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="2"/>
@@ -5259,14 +5312,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>45714</v>
+      </c>
       <c r="B14" s="49">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17">
+        <v>4.8499999999999996</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="2"/>
@@ -5275,7 +5336,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>45714</v>
+      </c>
       <c r="B15" s="49">
         <v>12</v>
       </c>
@@ -6623,7 +6686,7 @@
       </c>
       <c r="F110" s="26">
         <f>SUM(F3:F109)</f>
-        <v>4386.630000000021</v>
+        <v>5057.9800000000214</v>
       </c>
       <c r="G110" s="26">
         <f>SUM(G3:G109)</f>
@@ -6661,7 +6724,7 @@
       </c>
       <c r="F112" s="26">
         <f>F110+Ausgaben!G175</f>
-        <v>3412.7500000000209</v>
+        <v>3224.9800000000214</v>
       </c>
       <c r="G112" s="26">
         <f>G110+Ausgaben!H175</f>
@@ -6694,7 +6757,7 @@
       <c r="C114" s="22"/>
       <c r="D114" s="27">
         <f>SUM(E112:H112)</f>
-        <v>5567.2200000000203</v>
+        <v>5379.4500000000207</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="17"/>
@@ -7513,7 +7576,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G14">
+  <conditionalFormatting sqref="E14:G14 G13">
     <cfRule type="cellIs" dxfId="35" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7593,8 +7656,8 @@
   <dimension ref="A1:IL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8179,14 +8242,22 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="14">
+        <v>45708</v>
+      </c>
       <c r="C23" s="49">
         <v>21</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>0</v>
+      </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="20">
+        <v>-36.94</v>
+      </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="4"/>
@@ -8195,14 +8266,22 @@
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="41"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="14">
+        <v>45709</v>
+      </c>
       <c r="C24" s="49">
         <v>22</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>21</v>
+      </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="20">
+        <v>-12.99</v>
+      </c>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="4"/>
@@ -8211,14 +8290,22 @@
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14">
+        <v>45712</v>
+      </c>
       <c r="C25" s="49">
         <v>23</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
+      <c r="D25" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20">
+        <v>-18.079999999999998</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="4"/>
@@ -8227,14 +8314,22 @@
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="41"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="14">
+        <v>45713</v>
+      </c>
       <c r="C26" s="49">
         <v>24</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="20">
+        <v>-342</v>
+      </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="4"/>
@@ -8243,14 +8338,22 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="14">
+        <v>45714</v>
+      </c>
       <c r="C27" s="49">
         <v>25</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="83"/>
+      <c r="D27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>22</v>
+      </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="20">
+        <v>-88.5</v>
+      </c>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="4"/>
@@ -8259,14 +8362,22 @@
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="14">
+        <v>45715</v>
+      </c>
       <c r="C28" s="49">
         <v>26</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20">
+        <v>-317.63</v>
+      </c>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="4"/>
@@ -8275,14 +8386,22 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="14">
+        <v>45719</v>
+      </c>
       <c r="C29" s="49">
         <v>27</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20">
+        <v>-42.98</v>
+      </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="4"/>
@@ -10623,7 +10742,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-973.88</v>
+        <v>-1833</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AED5119-AD88-49B6-B4CE-2760AAD16438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8359056-84A6-4D82-89E1-348B53DD7CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="70">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>JHV Briefe</t>
+  </si>
+  <si>
+    <t>JHV Kopien</t>
+  </si>
+  <si>
+    <t>Abrechnung WärmeStrom</t>
+  </si>
+  <si>
+    <t>Porto JHV</t>
+  </si>
+  <si>
+    <t>Tzgl</t>
   </si>
 </sst>
 </file>
@@ -773,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -831,7 +843,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4983,7 +4994,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="C15:D15"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5002,16 +5013,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>0</v>
@@ -5075,7 +5086,7 @@
       <c r="A4" s="14">
         <v>45666</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -5089,7 +5100,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="81"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>18</v>
@@ -5099,10 +5110,10 @@
       <c r="A5" s="14">
         <v>45667</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="48">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="81" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -5123,10 +5134,10 @@
       <c r="A6" s="14">
         <v>45679</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>3</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="81" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -5147,7 +5158,7 @@
       <c r="A7" s="14">
         <v>45688</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -5171,7 +5182,7 @@
       <c r="A8" s="14">
         <v>45688</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -5195,10 +5206,10 @@
       <c r="A9" s="14">
         <v>45693</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="48">
         <v>6</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="81" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -5219,7 +5230,7 @@
       <c r="A10" s="14">
         <v>45705</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -5243,10 +5254,10 @@
       <c r="A11" s="14">
         <v>45707</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="48">
         <v>8</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="81" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -5267,7 +5278,7 @@
       <c r="A12" s="14">
         <v>45712</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="48">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -5291,7 +5302,7 @@
       <c r="A13" s="14">
         <v>45712</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="48">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5315,7 +5326,7 @@
       <c r="A14" s="14">
         <v>45714</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="48">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -5337,15 +5348,21 @@
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>45714</v>
-      </c>
-      <c r="B15" s="49">
+        <v>45720</v>
+      </c>
+      <c r="B15" s="48">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="20">
+        <v>285.75</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="2"/>
@@ -5354,14 +5371,22 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="49">
+      <c r="A16" s="14">
+        <v>45721</v>
+      </c>
+      <c r="B16" s="48">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20">
+        <v>144</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="2"/>
@@ -5371,7 +5396,7 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="49">
+      <c r="B17" s="48">
         <v>14</v>
       </c>
       <c r="C17" s="3"/>
@@ -5387,7 +5412,7 @@
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="49">
+      <c r="B18" s="48">
         <v>15</v>
       </c>
       <c r="C18" s="3"/>
@@ -5403,7 +5428,7 @@
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
-      <c r="B19" s="49">
+      <c r="B19" s="48">
         <v>16</v>
       </c>
       <c r="C19" s="3"/>
@@ -5419,7 +5444,7 @@
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <v>17</v>
       </c>
       <c r="C20" s="3"/>
@@ -5433,7 +5458,7 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="49">
+      <c r="B21" s="48">
         <v>18</v>
       </c>
       <c r="C21" s="3"/>
@@ -5447,7 +5472,7 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
-      <c r="B22" s="49">
+      <c r="B22" s="48">
         <v>19</v>
       </c>
       <c r="C22" s="3"/>
@@ -5461,7 +5486,7 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="49">
+      <c r="B23" s="48">
         <v>20</v>
       </c>
       <c r="C23" s="3"/>
@@ -5475,7 +5500,7 @@
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <v>21</v>
       </c>
       <c r="C24" s="3"/>
@@ -5489,7 +5514,7 @@
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
-      <c r="B25" s="49">
+      <c r="B25" s="48">
         <v>22</v>
       </c>
       <c r="C25" s="3"/>
@@ -5503,7 +5528,7 @@
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
-      <c r="B26" s="49">
+      <c r="B26" s="48">
         <v>23</v>
       </c>
       <c r="C26" s="37"/>
@@ -5671,7 +5696,7 @@
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
-      <c r="B38" s="49">
+      <c r="B38" s="48">
         <v>35</v>
       </c>
       <c r="C38" s="37"/>
@@ -5727,7 +5752,7 @@
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
-      <c r="B42" s="49">
+      <c r="B42" s="48">
         <v>39</v>
       </c>
       <c r="C42" s="37"/>
@@ -5993,7 +6018,7 @@
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
-      <c r="B61" s="49">
+      <c r="B61" s="48">
         <v>58</v>
       </c>
       <c r="C61" s="37"/>
@@ -6007,7 +6032,7 @@
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
-      <c r="B62" s="49">
+      <c r="B62" s="48">
         <v>59</v>
       </c>
       <c r="C62" s="3"/>
@@ -6021,7 +6046,7 @@
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
-      <c r="B63" s="49">
+      <c r="B63" s="48">
         <v>60</v>
       </c>
       <c r="C63" s="37"/>
@@ -6035,7 +6060,7 @@
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
-      <c r="B64" s="49">
+      <c r="B64" s="48">
         <v>61</v>
       </c>
       <c r="C64" s="3"/>
@@ -6049,7 +6074,7 @@
     </row>
     <row r="65" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
-      <c r="B65" s="49">
+      <c r="B65" s="48">
         <v>62</v>
       </c>
       <c r="C65" s="3"/>
@@ -6077,7 +6102,7 @@
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
-      <c r="B67" s="49">
+      <c r="B67" s="48">
         <v>64</v>
       </c>
       <c r="C67" s="37"/>
@@ -6287,12 +6312,12 @@
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
-      <c r="B82" s="49">
+      <c r="B82" s="48">
         <v>79</v>
       </c>
-      <c r="C82" s="51"/>
+      <c r="C82" s="50"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="52"/>
+      <c r="E82" s="51"/>
       <c r="F82" s="20"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
@@ -6304,7 +6329,7 @@
       <c r="B83" s="15">
         <v>80</v>
       </c>
-      <c r="C83" s="51"/>
+      <c r="C83" s="50"/>
       <c r="D83" s="18"/>
       <c r="E83" s="16"/>
       <c r="F83" s="17"/>
@@ -6318,7 +6343,7 @@
       <c r="B84" s="15">
         <v>81</v>
       </c>
-      <c r="C84" s="51"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="18"/>
       <c r="E84" s="16"/>
       <c r="F84" s="17"/>
@@ -6332,7 +6357,7 @@
       <c r="B85" s="15">
         <v>82</v>
       </c>
-      <c r="C85" s="51"/>
+      <c r="C85" s="50"/>
       <c r="D85" s="18"/>
       <c r="E85" s="16"/>
       <c r="F85" s="17"/>
@@ -6346,7 +6371,7 @@
       <c r="B86" s="15">
         <v>83</v>
       </c>
-      <c r="C86" s="51"/>
+      <c r="C86" s="50"/>
       <c r="D86" s="18"/>
       <c r="E86" s="16"/>
       <c r="F86" s="17"/>
@@ -6427,7 +6452,7 @@
     </row>
     <row r="92" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
-      <c r="B92" s="49">
+      <c r="B92" s="48">
         <v>89</v>
       </c>
       <c r="C92" s="37"/>
@@ -6686,7 +6711,7 @@
       </c>
       <c r="F110" s="26">
         <f>SUM(F3:F109)</f>
-        <v>5057.9800000000214</v>
+        <v>5487.7300000000214</v>
       </c>
       <c r="G110" s="26">
         <f>SUM(G3:G109)</f>
@@ -6724,7 +6749,7 @@
       </c>
       <c r="F112" s="26">
         <f>F110+Ausgaben!G175</f>
-        <v>3224.9800000000214</v>
+        <v>3433.2700000000214</v>
       </c>
       <c r="G112" s="26">
         <f>G110+Ausgaben!H175</f>
@@ -6757,7 +6782,7 @@
       <c r="C114" s="22"/>
       <c r="D114" s="27">
         <f>SUM(E112:H112)</f>
-        <v>5379.4500000000207</v>
+        <v>5587.7400000000207</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="17"/>
@@ -7526,7 +7551,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:G16">
+  <conditionalFormatting sqref="G16">
     <cfRule type="cellIs" dxfId="45" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7576,7 +7601,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:G14 G13">
+  <conditionalFormatting sqref="E14:G14">
     <cfRule type="cellIs" dxfId="35" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7611,7 +7636,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G12 H4:H26 D17:D68 H28:H109 E59:G68 A92:C92 D4:D15">
+  <conditionalFormatting sqref="G4:G13 H4:H26 H28:H109 E59:G68 A92:C92 D4:D68">
     <cfRule type="cellIs" dxfId="28" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7656,8 +7681,8 @@
   <dimension ref="A1:IL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7678,16 +7703,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="4"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3" t="s">
@@ -7699,7 +7724,7 @@
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -7731,10 +7756,10 @@
       <c r="B3" s="14">
         <v>45659</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <v>1</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="81" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="21" t="s">
@@ -7757,13 +7782,13 @@
       <c r="B4" s="14">
         <v>45659</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>2</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="19"/>
@@ -7783,13 +7808,13 @@
       <c r="B5" s="14">
         <v>45659</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="48">
         <v>3</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="82" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="19"/>
@@ -7809,13 +7834,13 @@
       <c r="B6" s="14">
         <v>45660</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>4</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="19"/>
@@ -7835,13 +7860,13 @@
       <c r="B7" s="14">
         <v>45660</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>5</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="19"/>
@@ -7861,13 +7886,13 @@
       <c r="B8" s="14">
         <v>45664</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>6</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="82" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="19"/>
@@ -7887,13 +7912,13 @@
       <c r="B9" s="14">
         <v>45667</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="82" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="19"/>
@@ -7913,13 +7938,13 @@
       <c r="B10" s="14">
         <v>45672</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="48">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="19"/>
@@ -7939,13 +7964,13 @@
       <c r="B11" s="14">
         <v>45680</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="19"/>
@@ -7965,7 +7990,7 @@
       <c r="B12" s="14">
         <v>45684</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="48">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -7991,13 +8016,13 @@
       <c r="B13" s="14">
         <v>45688</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="48">
         <v>11</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="19"/>
@@ -8017,13 +8042,13 @@
       <c r="B14" s="14">
         <v>45688</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="48">
         <v>12</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="19"/>
@@ -8043,13 +8068,13 @@
       <c r="B15" s="14">
         <v>45688</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <v>13</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="82" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="19"/>
@@ -8069,13 +8094,13 @@
       <c r="B16" s="14">
         <v>45692</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="48">
         <v>14</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="19"/>
@@ -8095,13 +8120,13 @@
       <c r="B17" s="14">
         <v>45692</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="48">
         <v>15</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="19"/>
@@ -8121,7 +8146,7 @@
       <c r="B18" s="14">
         <v>45692</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="48">
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -8147,13 +8172,13 @@
       <c r="B19" s="14">
         <v>45693</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <v>17</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="82" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="19"/>
@@ -8173,13 +8198,13 @@
       <c r="B20" s="14">
         <v>45693</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="48">
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="82" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="19"/>
@@ -8197,13 +8222,13 @@
       <c r="B21" s="14">
         <v>45705</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="48">
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="82" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="19"/>
@@ -8221,13 +8246,13 @@
       <c r="B22" s="14">
         <v>45705</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="48">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="19"/>
@@ -8245,13 +8270,13 @@
       <c r="B23" s="14">
         <v>45708</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="48">
         <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="82" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="19"/>
@@ -8269,13 +8294,13 @@
       <c r="B24" s="14">
         <v>45709</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="48">
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="82" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="19"/>
@@ -8293,13 +8318,13 @@
       <c r="B25" s="14">
         <v>45712</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="48">
         <v>23</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="19"/>
@@ -8317,13 +8342,13 @@
       <c r="B26" s="14">
         <v>45713</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="48">
         <v>24</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="19"/>
@@ -8341,13 +8366,13 @@
       <c r="B27" s="14">
         <v>45714</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="48">
         <v>25</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="82" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="19"/>
@@ -8365,13 +8390,13 @@
       <c r="B28" s="14">
         <v>45715</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="48">
         <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="19"/>
@@ -8389,7 +8414,7 @@
       <c r="B29" s="14">
         <v>45719</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="48">
         <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -8410,14 +8435,22 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="41"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="49">
+      <c r="B30" s="14">
+        <v>45719</v>
+      </c>
+      <c r="C30" s="48">
         <v>28</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20">
+        <v>-80</v>
+      </c>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="4"/>
@@ -8426,14 +8459,22 @@
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="49">
+      <c r="B31" s="14">
+        <v>45720</v>
+      </c>
+      <c r="C31" s="48">
         <v>29</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="83"/>
+      <c r="D31" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="20">
+        <v>-44</v>
+      </c>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
       <c r="J31" s="4"/>
@@ -8442,14 +8483,22 @@
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="49">
+      <c r="B32" s="14">
+        <v>45720</v>
+      </c>
+      <c r="C32" s="48">
         <v>30</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="20"/>
+      <c r="D32" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20">
+        <v>-48.8</v>
+      </c>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="4"/>
@@ -8458,14 +8507,22 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="49">
+      <c r="B33" s="14">
+        <v>45721</v>
+      </c>
+      <c r="C33" s="48">
         <v>31</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="83"/>
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="20">
+        <v>-11.64</v>
+      </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="4"/>
@@ -8474,14 +8531,22 @@
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="49">
+      <c r="B34" s="14">
+        <v>45721</v>
+      </c>
+      <c r="C34" s="48">
         <v>32</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="83"/>
+      <c r="D34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="20">
+        <v>-25.02</v>
+      </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="4"/>
@@ -8490,14 +8555,22 @@
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="49">
+      <c r="B35" s="14">
+        <v>45722</v>
+      </c>
+      <c r="C35" s="48">
         <v>33</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
+      <c r="D35" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="G35" s="20">
+        <v>-12</v>
+      </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="4"/>
@@ -8507,11 +8580,11 @@
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="49">
+      <c r="C36" s="48">
         <v>34</v>
       </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="19"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -8523,11 +8596,11 @@
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="49">
+      <c r="C37" s="48">
         <v>35</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="19"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -8539,7 +8612,7 @@
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="49">
+      <c r="C38" s="48">
         <v>36</v>
       </c>
       <c r="D38" s="3"/>
@@ -8555,7 +8628,7 @@
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="49">
+      <c r="C39" s="48">
         <v>37</v>
       </c>
       <c r="D39" s="3"/>
@@ -8571,11 +8644,11 @@
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="49">
+      <c r="C40" s="48">
         <v>38</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="83"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -8587,7 +8660,7 @@
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="49">
+      <c r="C41" s="48">
         <v>39</v>
       </c>
       <c r="D41" s="3"/>
@@ -8603,7 +8676,7 @@
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="49">
+      <c r="C42" s="48">
         <v>40</v>
       </c>
       <c r="D42" s="3"/>
@@ -8619,7 +8692,7 @@
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="49">
+      <c r="C43" s="48">
         <v>41</v>
       </c>
       <c r="D43" s="3"/>
@@ -8635,11 +8708,11 @@
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="49">
+      <c r="C44" s="48">
         <v>42</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="83"/>
+      <c r="E44" s="82"/>
       <c r="F44" s="19"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -8651,7 +8724,7 @@
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="49">
+      <c r="C45" s="48">
         <v>43</v>
       </c>
       <c r="D45" s="3"/>
@@ -8667,7 +8740,7 @@
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="49">
+      <c r="C46" s="48">
         <v>44</v>
       </c>
       <c r="D46" s="3"/>
@@ -8683,7 +8756,7 @@
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="49">
+      <c r="C47" s="48">
         <v>45</v>
       </c>
       <c r="D47" s="3"/>
@@ -8699,7 +8772,7 @@
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="49">
+      <c r="C48" s="48">
         <v>46</v>
       </c>
       <c r="D48" s="3"/>
@@ -8715,11 +8788,11 @@
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="49">
+      <c r="C49" s="48">
         <v>47</v>
       </c>
-      <c r="D49" s="82"/>
-      <c r="E49" s="83"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="20"/>
@@ -8731,7 +8804,7 @@
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="49">
+      <c r="C50" s="48">
         <v>48</v>
       </c>
       <c r="D50" s="3"/>
@@ -8747,7 +8820,7 @@
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="49">
+      <c r="C51" s="48">
         <v>49</v>
       </c>
       <c r="D51" s="3"/>
@@ -8763,11 +8836,11 @@
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="41"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="49">
+      <c r="C52" s="48">
         <v>50</v>
       </c>
-      <c r="D52" s="82"/>
-      <c r="E52" s="83"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="19"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -8779,11 +8852,11 @@
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="41"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="49">
+      <c r="C53" s="48">
         <v>51</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="83"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="19"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
@@ -8795,7 +8868,7 @@
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="49">
+      <c r="C54" s="48">
         <v>52</v>
       </c>
       <c r="D54" s="3"/>
@@ -8811,7 +8884,7 @@
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="49">
+      <c r="C55" s="48">
         <v>53</v>
       </c>
       <c r="D55" s="3"/>
@@ -8827,7 +8900,7 @@
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="49">
+      <c r="C56" s="48">
         <v>54</v>
       </c>
       <c r="D56" s="3"/>
@@ -8843,7 +8916,7 @@
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="49">
+      <c r="C57" s="48">
         <v>55</v>
       </c>
       <c r="D57" s="3"/>
@@ -8859,7 +8932,7 @@
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="49">
+      <c r="C58" s="48">
         <v>56</v>
       </c>
       <c r="D58" s="3"/>
@@ -8875,7 +8948,7 @@
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="49">
+      <c r="C59" s="48">
         <v>57</v>
       </c>
       <c r="D59" s="3"/>
@@ -8891,7 +8964,7 @@
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="49">
+      <c r="C60" s="48">
         <v>58</v>
       </c>
       <c r="D60" s="3"/>
@@ -8907,7 +8980,7 @@
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="49">
+      <c r="C61" s="48">
         <v>59</v>
       </c>
       <c r="D61" s="3"/>
@@ -8923,7 +8996,7 @@
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="49">
+      <c r="C62" s="48">
         <v>60</v>
       </c>
       <c r="D62" s="3"/>
@@ -8939,7 +9012,7 @@
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="49">
+      <c r="C63" s="48">
         <v>61</v>
       </c>
       <c r="D63" s="3"/>
@@ -8955,11 +9028,11 @@
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="49">
+      <c r="C64" s="48">
         <v>62</v>
       </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="83"/>
+      <c r="E64" s="82"/>
       <c r="F64" s="19"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
@@ -8971,7 +9044,7 @@
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="49">
+      <c r="C65" s="48">
         <v>63</v>
       </c>
       <c r="D65" s="3"/>
@@ -8987,7 +9060,7 @@
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="49">
+      <c r="C66" s="48">
         <v>64</v>
       </c>
       <c r="D66" s="3"/>
@@ -9003,7 +9076,7 @@
     <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="49">
+      <c r="C67" s="48">
         <v>65</v>
       </c>
       <c r="D67" s="3"/>
@@ -9019,11 +9092,11 @@
     <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="49">
+      <c r="C68" s="48">
         <v>66</v>
       </c>
-      <c r="D68" s="82"/>
-      <c r="E68" s="83"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="82"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="20"/>
@@ -9035,11 +9108,11 @@
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="49">
+      <c r="C69" s="48">
         <v>67</v>
       </c>
-      <c r="D69" s="82"/>
-      <c r="E69" s="83"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="82"/>
       <c r="F69" s="19"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
@@ -9051,11 +9124,11 @@
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="49">
+      <c r="C70" s="48">
         <v>68</v>
       </c>
-      <c r="D70" s="82"/>
-      <c r="E70" s="83"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="82"/>
       <c r="F70" s="19"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
@@ -9067,7 +9140,7 @@
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="49">
+      <c r="C71" s="48">
         <v>69</v>
       </c>
       <c r="D71" s="3"/>
@@ -9083,7 +9156,7 @@
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="49">
+      <c r="C72" s="48">
         <v>70</v>
       </c>
       <c r="D72" s="3"/>
@@ -9099,7 +9172,7 @@
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="49">
+      <c r="C73" s="48">
         <v>71</v>
       </c>
       <c r="D73" s="3"/>
@@ -9115,7 +9188,7 @@
     <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="49">
+      <c r="C74" s="48">
         <v>72</v>
       </c>
       <c r="D74" s="3"/>
@@ -9131,7 +9204,7 @@
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="49">
+      <c r="C75" s="48">
         <v>73</v>
       </c>
       <c r="D75" s="3"/>
@@ -9147,11 +9220,11 @@
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="49">
+      <c r="C76" s="48">
         <v>74</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="83"/>
+      <c r="E76" s="82"/>
       <c r="F76" s="19"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
@@ -9163,7 +9236,7 @@
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="49">
+      <c r="C77" s="48">
         <v>75</v>
       </c>
       <c r="D77" s="3"/>
@@ -9179,7 +9252,7 @@
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="49">
+      <c r="C78" s="48">
         <v>76</v>
       </c>
       <c r="D78" s="3"/>
@@ -9195,7 +9268,7 @@
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="49">
+      <c r="C79" s="48">
         <v>77</v>
       </c>
       <c r="D79" s="3"/>
@@ -9211,11 +9284,11 @@
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="49">
+      <c r="C80" s="48">
         <v>78</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="83"/>
+      <c r="E80" s="82"/>
       <c r="F80" s="19"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
@@ -9227,11 +9300,11 @@
     <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="49">
+      <c r="C81" s="48">
         <v>79</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="83"/>
+      <c r="E81" s="82"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -9243,7 +9316,7 @@
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="49">
+      <c r="C82" s="48">
         <v>80</v>
       </c>
       <c r="D82" s="3"/>
@@ -9259,7 +9332,7 @@
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="49">
+      <c r="C83" s="48">
         <v>81</v>
       </c>
       <c r="D83" s="3"/>
@@ -9275,7 +9348,7 @@
     <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="49">
+      <c r="C84" s="48">
         <v>82</v>
       </c>
       <c r="D84" s="3"/>
@@ -9291,11 +9364,11 @@
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="49">
+      <c r="C85" s="48">
         <v>83</v>
       </c>
-      <c r="D85" s="82"/>
-      <c r="E85" s="83"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="82"/>
       <c r="F85" s="19"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
@@ -9307,11 +9380,11 @@
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="49">
+      <c r="C86" s="48">
         <v>84</v>
       </c>
-      <c r="D86" s="82"/>
-      <c r="E86" s="83"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="82"/>
       <c r="F86" s="19"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
@@ -9323,7 +9396,7 @@
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="49">
+      <c r="C87" s="48">
         <v>85</v>
       </c>
       <c r="D87" s="3"/>
@@ -9339,7 +9412,7 @@
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="49">
+      <c r="C88" s="48">
         <v>86</v>
       </c>
       <c r="D88" s="3"/>
@@ -9355,7 +9428,7 @@
     <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="49">
+      <c r="C89" s="48">
         <v>87</v>
       </c>
       <c r="D89" s="3"/>
@@ -9371,7 +9444,7 @@
     <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="49">
+      <c r="C90" s="48">
         <v>88</v>
       </c>
       <c r="D90" s="3"/>
@@ -9387,7 +9460,7 @@
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="49">
+      <c r="C91" s="48">
         <v>89</v>
       </c>
       <c r="D91" s="3"/>
@@ -9403,7 +9476,7 @@
     <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="49">
+      <c r="C92" s="48">
         <v>90</v>
       </c>
       <c r="D92" s="3"/>
@@ -9419,7 +9492,7 @@
     <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="49">
+      <c r="C93" s="48">
         <v>91</v>
       </c>
       <c r="D93" s="3"/>
@@ -9435,11 +9508,11 @@
     <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="49">
+      <c r="C94" s="48">
         <v>92</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="83"/>
+      <c r="E94" s="82"/>
       <c r="F94" s="19"/>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
@@ -9451,7 +9524,7 @@
     <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="49">
+      <c r="C95" s="48">
         <v>93</v>
       </c>
       <c r="D95" s="3"/>
@@ -9467,7 +9540,7 @@
     <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="49">
+      <c r="C96" s="48">
         <v>94</v>
       </c>
       <c r="D96" s="3"/>
@@ -9483,7 +9556,7 @@
     <row r="97" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="49">
+      <c r="C97" s="48">
         <v>95</v>
       </c>
       <c r="D97" s="3"/>
@@ -9499,7 +9572,7 @@
     <row r="98" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="49">
+      <c r="C98" s="48">
         <v>96</v>
       </c>
       <c r="D98" s="3"/>
@@ -9515,7 +9588,7 @@
     <row r="99" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="49">
+      <c r="C99" s="48">
         <v>97</v>
       </c>
       <c r="D99" s="3"/>
@@ -9531,7 +9604,7 @@
     <row r="100" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="49">
+      <c r="C100" s="48">
         <v>98</v>
       </c>
       <c r="D100" s="3"/>
@@ -9549,11 +9622,11 @@
     <row r="101" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="49">
+      <c r="C101" s="48">
         <v>99</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="83"/>
+      <c r="E101" s="82"/>
       <c r="F101" s="19"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
@@ -9565,7 +9638,7 @@
     <row r="102" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="49">
+      <c r="C102" s="48">
         <v>100</v>
       </c>
       <c r="D102" s="3"/>
@@ -9581,11 +9654,11 @@
     <row r="103" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="49">
+      <c r="C103" s="48">
         <v>101</v>
       </c>
-      <c r="D103" s="82"/>
-      <c r="E103" s="83"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="82"/>
       <c r="F103" s="19"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
@@ -9597,11 +9670,11 @@
     <row r="104" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="49">
+      <c r="C104" s="48">
         <v>102</v>
       </c>
-      <c r="D104" s="82"/>
-      <c r="E104" s="83"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="82"/>
       <c r="F104" s="19"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
@@ -9613,7 +9686,7 @@
     <row r="105" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="49">
+      <c r="C105" s="48">
         <v>103</v>
       </c>
       <c r="D105" s="3"/>
@@ -9629,7 +9702,7 @@
     <row r="106" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="49">
+      <c r="C106" s="48">
         <v>104</v>
       </c>
       <c r="D106" s="3"/>
@@ -9645,11 +9718,11 @@
     <row r="107" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="49">
+      <c r="C107" s="48">
         <v>105</v>
       </c>
       <c r="D107" s="3"/>
-      <c r="E107" s="83"/>
+      <c r="E107" s="82"/>
       <c r="F107" s="19"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
@@ -9661,7 +9734,7 @@
     <row r="108" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="49">
+      <c r="C108" s="48">
         <v>106</v>
       </c>
       <c r="D108" s="3"/>
@@ -9677,7 +9750,7 @@
     <row r="109" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="49">
+      <c r="C109" s="48">
         <v>107</v>
       </c>
       <c r="D109" s="3"/>
@@ -9693,11 +9766,11 @@
     <row r="110" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="49">
+      <c r="C110" s="48">
         <v>108</v>
       </c>
       <c r="D110" s="3"/>
-      <c r="E110" s="83"/>
+      <c r="E110" s="82"/>
       <c r="F110" s="19"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
@@ -9709,11 +9782,11 @@
     <row r="111" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="49">
+      <c r="C111" s="48">
         <v>109</v>
       </c>
-      <c r="D111" s="82"/>
-      <c r="E111" s="83"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="82"/>
       <c r="F111" s="19"/>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
@@ -9725,11 +9798,11 @@
     <row r="112" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="49">
+      <c r="C112" s="48">
         <v>110</v>
       </c>
-      <c r="D112" s="82"/>
-      <c r="E112" s="83"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="82"/>
       <c r="F112" s="19"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
@@ -9741,7 +9814,7 @@
     <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="49">
+      <c r="C113" s="48">
         <v>111</v>
       </c>
       <c r="D113" s="3"/>
@@ -9757,7 +9830,7 @@
     <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="49">
+      <c r="C114" s="48">
         <v>112</v>
       </c>
       <c r="D114" s="3"/>
@@ -9773,7 +9846,7 @@
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="49">
+      <c r="C115" s="48">
         <v>113</v>
       </c>
       <c r="D115" s="3"/>
@@ -9789,7 +9862,7 @@
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="49">
+      <c r="C116" s="48">
         <v>114</v>
       </c>
       <c r="D116" s="3"/>
@@ -9805,7 +9878,7 @@
     <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="49">
+      <c r="C117" s="48">
         <v>115</v>
       </c>
       <c r="D117" s="3"/>
@@ -9821,7 +9894,7 @@
     <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="49">
+      <c r="C118" s="48">
         <v>116</v>
       </c>
       <c r="D118" s="3"/>
@@ -9837,7 +9910,7 @@
     <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="49">
+      <c r="C119" s="48">
         <v>117</v>
       </c>
       <c r="D119" s="3"/>
@@ -9853,11 +9926,11 @@
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="49">
+      <c r="C120" s="48">
         <v>118</v>
       </c>
       <c r="D120" s="3"/>
-      <c r="E120" s="83"/>
+      <c r="E120" s="82"/>
       <c r="F120" s="19"/>
       <c r="G120" s="20"/>
       <c r="H120" s="20"/>
@@ -9869,7 +9942,7 @@
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="14"/>
-      <c r="C121" s="49">
+      <c r="C121" s="48">
         <v>119</v>
       </c>
       <c r="D121" s="3"/>
@@ -9885,7 +9958,7 @@
     <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
       <c r="B122" s="14"/>
-      <c r="C122" s="49">
+      <c r="C122" s="48">
         <v>120</v>
       </c>
       <c r="D122" s="3"/>
@@ -9901,7 +9974,7 @@
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="49">
+      <c r="C123" s="48">
         <v>121</v>
       </c>
       <c r="D123" s="3"/>
@@ -9917,7 +9990,7 @@
     <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="49">
+      <c r="C124" s="48">
         <v>122</v>
       </c>
       <c r="D124" s="3"/>
@@ -9933,11 +10006,11 @@
     <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="49">
+      <c r="C125" s="48">
         <v>123</v>
       </c>
       <c r="D125" s="3"/>
-      <c r="E125" s="83"/>
+      <c r="E125" s="82"/>
       <c r="F125" s="19"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
@@ -9949,7 +10022,7 @@
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="41"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="49">
+      <c r="C126" s="48">
         <v>124</v>
       </c>
       <c r="D126" s="3"/>
@@ -9965,11 +10038,11 @@
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="14"/>
-      <c r="C127" s="49">
+      <c r="C127" s="48">
         <v>125</v>
       </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="83"/>
+      <c r="E127" s="82"/>
       <c r="F127" s="19"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -9981,11 +10054,11 @@
     <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="49">
+      <c r="C128" s="48">
         <v>126</v>
       </c>
-      <c r="D128" s="82"/>
-      <c r="E128" s="83"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="82"/>
       <c r="F128" s="19"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
@@ -9997,11 +10070,11 @@
     <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="49">
+      <c r="C129" s="48">
         <v>127</v>
       </c>
-      <c r="D129" s="82"/>
-      <c r="E129" s="83"/>
+      <c r="D129" s="81"/>
+      <c r="E129" s="82"/>
       <c r="F129" s="19"/>
       <c r="G129" s="20"/>
       <c r="H129" s="20"/>
@@ -10013,7 +10086,7 @@
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="49">
+      <c r="C130" s="48">
         <v>128</v>
       </c>
       <c r="D130" s="37"/>
@@ -10029,7 +10102,7 @@
     <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="14"/>
-      <c r="C131" s="49">
+      <c r="C131" s="48">
         <v>129</v>
       </c>
       <c r="D131" s="3"/>
@@ -10045,7 +10118,7 @@
     <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="14"/>
-      <c r="C132" s="49">
+      <c r="C132" s="48">
         <v>130</v>
       </c>
       <c r="D132" s="3"/>
@@ -10061,11 +10134,11 @@
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="14"/>
-      <c r="C133" s="49">
+      <c r="C133" s="48">
         <v>131</v>
       </c>
       <c r="D133" s="3"/>
-      <c r="E133" s="83"/>
+      <c r="E133" s="82"/>
       <c r="F133" s="19"/>
       <c r="G133" s="20"/>
       <c r="H133" s="20"/>
@@ -10077,7 +10150,7 @@
     <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="14"/>
-      <c r="C134" s="49">
+      <c r="C134" s="48">
         <v>132</v>
       </c>
       <c r="D134" s="3"/>
@@ -10093,7 +10166,7 @@
     <row r="135" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="14"/>
-      <c r="C135" s="49">
+      <c r="C135" s="48">
         <v>133</v>
       </c>
       <c r="D135" s="3"/>
@@ -10109,11 +10182,11 @@
     <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="14"/>
-      <c r="C136" s="49">
+      <c r="C136" s="48">
         <v>134</v>
       </c>
       <c r="D136" s="3"/>
-      <c r="E136" s="83"/>
+      <c r="E136" s="82"/>
       <c r="F136" s="19"/>
       <c r="G136" s="20"/>
       <c r="H136" s="20"/>
@@ -10125,7 +10198,7 @@
     <row r="137" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="14"/>
-      <c r="C137" s="49">
+      <c r="C137" s="48">
         <v>135</v>
       </c>
       <c r="D137" s="3"/>
@@ -10141,11 +10214,11 @@
     <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="14"/>
-      <c r="C138" s="49">
+      <c r="C138" s="48">
         <v>136</v>
       </c>
-      <c r="D138" s="82"/>
-      <c r="E138" s="83"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="82"/>
       <c r="F138" s="19"/>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -10157,11 +10230,11 @@
     <row r="139" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="41"/>
       <c r="B139" s="14"/>
-      <c r="C139" s="49">
+      <c r="C139" s="48">
         <v>137</v>
       </c>
-      <c r="D139" s="82"/>
-      <c r="E139" s="83"/>
+      <c r="D139" s="81"/>
+      <c r="E139" s="82"/>
       <c r="F139" s="19"/>
       <c r="G139" s="20"/>
       <c r="H139" s="20"/>
@@ -10173,7 +10246,7 @@
     <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="14"/>
-      <c r="C140" s="49">
+      <c r="C140" s="48">
         <v>138</v>
       </c>
       <c r="D140" s="3"/>
@@ -10189,7 +10262,7 @@
     <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="14"/>
-      <c r="C141" s="49">
+      <c r="C141" s="48">
         <v>139</v>
       </c>
       <c r="D141" s="3"/>
@@ -10205,7 +10278,7 @@
     <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
       <c r="B142" s="14"/>
-      <c r="C142" s="49">
+      <c r="C142" s="48">
         <v>140</v>
       </c>
       <c r="D142" s="3"/>
@@ -10221,7 +10294,7 @@
     <row r="143" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="41"/>
       <c r="B143" s="14"/>
-      <c r="C143" s="49">
+      <c r="C143" s="48">
         <v>141</v>
       </c>
       <c r="D143" s="3"/>
@@ -10237,7 +10310,7 @@
     <row r="144" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="41"/>
       <c r="B144" s="14"/>
-      <c r="C144" s="49">
+      <c r="C144" s="48">
         <v>142</v>
       </c>
       <c r="D144" s="3"/>
@@ -10253,7 +10326,7 @@
     <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="41"/>
       <c r="B145" s="14"/>
-      <c r="C145" s="49">
+      <c r="C145" s="48">
         <v>143</v>
       </c>
       <c r="D145" s="3"/>
@@ -10269,7 +10342,7 @@
     <row r="146" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="41"/>
       <c r="B146" s="14"/>
-      <c r="C146" s="49">
+      <c r="C146" s="48">
         <v>144</v>
       </c>
       <c r="D146" s="37"/>
@@ -10285,11 +10358,11 @@
     <row r="147" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="41"/>
       <c r="B147" s="14"/>
-      <c r="C147" s="49">
+      <c r="C147" s="48">
         <v>145</v>
       </c>
       <c r="D147" s="3"/>
-      <c r="E147" s="83"/>
+      <c r="E147" s="82"/>
       <c r="F147" s="19"/>
       <c r="G147" s="20"/>
       <c r="H147" s="20"/>
@@ -10300,7 +10373,7 @@
     <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="41"/>
       <c r="B148" s="14"/>
-      <c r="C148" s="49">
+      <c r="C148" s="48">
         <v>146</v>
       </c>
       <c r="D148" s="3"/>
@@ -10316,7 +10389,7 @@
     <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="41"/>
       <c r="B149" s="14"/>
-      <c r="C149" s="49">
+      <c r="C149" s="48">
         <v>147</v>
       </c>
       <c r="D149" s="3"/>
@@ -10332,7 +10405,7 @@
     <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="41"/>
       <c r="B150" s="14"/>
-      <c r="C150" s="49">
+      <c r="C150" s="48">
         <v>148</v>
       </c>
       <c r="D150" s="37"/>
@@ -10348,7 +10421,7 @@
     <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="14"/>
-      <c r="C151" s="49">
+      <c r="C151" s="48">
         <v>148</v>
       </c>
       <c r="D151" s="37"/>
@@ -10364,11 +10437,11 @@
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="41"/>
       <c r="B152" s="14"/>
-      <c r="C152" s="49">
+      <c r="C152" s="48">
         <v>149</v>
       </c>
       <c r="D152" s="3"/>
-      <c r="E152" s="83"/>
+      <c r="E152" s="82"/>
       <c r="F152" s="19"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
@@ -10380,11 +10453,11 @@
     <row r="153" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="41"/>
       <c r="B153" s="14"/>
-      <c r="C153" s="49">
+      <c r="C153" s="48">
         <v>149.69999999999999</v>
       </c>
-      <c r="D153" s="82"/>
-      <c r="E153" s="83"/>
+      <c r="D153" s="81"/>
+      <c r="E153" s="82"/>
       <c r="F153" s="19"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
@@ -10396,11 +10469,11 @@
     <row r="154" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="41"/>
       <c r="B154" s="14"/>
-      <c r="C154" s="49">
+      <c r="C154" s="48">
         <v>151</v>
       </c>
-      <c r="D154" s="82"/>
-      <c r="E154" s="83"/>
+      <c r="D154" s="81"/>
+      <c r="E154" s="82"/>
       <c r="F154" s="19"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
@@ -10412,7 +10485,7 @@
     <row r="155" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="49">
+      <c r="C155" s="48">
         <v>152</v>
       </c>
       <c r="D155" s="37"/>
@@ -10428,7 +10501,7 @@
     <row r="156" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="41"/>
       <c r="B156" s="14"/>
-      <c r="C156" s="49">
+      <c r="C156" s="48">
         <v>153</v>
       </c>
       <c r="D156" s="37"/>
@@ -10444,7 +10517,7 @@
     <row r="157" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="14"/>
-      <c r="C157" s="49">
+      <c r="C157" s="48">
         <v>154.03</v>
       </c>
       <c r="D157" s="37"/>
@@ -10460,7 +10533,7 @@
     <row r="158" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="14"/>
-      <c r="C158" s="49">
+      <c r="C158" s="48">
         <v>155.06</v>
       </c>
       <c r="D158" s="37"/>
@@ -10476,7 +10549,7 @@
     <row r="159" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="14"/>
-      <c r="C159" s="49">
+      <c r="C159" s="48">
         <v>156.09</v>
       </c>
       <c r="D159" s="37"/>
@@ -10492,7 +10565,7 @@
     <row r="160" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="14"/>
-      <c r="C160" s="49">
+      <c r="C160" s="48">
         <v>157.12</v>
       </c>
       <c r="D160" s="37"/>
@@ -10508,7 +10581,7 @@
     <row r="161" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="41"/>
       <c r="B161" s="14"/>
-      <c r="C161" s="49">
+      <c r="C161" s="48">
         <v>158.15</v>
       </c>
       <c r="D161" s="37"/>
@@ -10524,7 +10597,7 @@
     <row r="162" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="14"/>
-      <c r="C162" s="49">
+      <c r="C162" s="48">
         <v>159.18</v>
       </c>
       <c r="D162" s="37"/>
@@ -10540,7 +10613,7 @@
     <row r="163" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="41"/>
       <c r="B163" s="14"/>
-      <c r="C163" s="49">
+      <c r="C163" s="48">
         <v>160.21</v>
       </c>
       <c r="D163" s="37"/>
@@ -10556,7 +10629,7 @@
     <row r="164" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="14"/>
-      <c r="C164" s="49">
+      <c r="C164" s="48">
         <v>161.24</v>
       </c>
       <c r="D164" s="37"/>
@@ -10572,11 +10645,11 @@
     <row r="165" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="14"/>
-      <c r="C165" s="49">
+      <c r="C165" s="48">
         <v>162.27000000000001</v>
       </c>
       <c r="D165" s="3"/>
-      <c r="E165" s="83"/>
+      <c r="E165" s="82"/>
       <c r="F165" s="19"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
@@ -10588,7 +10661,7 @@
     <row r="166" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="41"/>
       <c r="B166" s="14"/>
-      <c r="C166" s="49">
+      <c r="C166" s="48">
         <v>163.30000000000001</v>
       </c>
       <c r="D166" s="37"/>
@@ -10604,7 +10677,7 @@
     <row r="167" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="41"/>
       <c r="B167" s="14"/>
-      <c r="C167" s="49">
+      <c r="C167" s="48">
         <v>164.33</v>
       </c>
       <c r="D167" s="37"/>
@@ -10620,7 +10693,7 @@
     <row r="168" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="14"/>
-      <c r="C168" s="49">
+      <c r="C168" s="48">
         <v>165.36</v>
       </c>
       <c r="D168" s="37"/>
@@ -10636,7 +10709,7 @@
     <row r="169" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="41"/>
       <c r="B169" s="14"/>
-      <c r="C169" s="49">
+      <c r="C169" s="48">
         <v>166.39</v>
       </c>
       <c r="D169" s="15"/>
@@ -10652,7 +10725,7 @@
     <row r="170" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="41"/>
       <c r="B170" s="14"/>
-      <c r="C170" s="49">
+      <c r="C170" s="48">
         <v>167.42</v>
       </c>
       <c r="D170" s="15"/>
@@ -10668,7 +10741,7 @@
     <row r="171" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="49">
+      <c r="C171" s="48">
         <v>168.45</v>
       </c>
       <c r="D171" s="15"/>
@@ -10684,7 +10757,7 @@
     <row r="172" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
       <c r="B172" s="14"/>
-      <c r="C172" s="49">
+      <c r="C172" s="48">
         <v>169.48</v>
       </c>
       <c r="D172" s="15"/>
@@ -10700,7 +10773,7 @@
     <row r="173" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="14"/>
-      <c r="C173" s="49">
+      <c r="C173" s="48">
         <v>170.51</v>
       </c>
       <c r="D173" s="15"/>
@@ -10716,7 +10789,7 @@
     <row r="174" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="41"/>
       <c r="B174" s="14"/>
-      <c r="C174" s="49"/>
+      <c r="C174" s="48"/>
       <c r="D174" s="37"/>
       <c r="E174" s="18"/>
       <c r="F174" s="19"/>
@@ -10733,7 +10806,7 @@
       <c r="B175" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="50"/>
+      <c r="C175" s="49"/>
       <c r="D175" s="29"/>
       <c r="E175" s="30"/>
       <c r="F175" s="31">
@@ -10742,7 +10815,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-1833</v>
+        <v>-2054.46</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -11737,11 +11810,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
     <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="9" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11827,7 +11895,7 @@
     <col min="5" max="5" width="29.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="52" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="1" customWidth="1"/>
     <col min="11" max="13" width="5" style="1" customWidth="1"/>
@@ -11868,16 +11936,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C2"/>
@@ -11887,29 +11955,29 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="56"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -11967,22 +12035,22 @@
       <c r="BL3"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72">
+      <c r="C4" s="70"/>
+      <c r="D4" s="71">
         <v>1334.63</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="58">
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="57">
         <f t="shared" ref="H4:H9" si="0">SUM(C4:G4)</f>
         <v>1334.63</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="58" t="s">
         <v>26</v>
       </c>
       <c r="J4"/>
@@ -12042,22 +12110,22 @@
       <c r="BL4"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="55">
+      <c r="C5" s="73"/>
+      <c r="D5" s="54">
         <v>393.27</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="58">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="57">
         <f t="shared" si="0"/>
         <v>393.27</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="58" t="s">
         <v>21</v>
       </c>
       <c r="J5"/>
@@ -12117,22 +12185,22 @@
       <c r="BL5"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="55">
+      <c r="C6" s="73"/>
+      <c r="D6" s="54">
         <v>519.57999999999993</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="58">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="57">
         <f t="shared" si="0"/>
         <v>519.57999999999993</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>13</v>
       </c>
       <c r="J6"/>
@@ -12192,24 +12260,24 @@
       <c r="BL6"/>
     </row>
     <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="73">
         <v>403</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <v>2599.19</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="58">
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="57">
         <f t="shared" si="0"/>
         <v>3002.19</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="58" t="s">
         <v>12</v>
       </c>
       <c r="J7"/>
@@ -12269,24 +12337,24 @@
       <c r="BL7"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="73">
         <v>1277.7</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
         <v>3880.55</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="58">
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="57">
         <f t="shared" si="0"/>
         <v>5158.25</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="58" t="s">
         <v>0</v>
       </c>
       <c r="J8"/>
@@ -12346,24 +12414,24 @@
       <c r="BL8"/>
     </row>
     <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="73">
         <v>598</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="54">
         <v>0</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="58">
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="57">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="58" t="s">
         <v>18</v>
       </c>
       <c r="J9"/>
@@ -12424,23 +12492,23 @@
     </row>
     <row r="10" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="55">
+      <c r="C10" s="73"/>
+      <c r="D10" s="54">
         <v>118.5</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="75">
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="74">
         <v>0.01</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="57">
         <f t="shared" ref="H10" si="1">SUM(C10:G10)</f>
         <v>118.51</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="58" t="s">
         <v>24</v>
       </c>
       <c r="J10"/>
@@ -12501,25 +12569,25 @@
     </row>
     <row r="11" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43"/>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="75">
         <v>2278.6999999999998</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="76">
         <v>8845.7200000000012</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78">
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77">
         <v>0.01</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="78">
         <f t="shared" ref="H11" si="2">SUM(C11:G11)</f>
         <v>11124.430000000002</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="79" t="s">
         <v>40</v>
       </c>
       <c r="J11"/>
@@ -12775,7 +12843,7 @@
     </row>
     <row r="15" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>2</v>
       </c>
       <c r="C15"/>
@@ -12785,210 +12853,210 @@
     </row>
     <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72">
+      <c r="C17" s="70"/>
+      <c r="D17" s="71">
         <v>-148.5</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="58">
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="57">
         <f t="shared" ref="H17:H25" si="3">SUM(C17:G17)</f>
         <v>-148.5</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="55">
+      <c r="C18" s="73"/>
+      <c r="D18" s="54">
         <v>-380.98</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="58">
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="57">
         <f t="shared" si="3"/>
         <v>-380.98</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="55">
+      <c r="C19" s="73"/>
+      <c r="D19" s="54">
         <v>-2980.8100000000009</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="58">
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="57">
         <f t="shared" si="3"/>
         <v>-2980.8100000000009</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="55">
+      <c r="C20" s="73"/>
+      <c r="D20" s="54">
         <v>-2384.2699999999995</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55">
+      <c r="E20" s="54"/>
+      <c r="F20" s="54">
         <v>-165.26</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="58">
+      <c r="G20" s="74"/>
+      <c r="H20" s="57">
         <f t="shared" si="3"/>
         <v>-2549.5299999999997</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="55">
+      <c r="C21" s="73"/>
+      <c r="D21" s="54">
         <v>-855</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="58">
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="57">
         <f t="shared" si="3"/>
         <v>-855</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="58" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="55">
+      <c r="C22" s="73"/>
+      <c r="D22" s="54">
         <v>-3633.85</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="58">
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="57">
         <f t="shared" si="3"/>
         <v>-3633.85</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="58" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="55">
+      <c r="C23" s="73"/>
+      <c r="D23" s="54">
         <v>-1046</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="58">
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="57">
         <f t="shared" si="3"/>
         <v>-1046</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="58" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43"/>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="55">
+      <c r="C24" s="73"/>
+      <c r="D24" s="54">
         <v>-46.239999999999995</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="58">
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="57">
         <f t="shared" si="3"/>
         <v>-46.239999999999995</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="58" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="43"/>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77">
+      <c r="C25" s="75"/>
+      <c r="D25" s="76">
         <v>-11475.65</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77">
+      <c r="E25" s="76"/>
+      <c r="F25" s="76">
         <v>-165.26</v>
       </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="79">
+      <c r="G25" s="77"/>
+      <c r="H25" s="78">
         <f t="shared" si="3"/>
         <v>-11640.91</v>
       </c>
-      <c r="I25" s="80" t="s">
+      <c r="I25" s="79" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12999,7 +13067,7 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27"/>
@@ -13008,7 +13076,7 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="I27" s="61"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28"/>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8359056-84A6-4D82-89E1-348B53DD7CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291621EC-0E84-48E5-B7C3-B678C8586782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="79">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -244,6 +244,33 @@
   </si>
   <si>
     <t>Tzgl</t>
+  </si>
+  <si>
+    <t>SPD Miete 6.3.</t>
+  </si>
+  <si>
+    <t>Strom Nachzahlung</t>
+  </si>
+  <si>
+    <t>Spendenbox JHV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blumen Jubiläen </t>
+  </si>
+  <si>
+    <t>JHV Brezeln</t>
+  </si>
+  <si>
+    <t>JHV Hdb Miete</t>
+  </si>
+  <si>
+    <t>Bürgerbus Jahresbeitrag</t>
+  </si>
+  <si>
+    <t>A.Steinbrügger Miete Häusle</t>
+  </si>
+  <si>
+    <t>SPD Getraenke 2.4.</t>
   </si>
 </sst>
 </file>
@@ -911,17 +938,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3747,17 +3764,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="54">
+    <format dxfId="52">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3856,17 +3873,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="57">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4992,9 +5009,9 @@
   </sheetPr>
   <dimension ref="A1:IJ175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5395,30 +5412,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>45726</v>
+      </c>
       <c r="B17" s="48">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="H17" s="17">
+        <v>20</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>45740</v>
+      </c>
       <c r="B18" s="48">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="20">
+        <v>40</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="2"/>
@@ -5427,14 +5460,22 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>45747</v>
+      </c>
       <c r="B19" s="48">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="20">
+        <v>110</v>
+      </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="2"/>
@@ -5443,42 +5484,66 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>45747</v>
+      </c>
       <c r="B20" s="48">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20">
+        <v>50</v>
+      </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>45749</v>
+      </c>
       <c r="B21" s="48">
         <v>18</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="20">
+        <v>120</v>
+      </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>45750</v>
+      </c>
       <c r="B22" s="48">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="20">
+        <v>24</v>
+      </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="2"/>
@@ -6711,7 +6776,7 @@
       </c>
       <c r="F110" s="26">
         <f>SUM(F3:F109)</f>
-        <v>5487.7300000000214</v>
+        <v>5831.7300000000214</v>
       </c>
       <c r="G110" s="26">
         <f>SUM(G3:G109)</f>
@@ -6719,7 +6784,7 @@
       </c>
       <c r="H110" s="26">
         <f>SUM(H3:H109)</f>
-        <v>322.99999999999909</v>
+        <v>342.99999999999909</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -6749,7 +6814,7 @@
       </c>
       <c r="F112" s="26">
         <f>F110+Ausgaben!G175</f>
-        <v>3433.2700000000214</v>
+        <v>3031.7000000000216</v>
       </c>
       <c r="G112" s="26">
         <f>G110+Ausgaben!H175</f>
@@ -6757,7 +6822,7 @@
       </c>
       <c r="H112" s="26">
         <f>H110+Ausgaben!I175</f>
-        <v>153.96999999999909</v>
+        <v>173.96999999999909</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -6782,7 +6847,7 @@
       <c r="C114" s="22"/>
       <c r="D114" s="27">
         <f>SUM(E112:H112)</f>
-        <v>5587.7400000000207</v>
+        <v>5206.170000000021</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="17"/>
@@ -7522,137 +7587,132 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A93:A96">
-    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="50" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="49" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="48" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D88">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:F81">
-    <cfRule type="cellIs" dxfId="46" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="45" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:G69 E70:G70 E72:G72 G81:G82">
-    <cfRule type="cellIs" dxfId="44" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:G80">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="41" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="40" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F36">
-    <cfRule type="cellIs" dxfId="39" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:F41">
-    <cfRule type="cellIs" dxfId="38" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:F45">
-    <cfRule type="cellIs" dxfId="37" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:F56">
-    <cfRule type="cellIs" dxfId="36" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="35" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="34" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G88 D89:G97">
-    <cfRule type="cellIs" dxfId="33" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:H3 G15 G17:G23 G98 E99:G99 D109:H109 E110:H174 D114">
-    <cfRule type="cellIs" dxfId="32" priority="336" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:H3 G98 E99:G99 D109:H109 E110:H174 D114">
+    <cfRule type="cellIs" dxfId="31" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="31" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="30" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:H27">
-    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 H4:H26 H28:H109 E59:G68 A92:C92 D4:D68">
-    <cfRule type="cellIs" dxfId="28" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G23">
+    <cfRule type="cellIs" dxfId="26" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="27" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G36">
-    <cfRule type="cellIs" dxfId="26" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 G52:G56 F57:G58">
-    <cfRule type="cellIs" dxfId="25" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7680,9 +7740,9 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8579,14 +8639,22 @@
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
-      <c r="B36" s="14"/>
+      <c r="B36" s="14">
+        <v>45734</v>
+      </c>
       <c r="C36" s="48">
         <v>34</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82"/>
+      <c r="D36" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="20">
+        <v>-72.87</v>
+      </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="4"/>
@@ -8595,14 +8663,22 @@
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
-      <c r="B37" s="14"/>
+      <c r="B37" s="14">
+        <v>45734</v>
+      </c>
       <c r="C37" s="48">
         <v>35</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="82"/>
+      <c r="D37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="20">
+        <v>-18.190000000000001</v>
+      </c>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="4"/>
@@ -8611,14 +8687,22 @@
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
-      <c r="B38" s="14"/>
+      <c r="B38" s="14">
+        <v>45736</v>
+      </c>
       <c r="C38" s="48">
         <v>36</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="20">
+        <v>-15.65</v>
+      </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="4"/>
@@ -8627,14 +8711,22 @@
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="14">
+        <v>45737</v>
+      </c>
       <c r="C39" s="48">
         <v>37</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="20">
+        <v>-12.99</v>
+      </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="4"/>
@@ -8643,14 +8735,22 @@
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
-      <c r="B40" s="14"/>
+      <c r="B40" s="14">
+        <v>45740</v>
+      </c>
       <c r="C40" s="48">
         <v>38</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="82"/>
+      <c r="D40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
+      <c r="G40" s="20">
+        <v>-29.72</v>
+      </c>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="4"/>
@@ -8659,14 +8759,22 @@
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="14">
+        <v>45740</v>
+      </c>
       <c r="C41" s="48">
         <v>39</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="21"/>
+      <c r="D41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="82" t="s">
+        <v>22</v>
+      </c>
       <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
+      <c r="G41" s="20">
+        <v>-135</v>
+      </c>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="4"/>
@@ -8675,14 +8783,22 @@
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41"/>
-      <c r="B42" s="14"/>
+      <c r="B42" s="14">
+        <v>45741</v>
+      </c>
       <c r="C42" s="48">
         <v>40</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="20">
+        <v>-21.8</v>
+      </c>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="4"/>
@@ -8691,14 +8807,22 @@
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
-      <c r="B43" s="14"/>
+      <c r="B43" s="14">
+        <v>45744</v>
+      </c>
       <c r="C43" s="48">
         <v>41</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="21"/>
+      <c r="D43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
+      <c r="G43" s="20">
+        <v>-144.1</v>
+      </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="4"/>
@@ -8707,14 +8831,22 @@
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
-      <c r="B44" s="14"/>
+      <c r="B44" s="14">
+        <v>45747</v>
+      </c>
       <c r="C44" s="48">
         <v>42</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="82"/>
+      <c r="D44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
+      <c r="G44" s="20">
+        <v>-60</v>
+      </c>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="4"/>
@@ -8723,14 +8855,22 @@
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41"/>
-      <c r="B45" s="14"/>
+      <c r="B45" s="14">
+        <v>45747</v>
+      </c>
       <c r="C45" s="48">
         <v>43</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="20"/>
+      <c r="D45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20">
+        <v>-30.85</v>
+      </c>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="4"/>
@@ -8739,14 +8879,22 @@
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="14">
+        <v>45748</v>
+      </c>
       <c r="C46" s="48">
         <v>44</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="21"/>
+      <c r="D46" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
+      <c r="G46" s="20">
+        <v>-12</v>
+      </c>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="4"/>
@@ -8755,14 +8903,22 @@
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41"/>
-      <c r="B47" s="14"/>
+      <c r="B47" s="14">
+        <v>45749</v>
+      </c>
       <c r="C47" s="48">
         <v>45</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="21"/>
+      <c r="D47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F47" s="19"/>
-      <c r="G47" s="20"/>
+      <c r="G47" s="20">
+        <v>-112</v>
+      </c>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
       <c r="J47" s="4"/>
@@ -8771,14 +8927,22 @@
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41"/>
-      <c r="B48" s="14"/>
+      <c r="B48" s="14">
+        <v>45749</v>
+      </c>
       <c r="C48" s="48">
         <v>46</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="20"/>
+      <c r="D48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20">
+        <v>-52</v>
+      </c>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
       <c r="J48" s="4"/>
@@ -8787,14 +8951,22 @@
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
-      <c r="B49" s="14"/>
+      <c r="B49" s="14">
+        <v>45750</v>
+      </c>
       <c r="C49" s="48">
         <v>47</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="82"/>
+      <c r="D49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="G49" s="20">
+        <v>-28.4</v>
+      </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="4"/>
@@ -10815,7 +10987,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-2054.46</v>
+        <v>-2800.0299999999997</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -11739,87 +11911,77 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="24" priority="473" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="473" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="23" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="20" priority="709" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="709" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="19" priority="477" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="477" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="18" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="17" priority="448" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="13" priority="661" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="661" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A239 E3:E160">
-    <cfRule type="cellIs" dxfId="12" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="8" priority="391" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291621EC-0E84-48E5-B7C3-B678C8586782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E4D35D-1085-4E06-B7E5-BDD479278C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="84">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -271,6 +271,21 @@
   </si>
   <si>
     <t>SPD Getraenke 2.4.</t>
+  </si>
+  <si>
+    <t>awo bund</t>
+  </si>
+  <si>
+    <t>Eichenhof Spende Eier</t>
+  </si>
+  <si>
+    <t>Einnahmen Fr.erwachen</t>
+  </si>
+  <si>
+    <t>Ausgaben Ukrainer Fr.erwachen</t>
+  </si>
+  <si>
+    <t>Bargeldeinzahlung</t>
   </si>
 </sst>
 </file>
@@ -938,12 +953,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3764,17 +3774,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="52">
+    <format dxfId="51">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3873,17 +3883,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="55">
+    <format dxfId="54">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5010,8 +5020,8 @@
   <dimension ref="A1:IJ175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5550,41 +5560,65 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>45757</v>
+      </c>
       <c r="B23" s="48">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="20">
+        <v>17.84</v>
+      </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>45761</v>
+      </c>
       <c r="B24" s="48">
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>45760</v>
+      </c>
       <c r="B25" s="48">
         <v>22</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="20">
+        <v>1105</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -5592,28 +5626,44 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>45761</v>
+      </c>
       <c r="B26" s="48">
         <v>23</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="20">
+        <v>805</v>
+      </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>45764</v>
+      </c>
       <c r="B27" s="15">
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="20">
+        <v>95</v>
+      </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="2"/>
@@ -6772,11 +6822,11 @@
       <c r="D110" s="24"/>
       <c r="E110" s="25">
         <f>SUM(E3:E109)</f>
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="F110" s="26">
         <f>SUM(F3:F109)</f>
-        <v>5831.7300000000214</v>
+        <v>6749.5700000000215</v>
       </c>
       <c r="G110" s="26">
         <f>SUM(G3:G109)</f>
@@ -6814,7 +6864,7 @@
       </c>
       <c r="F112" s="26">
         <f>F110+Ausgaben!G175</f>
-        <v>3031.7000000000216</v>
+        <v>3896.5200000000218</v>
       </c>
       <c r="G112" s="26">
         <f>G110+Ausgaben!H175</f>
@@ -6847,7 +6897,7 @@
       <c r="C114" s="22"/>
       <c r="D114" s="27">
         <f>SUM(E112:H112)</f>
-        <v>5206.170000000021</v>
+        <v>6070.9900000000216</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="17"/>
@@ -7587,52 +7637,52 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A93:A96">
-    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="48" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D99">
-    <cfRule type="cellIs" dxfId="47" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="46" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D88">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:F81">
-    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:G69 E70:G70 E72:G72 G81:G82">
-    <cfRule type="cellIs" dxfId="43" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:G80">
-    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:G109">
-    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="40" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7686,7 +7736,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:H27">
+  <conditionalFormatting sqref="G27:H27">
     <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7741,8 +7791,8 @@
   <dimension ref="A1:IL241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8975,14 +9025,22 @@
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41"/>
-      <c r="B50" s="14"/>
+      <c r="B50" s="14">
+        <v>45761</v>
+      </c>
       <c r="C50" s="48">
         <v>48</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="21"/>
+      <c r="D50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
+      <c r="G50" s="20">
+        <v>-16</v>
+      </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="4"/>
@@ -8991,13 +9049,21 @@
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
-      <c r="B51" s="14"/>
+      <c r="B51" s="14">
+        <v>45760</v>
+      </c>
       <c r="C51" s="48">
         <v>49</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="19"/>
+      <c r="D51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="19">
+        <v>-300</v>
+      </c>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -9007,13 +9073,21 @@
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="41"/>
-      <c r="B52" s="14"/>
+      <c r="B52" s="14">
+        <v>45761</v>
+      </c>
       <c r="C52" s="48">
         <v>50</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="19"/>
+      <c r="D52" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-805</v>
+      </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -9023,14 +9097,22 @@
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="41"/>
-      <c r="B53" s="14"/>
+      <c r="B53" s="14">
+        <v>45761</v>
+      </c>
       <c r="C53" s="48">
         <v>51</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
+      <c r="D53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="20">
+        <v>-18.66</v>
+      </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="4"/>
@@ -9039,14 +9121,22 @@
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
-      <c r="B54" s="14"/>
+      <c r="B54" s="14">
+        <v>45762</v>
+      </c>
       <c r="C54" s="48">
         <v>52</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="21"/>
+      <c r="D54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
+      <c r="G54" s="20">
+        <v>-18.36</v>
+      </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="4"/>
@@ -10983,11 +11073,11 @@
       <c r="E175" s="30"/>
       <c r="F175" s="31">
         <f>SUM(F3:F174)</f>
-        <v>0</v>
+        <v>-1105</v>
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-2800.0299999999997</v>
+        <v>-2853.0499999999997</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -11911,120 +12001,125 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="22" priority="473" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="21" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="463" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="18" priority="709" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="710" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="17" priority="477" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="478" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="16" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="15" priority="448" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="11" priority="661" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="662" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A239 E3:E160">
-    <cfRule type="cellIs" dxfId="10" priority="479" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A239 E3:E51 E53:E160">
+    <cfRule type="cellIs" dxfId="10" priority="480" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="5" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="3" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="2" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80:E81 E120 E83:E98 E100:E116 E118 E123:E174 E3:E78" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80:E81 E120 E83:E98 E100:E116 E118 E123:E174 E3:E51 E53:E78" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99 E82 E79 E119 E117 E121:E122" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99 E82 E79 E119 E117 E121:E122 E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E4D35D-1085-4E06-B7E5-BDD479278C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBA6A90-B962-49B0-9008-E02CB4BDD5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Bargeldeinzahlung</t>
+  </si>
+  <si>
+    <t>Druckerei Nitsch</t>
+  </si>
+  <si>
+    <t>Getränke Borscht</t>
   </si>
 </sst>
 </file>
@@ -5019,8 +5025,8 @@
   </sheetPr>
   <dimension ref="A1:IJ175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -6864,7 +6870,7 @@
       </c>
       <c r="F112" s="26">
         <f>F110+Ausgaben!G175</f>
-        <v>3896.5200000000218</v>
+        <v>3484.4000000000219</v>
       </c>
       <c r="G112" s="26">
         <f>G110+Ausgaben!H175</f>
@@ -6897,7 +6903,7 @@
       <c r="C114" s="22"/>
       <c r="D114" s="27">
         <f>SUM(E112:H112)</f>
-        <v>6070.9900000000216</v>
+        <v>5658.8700000000208</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="17"/>
@@ -7736,33 +7742,33 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H26 H28:H109 E59:G68 A92:C92 D4:D68">
-    <cfRule type="cellIs" dxfId="27" priority="170" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 H4:H26 D4:D68 H28:H109 E59:G68 A92:C92">
+    <cfRule type="cellIs" dxfId="28" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G23">
-    <cfRule type="cellIs" dxfId="26" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="25" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G36">
-    <cfRule type="cellIs" dxfId="24" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 G52:G56 F57:G58">
-    <cfRule type="cellIs" dxfId="23" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="cellIs" dxfId="23" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7790,9 +7796,9 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9145,14 +9151,22 @@
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
-      <c r="B55" s="14"/>
+      <c r="B55" s="14">
+        <v>45769</v>
+      </c>
       <c r="C55" s="48">
         <v>53</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="21"/>
+      <c r="D55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
+      <c r="G55" s="20">
+        <v>-238</v>
+      </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="4"/>
@@ -9161,14 +9175,22 @@
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
-      <c r="B56" s="14"/>
+      <c r="B56" s="14">
+        <v>45770</v>
+      </c>
       <c r="C56" s="48">
         <v>54</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="21"/>
+      <c r="D56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F56" s="19"/>
-      <c r="G56" s="20"/>
+      <c r="G56" s="20">
+        <v>-8</v>
+      </c>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
       <c r="J56" s="4"/>
@@ -9177,14 +9199,22 @@
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
-      <c r="B57" s="14"/>
+      <c r="B57" s="14">
+        <v>45770</v>
+      </c>
       <c r="C57" s="48">
         <v>55</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="21"/>
+      <c r="D57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F57" s="19"/>
-      <c r="G57" s="20"/>
+      <c r="G57" s="20">
+        <v>-12.99</v>
+      </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="4"/>
@@ -9193,14 +9223,22 @@
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
-      <c r="B58" s="14"/>
+      <c r="B58" s="14">
+        <v>45775</v>
+      </c>
       <c r="C58" s="48">
         <v>56</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="21"/>
+      <c r="D58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
+      <c r="G58" s="20">
+        <v>-153.13</v>
+      </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="4"/>
@@ -11077,7 +11115,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-2853.0499999999997</v>
+        <v>-3265.1699999999996</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -12000,118 +12038,118 @@
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:A239">
+    <cfRule type="cellIs" dxfId="22" priority="480" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="22" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="474" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="21" priority="463" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="463" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="18" priority="710" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="710" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="17" priority="478" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="478" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="16" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="15" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="11" priority="662" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="662" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A239 E3:E51 E53:E160">
-    <cfRule type="cellIs" dxfId="10" priority="480" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E160">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="6" priority="371" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="5" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="4" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="3" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="1" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBA6A90-B962-49B0-9008-E02CB4BDD5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBEE13C-849A-4720-92B6-C2C8B4BB85EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$J$170</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$107</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$I$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="88">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>Getränke Borscht</t>
+  </si>
+  <si>
+    <t>19a</t>
+  </si>
+  <si>
+    <t>SPD Miete 2.4.</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1438,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:H109" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:H110" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -5023,11 +5029,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IJ175"/>
+  <dimension ref="A1:IJ176"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5567,42 +5573,42 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <v>45757</v>
-      </c>
-      <c r="B23" s="48">
+        <v>45755</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="20">
-        <v>17.84</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <v>45761</v>
+        <v>45757</v>
       </c>
       <c r="B24" s="48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="17">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="20">
+        <v>17.84</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -5611,21 +5617,21 @@
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <v>45760</v>
+        <v>45761</v>
       </c>
       <c r="B25" s="48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="17">
         <v>0</v>
       </c>
-      <c r="E25" s="20">
-        <v>1105</v>
-      </c>
-      <c r="F25" s="20"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="2"/>
@@ -5633,21 +5639,21 @@
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <v>45761</v>
+        <v>45760</v>
       </c>
       <c r="B26" s="48">
-        <v>23</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20">
-        <v>805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1105</v>
+      </c>
+      <c r="F26" s="20"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="2"/>
@@ -5655,20 +5661,20 @@
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <v>45764</v>
-      </c>
-      <c r="B27" s="15">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>45761</v>
+      </c>
+      <c r="B27" s="48">
+        <v>23</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="20">
-        <v>95</v>
+        <v>805</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -5676,28 +5682,44 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14">
+        <v>45764</v>
+      </c>
       <c r="B28" s="15">
-        <v>25</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="20">
+        <v>95</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14">
+        <v>45414</v>
+      </c>
       <c r="B29" s="15">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="20">
+        <v>102</v>
+      </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="2"/>
@@ -5706,12 +5728,12 @@
     <row r="30" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="2"/>
@@ -5720,7 +5742,7 @@
     <row r="31" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="18"/>
@@ -5734,9 +5756,9 @@
     <row r="32" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="15">
-        <v>29</v>
-      </c>
-      <c r="C32" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="18"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
@@ -5748,7 +5770,7 @@
     <row r="33" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="18"/>
@@ -5762,9 +5784,9 @@
     <row r="34" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="15">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="15"/>
       <c r="D34" s="18"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
@@ -5776,7 +5798,7 @@
     <row r="35" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="18"/>
@@ -5790,7 +5812,7 @@
     <row r="36" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="18"/>
@@ -5804,7 +5826,7 @@
     <row r="37" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="18"/>
@@ -5817,10 +5839,10 @@
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
-      <c r="B38" s="48">
-        <v>35</v>
-      </c>
-      <c r="C38" s="37"/>
+      <c r="B38" s="15">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="18"/>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
@@ -5831,8 +5853,8 @@
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="15">
-        <v>36</v>
+      <c r="B39" s="48">
+        <v>35</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="18"/>
@@ -5846,7 +5868,7 @@
     <row r="40" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="18"/>
@@ -5860,7 +5882,7 @@
     <row r="41" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="18"/>
@@ -5873,13 +5895,13 @@
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
-      <c r="B42" s="48">
-        <v>39</v>
+      <c r="B42" s="15">
+        <v>38</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="2"/>
@@ -5887,10 +5909,10 @@
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="15">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3"/>
+      <c r="B43" s="48">
+        <v>39</v>
+      </c>
+      <c r="C43" s="37"/>
       <c r="D43" s="18"/>
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
@@ -5902,7 +5924,7 @@
     <row r="44" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="18"/>
@@ -5916,12 +5938,12 @@
     <row r="45" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="2"/>
@@ -5930,12 +5952,12 @@
     <row r="46" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="2"/>
@@ -5944,12 +5966,12 @@
     <row r="47" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="15">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="2"/>
@@ -5958,7 +5980,7 @@
     <row r="48" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="18"/>
@@ -5972,12 +5994,12 @@
     <row r="49" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="2"/>
@@ -5986,12 +6008,12 @@
     <row r="50" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="2"/>
@@ -6000,11 +6022,11 @@
     <row r="51" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -6014,12 +6036,12 @@
     <row r="52" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="18"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="2"/>
@@ -6028,12 +6050,12 @@
     <row r="53" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="2"/>
@@ -6042,7 +6064,7 @@
     <row r="54" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="15">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="18"/>
@@ -6056,7 +6078,7 @@
     <row r="55" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="18"/>
@@ -6070,7 +6092,7 @@
     <row r="56" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="18"/>
@@ -6084,11 +6106,11 @@
     <row r="57" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="15">
-        <v>54</v>
-      </c>
-      <c r="C57" s="37"/>
+        <v>53</v>
+      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -6098,9 +6120,9 @@
     <row r="58" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="15">
-        <v>55</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C58" s="37"/>
       <c r="D58" s="18"/>
       <c r="E58" s="19"/>
       <c r="F58" s="17"/>
@@ -6112,11 +6134,11 @@
     <row r="59" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="15">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="18"/>
-      <c r="E59" s="16"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -6126,7 +6148,7 @@
     <row r="60" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="15">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="18"/>
@@ -6139,10 +6161,10 @@
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
-      <c r="B61" s="48">
-        <v>58</v>
-      </c>
-      <c r="C61" s="37"/>
+      <c r="B61" s="15">
+        <v>57</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="18"/>
       <c r="E61" s="16"/>
       <c r="F61" s="17"/>
@@ -6154,9 +6176,9 @@
     <row r="62" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="48">
-        <v>59</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C62" s="37"/>
       <c r="D62" s="18"/>
       <c r="E62" s="16"/>
       <c r="F62" s="17"/>
@@ -6168,9 +6190,9 @@
     <row r="63" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="48">
-        <v>60</v>
-      </c>
-      <c r="C63" s="37"/>
+        <v>59</v>
+      </c>
+      <c r="C63" s="3"/>
       <c r="D63" s="18"/>
       <c r="E63" s="16"/>
       <c r="F63" s="17"/>
@@ -6182,9 +6204,9 @@
     <row r="64" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="48">
-        <v>61</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C64" s="37"/>
       <c r="D64" s="18"/>
       <c r="E64" s="16"/>
       <c r="F64" s="17"/>
@@ -6196,7 +6218,7 @@
     <row r="65" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="48">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="18"/>
@@ -6209,10 +6231,10 @@
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
-      <c r="B66" s="15">
-        <v>63</v>
-      </c>
-      <c r="C66" s="37"/>
+      <c r="B66" s="48">
+        <v>62</v>
+      </c>
+      <c r="C66" s="3"/>
       <c r="D66" s="18"/>
       <c r="E66" s="16"/>
       <c r="F66" s="17"/>
@@ -6223,8 +6245,8 @@
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
-      <c r="B67" s="48">
-        <v>64</v>
+      <c r="B67" s="15">
+        <v>63</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="18"/>
@@ -6237,10 +6259,10 @@
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
-      <c r="B68" s="15">
-        <v>65</v>
-      </c>
-      <c r="C68" s="15"/>
+      <c r="B68" s="48">
+        <v>64</v>
+      </c>
+      <c r="C68" s="37"/>
       <c r="D68" s="18"/>
       <c r="E68" s="16"/>
       <c r="F68" s="17"/>
@@ -6252,7 +6274,7 @@
     <row r="69" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="18"/>
@@ -6266,7 +6288,7 @@
     <row r="70" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="15">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="18"/>
@@ -6280,11 +6302,11 @@
     <row r="71" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="15">
-        <v>68</v>
-      </c>
-      <c r="C71" s="37"/>
+        <v>67</v>
+      </c>
+      <c r="C71" s="15"/>
       <c r="D71" s="18"/>
-      <c r="E71" s="19"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
@@ -6294,11 +6316,11 @@
     <row r="72" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="15">
-        <v>69</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C72" s="37"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="16"/>
+      <c r="E72" s="19"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -6308,9 +6330,9 @@
     <row r="73" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="15">
-        <v>70</v>
-      </c>
-      <c r="C73" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="18"/>
       <c r="E73" s="16"/>
       <c r="F73" s="17"/>
@@ -6322,7 +6344,7 @@
     <row r="74" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="18"/>
@@ -6336,7 +6358,7 @@
     <row r="75" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="15">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="18"/>
@@ -6350,7 +6372,7 @@
     <row r="76" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="15">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="18"/>
@@ -6364,7 +6386,7 @@
     <row r="77" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="15">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="18"/>
@@ -6378,7 +6400,7 @@
     <row r="78" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="15">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="18"/>
@@ -6392,9 +6414,9 @@
     <row r="79" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15">
-        <v>76</v>
-      </c>
-      <c r="C79" s="37"/>
+        <v>75</v>
+      </c>
+      <c r="C79" s="15"/>
       <c r="D79" s="18"/>
       <c r="E79" s="16"/>
       <c r="F79" s="17"/>
@@ -6406,9 +6428,9 @@
     <row r="80" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="15">
-        <v>77</v>
-      </c>
-      <c r="C80" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C80" s="37"/>
       <c r="D80" s="18"/>
       <c r="E80" s="16"/>
       <c r="F80" s="17"/>
@@ -6420,7 +6442,7 @@
     <row r="81" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="15">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="18"/>
@@ -6433,13 +6455,13 @@
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
-      <c r="B82" s="48">
-        <v>79</v>
-      </c>
-      <c r="C82" s="50"/>
+      <c r="B82" s="15">
+        <v>78</v>
+      </c>
+      <c r="C82" s="3"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="20"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="17"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="2"/>
@@ -6447,13 +6469,13 @@
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
-      <c r="B83" s="15">
-        <v>80</v>
+      <c r="B83" s="48">
+        <v>79</v>
       </c>
       <c r="C83" s="50"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="17"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="20"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="2"/>
@@ -6462,7 +6484,7 @@
     <row r="84" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="15">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="50"/>
       <c r="D84" s="18"/>
@@ -6476,7 +6498,7 @@
     <row r="85" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="15">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="50"/>
       <c r="D85" s="18"/>
@@ -6490,7 +6512,7 @@
     <row r="86" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="15">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="50"/>
       <c r="D86" s="18"/>
@@ -6504,9 +6526,9 @@
     <row r="87" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="15">
-        <v>84</v>
-      </c>
-      <c r="C87" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="C87" s="50"/>
       <c r="D87" s="18"/>
       <c r="E87" s="16"/>
       <c r="F87" s="17"/>
@@ -6518,9 +6540,9 @@
     <row r="88" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="15">
-        <v>85</v>
-      </c>
-      <c r="C88" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C88" s="15"/>
       <c r="D88" s="18"/>
       <c r="E88" s="16"/>
       <c r="F88" s="17"/>
@@ -6532,7 +6554,7 @@
     <row r="89" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="15">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="18"/>
@@ -6546,7 +6568,7 @@
     <row r="90" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="18"/>
@@ -6560,7 +6582,7 @@
     <row r="91" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="18"/>
@@ -6573,10 +6595,10 @@
     </row>
     <row r="92" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
-      <c r="B92" s="48">
-        <v>89</v>
-      </c>
-      <c r="C92" s="37"/>
+      <c r="B92" s="15">
+        <v>88</v>
+      </c>
+      <c r="C92" s="3"/>
       <c r="D92" s="18"/>
       <c r="E92" s="16"/>
       <c r="F92" s="17"/>
@@ -6587,10 +6609,10 @@
     </row>
     <row r="93" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
-      <c r="B93" s="15">
-        <v>90</v>
-      </c>
-      <c r="C93" s="15"/>
+      <c r="B93" s="48">
+        <v>89</v>
+      </c>
+      <c r="C93" s="37"/>
       <c r="D93" s="18"/>
       <c r="E93" s="16"/>
       <c r="F93" s="17"/>
@@ -6602,7 +6624,7 @@
     <row r="94" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="15">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="18"/>
@@ -6616,7 +6638,7 @@
     <row r="95" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="15">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="18"/>
@@ -6630,7 +6652,7 @@
     <row r="96" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="15">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="18"/>
@@ -6644,7 +6666,7 @@
     <row r="97" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="15">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="18"/>
@@ -6658,12 +6680,12 @@
     <row r="98" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="15">
-        <v>95</v>
-      </c>
-      <c r="C98" s="37"/>
+        <v>94</v>
+      </c>
+      <c r="C98" s="15"/>
       <c r="D98" s="18"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="17"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="2"/>
@@ -6672,12 +6694,12 @@
     <row r="99" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="15">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="18"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="17"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="2"/>
@@ -6686,9 +6708,9 @@
     <row r="100" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="15">
-        <v>97</v>
-      </c>
-      <c r="C100" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="C100" s="37"/>
       <c r="D100" s="18"/>
       <c r="E100" s="16"/>
       <c r="F100" s="17"/>
@@ -6700,7 +6722,7 @@
     <row r="101" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="15">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="18"/>
@@ -6714,7 +6736,7 @@
     <row r="102" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="15">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="18"/>
@@ -6728,7 +6750,7 @@
     <row r="103" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="15">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="18"/>
@@ -6742,7 +6764,7 @@
     <row r="104" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="15">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="18"/>
@@ -6756,7 +6778,7 @@
     <row r="105" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="15">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="18"/>
@@ -6770,7 +6792,7 @@
     <row r="106" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="15">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="18"/>
@@ -6783,7 +6805,9 @@
     </row>
     <row r="107" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="15">
+        <v>103</v>
+      </c>
       <c r="C107" s="15"/>
       <c r="D107" s="18"/>
       <c r="E107" s="16"/>
@@ -6814,110 +6838,110 @@
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
-      <c r="I109" s="2" t="s">
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J109" s="2"/>
-    </row>
-    <row r="110" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="25">
-        <f>SUM(E3:E109)</f>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25">
+        <f>SUM(E3:E110)</f>
         <v>1105</v>
       </c>
-      <c r="F110" s="26">
-        <f>SUM(F3:F109)</f>
-        <v>6749.5700000000215</v>
-      </c>
-      <c r="G110" s="26">
-        <f>SUM(G3:G109)</f>
+      <c r="F111" s="26">
+        <f>SUM(F3:F110)</f>
+        <v>6851.5700000000215</v>
+      </c>
+      <c r="G111" s="26">
+        <f>SUM(G3:G110)</f>
         <v>2000.5</v>
       </c>
-      <c r="H110" s="26">
-        <f>SUM(H3:H109)</f>
-        <v>342.99999999999909</v>
-      </c>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-    </row>
-    <row r="111" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
+      <c r="H111" s="26">
+        <f>SUM(H3:H110)</f>
+        <v>362.99999999999909</v>
+      </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="26">
-        <f>E110+Ausgaben!F175</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="26">
-        <f>F110+Ausgaben!G175</f>
-        <v>3484.4000000000219</v>
-      </c>
-      <c r="G112" s="26">
-        <f>G110+Ausgaben!H175</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H112" s="26">
-        <f>H110+Ausgaben!I175</f>
-        <v>173.96999999999909</v>
-      </c>
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="35"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
+      <c r="A113" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="26">
+        <f>E111+Ausgaben!F175</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="26">
+        <f>F111+Ausgaben!G175</f>
+        <v>3410.4000000000219</v>
+      </c>
+      <c r="G113" s="26">
+        <f>G111+Ausgaben!H175</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H113" s="26">
+        <f>H111+Ausgaben!I175</f>
+        <v>193.96999999999909</v>
+      </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="27">
-        <f>SUM(E112:H112)</f>
-        <v>5658.8700000000208</v>
-      </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="36"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="17"/>
+      <c r="A115" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="27">
+        <f>SUM(E113:H113)</f>
+        <v>5604.8700000000208</v>
+      </c>
+      <c r="E115" s="16"/>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
@@ -6925,12 +6949,10 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
@@ -6942,7 +6964,9 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
@@ -7634,80 +7658,92 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
+    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J176" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A93:A96">
+  <conditionalFormatting sqref="A94:A97">
     <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B83">
     <cfRule type="cellIs" dxfId="47" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D99">
+  <conditionalFormatting sqref="C99:D100">
     <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D72">
+  <conditionalFormatting sqref="D71:D73">
     <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D88">
+  <conditionalFormatting sqref="D83:D89">
     <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D81:F81">
+  <conditionalFormatting sqref="D82:F82">
     <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:G69 E70:G70 E72:G72 G81:G82">
+  <conditionalFormatting sqref="D70:G70 E71:G71 E73:G73 G82:G83">
     <cfRule type="cellIs" dxfId="42" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:G80">
+  <conditionalFormatting sqref="D74:G81">
     <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100:G109">
+  <conditionalFormatting sqref="D101:G110">
     <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="39" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F36">
+  <conditionalFormatting sqref="E31:F37">
     <cfRule type="cellIs" dxfId="38" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:F41">
+  <conditionalFormatting sqref="E42:F42">
     <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
+  <conditionalFormatting sqref="E46:F46">
     <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:F56">
+  <conditionalFormatting sqref="E54:F57">
     <cfRule type="cellIs" dxfId="35" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7717,63 +7753,63 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:G40">
+  <conditionalFormatting sqref="E38:G41">
     <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83:G88 D89:G97">
+  <conditionalFormatting sqref="E84:G89 D90:G98">
     <cfRule type="cellIs" dxfId="32" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:H3 G98 E99:G99 D109:H109 E110:H174 D114">
+  <conditionalFormatting sqref="E3:H3 G99 E100:G100 D110:H110 E111:H175 D115">
     <cfRule type="cellIs" dxfId="31" priority="336" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
+  <conditionalFormatting sqref="F25:G25">
     <cfRule type="cellIs" dxfId="30" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="29" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H26 D4:D68 H28:H109 E59:G68 A92:C92">
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H110 E60:G69 A93:C93 D4:D69">
     <cfRule type="cellIs" dxfId="28" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G23">
+  <conditionalFormatting sqref="G15:G24">
     <cfRule type="cellIs" dxfId="27" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G26">
+  <conditionalFormatting sqref="G26:G27">
     <cfRule type="cellIs" dxfId="26" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G36">
+  <conditionalFormatting sqref="G29:G37">
     <cfRule type="cellIs" dxfId="25" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 G52:G56 F57:G58">
+  <conditionalFormatting sqref="G42:G47 E48:G49 G50:G51 E51:F51 F52:G52 G53:G57 F58:G59">
     <cfRule type="cellIs" dxfId="24" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
+  <conditionalFormatting sqref="G28:H28">
     <cfRule type="cellIs" dxfId="23" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D109" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D110" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -7784,7 +7820,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="122" max="18" man="1"/>
+    <brk id="123" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -7796,9 +7832,9 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9247,14 +9283,22 @@
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
-      <c r="B59" s="14"/>
+      <c r="B59" s="14">
+        <v>45414</v>
+      </c>
       <c r="C59" s="48">
         <v>57</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="20"/>
+      <c r="D59" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20">
+        <v>-12</v>
+      </c>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
       <c r="J59" s="4"/>
@@ -9263,14 +9307,22 @@
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
-      <c r="B60" s="14"/>
+      <c r="B60" s="14">
+        <v>45418</v>
+      </c>
       <c r="C60" s="48">
         <v>58</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="21"/>
+      <c r="D60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="20">
+        <v>-112</v>
+      </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="4"/>
@@ -9279,14 +9331,22 @@
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
-      <c r="B61" s="14"/>
+      <c r="B61" s="14">
+        <v>45418</v>
+      </c>
       <c r="C61" s="48">
         <v>59</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="21"/>
+      <c r="D61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F61" s="19"/>
-      <c r="G61" s="20"/>
+      <c r="G61" s="20">
+        <v>-52</v>
+      </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="4"/>
@@ -11115,7 +11175,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-3265.1699999999996</v>
+        <v>-3441.1699999999996</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -12115,11 +12175,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
     <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="6" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBEE13C-849A-4720-92B6-C2C8B4BB85EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037026C-1D35-47E9-BEEF-EC2738D86F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$J$170</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$108</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$I$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="98">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -298,6 +298,36 @@
   </si>
   <si>
     <t>SPD Miete 2.4.</t>
+  </si>
+  <si>
+    <t>Spende Radmonteur</t>
+  </si>
+  <si>
+    <t>SPD Getraenke</t>
+  </si>
+  <si>
+    <t>Muttertagsbasteln Getränke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vermietung </t>
+  </si>
+  <si>
+    <t>29a</t>
+  </si>
+  <si>
+    <t>Guenne Vermietung</t>
+  </si>
+  <si>
+    <t>Tinte</t>
+  </si>
+  <si>
+    <t>Radservice Catering</t>
+  </si>
+  <si>
+    <t>Spende Cyclestore</t>
+  </si>
+  <si>
+    <t>Spenden Radservice</t>
   </si>
 </sst>
 </file>
@@ -965,7 +995,12 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1438,7 +1473,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:H110" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:H111" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -3786,17 +3821,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="51">
+    <format dxfId="52">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3895,17 +3930,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="54">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5029,11 +5064,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IJ176"/>
+  <dimension ref="A1:IJ177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5705,7 +5740,7 @@
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <v>45414</v>
+        <v>45779</v>
       </c>
       <c r="B29" s="15">
         <v>25</v>
@@ -5726,82 +5761,128 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>45786</v>
+      </c>
       <c r="B30" s="15">
         <v>26</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="20">
+        <v>20</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>45789</v>
+      </c>
       <c r="B31" s="15">
         <v>27</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
+      <c r="C31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20">
+        <v>10</v>
+      </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14">
+        <v>45790</v>
+      </c>
       <c r="B32" s="15">
         <v>28</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
+      <c r="C32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20">
+        <v>38</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>45791</v>
+      </c>
       <c r="B33" s="15">
         <v>29</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
+      <c r="C33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20">
+        <v>131</v>
+      </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15">
-        <v>30</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="18"/>
+      <c r="A34" s="14">
+        <v>45793</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
+      <c r="F34" s="17">
+        <v>136.52000000000001</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14">
+        <v>45801</v>
+      </c>
       <c r="B35" s="15">
-        <v>31</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -5810,12 +5891,18 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="14">
+        <v>45801</v>
+      </c>
       <c r="B36" s="15">
-        <v>32</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -5824,12 +5911,18 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14">
+        <v>45801</v>
+      </c>
       <c r="B37" s="15">
-        <v>33</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -5838,12 +5931,18 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14">
+        <v>45801</v>
+      </c>
       <c r="B38" s="15">
-        <v>34</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -5852,12 +5951,18 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="48">
-        <v>35</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="18"/>
+      <c r="A39" s="14">
+        <v>45801</v>
+      </c>
+      <c r="B39" s="15">
+        <v>34</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -5866,12 +5971,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15">
-        <v>36</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="14">
+        <v>45801</v>
+      </c>
+      <c r="B40" s="48">
+        <v>35</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -5880,12 +5991,18 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14">
+        <v>45801</v>
+      </c>
       <c r="B41" s="15">
-        <v>37</v>
-      </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -5894,14 +6011,22 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14">
+        <v>45803</v>
+      </c>
       <c r="B42" s="15">
-        <v>38</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="17">
+        <v>85</v>
+      </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="2"/>
@@ -5909,13 +6034,13 @@
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="48">
-        <v>39</v>
+      <c r="B43" s="15">
+        <v>38</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="2"/>
@@ -5923,10 +6048,10 @@
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="15">
-        <v>40</v>
-      </c>
-      <c r="C44" s="3"/>
+      <c r="B44" s="48">
+        <v>39</v>
+      </c>
+      <c r="C44" s="37"/>
       <c r="D44" s="18"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
@@ -5938,7 +6063,7 @@
     <row r="45" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="18"/>
@@ -5952,12 +6077,12 @@
     <row r="46" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="18"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="2"/>
@@ -5966,12 +6091,12 @@
     <row r="47" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="2"/>
@@ -5980,12 +6105,12 @@
     <row r="48" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="15">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="2"/>
@@ -5994,7 +6119,7 @@
     <row r="49" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="18"/>
@@ -6008,12 +6133,12 @@
     <row r="50" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="2"/>
@@ -6022,12 +6147,12 @@
     <row r="51" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="2"/>
@@ -6036,11 +6161,11 @@
     <row r="52" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -6050,12 +6175,12 @@
     <row r="53" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="18"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="20"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="2"/>
@@ -6064,12 +6189,12 @@
     <row r="54" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="2"/>
@@ -6078,7 +6203,7 @@
     <row r="55" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="15">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="18"/>
@@ -6092,7 +6217,7 @@
     <row r="56" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="18"/>
@@ -6106,7 +6231,7 @@
     <row r="57" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="18"/>
@@ -6120,11 +6245,11 @@
     <row r="58" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="15">
-        <v>54</v>
-      </c>
-      <c r="C58" s="37"/>
+        <v>53</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
+      <c r="E58" s="16"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -6134,9 +6259,9 @@
     <row r="59" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="15">
-        <v>55</v>
-      </c>
-      <c r="C59" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C59" s="37"/>
       <c r="D59" s="18"/>
       <c r="E59" s="19"/>
       <c r="F59" s="17"/>
@@ -6148,11 +6273,11 @@
     <row r="60" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="15">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="16"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -6162,7 +6287,7 @@
     <row r="61" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="15">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="18"/>
@@ -6175,10 +6300,10 @@
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
-      <c r="B62" s="48">
-        <v>58</v>
-      </c>
-      <c r="C62" s="37"/>
+      <c r="B62" s="15">
+        <v>57</v>
+      </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="18"/>
       <c r="E62" s="16"/>
       <c r="F62" s="17"/>
@@ -6190,9 +6315,9 @@
     <row r="63" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="48">
-        <v>59</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C63" s="37"/>
       <c r="D63" s="18"/>
       <c r="E63" s="16"/>
       <c r="F63" s="17"/>
@@ -6204,9 +6329,9 @@
     <row r="64" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="48">
-        <v>60</v>
-      </c>
-      <c r="C64" s="37"/>
+        <v>59</v>
+      </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="18"/>
       <c r="E64" s="16"/>
       <c r="F64" s="17"/>
@@ -6218,9 +6343,9 @@
     <row r="65" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="48">
-        <v>61</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C65" s="37"/>
       <c r="D65" s="18"/>
       <c r="E65" s="16"/>
       <c r="F65" s="17"/>
@@ -6232,7 +6357,7 @@
     <row r="66" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="48">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="18"/>
@@ -6245,10 +6370,10 @@
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
-      <c r="B67" s="15">
-        <v>63</v>
-      </c>
-      <c r="C67" s="37"/>
+      <c r="B67" s="48">
+        <v>62</v>
+      </c>
+      <c r="C67" s="3"/>
       <c r="D67" s="18"/>
       <c r="E67" s="16"/>
       <c r="F67" s="17"/>
@@ -6259,8 +6384,8 @@
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
-      <c r="B68" s="48">
-        <v>64</v>
+      <c r="B68" s="15">
+        <v>63</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="18"/>
@@ -6273,10 +6398,10 @@
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
-      <c r="B69" s="15">
-        <v>65</v>
-      </c>
-      <c r="C69" s="15"/>
+      <c r="B69" s="48">
+        <v>64</v>
+      </c>
+      <c r="C69" s="37"/>
       <c r="D69" s="18"/>
       <c r="E69" s="16"/>
       <c r="F69" s="17"/>
@@ -6288,7 +6413,7 @@
     <row r="70" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="18"/>
@@ -6302,7 +6427,7 @@
     <row r="71" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="15">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="18"/>
@@ -6316,11 +6441,11 @@
     <row r="72" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="15">
-        <v>68</v>
-      </c>
-      <c r="C72" s="37"/>
+        <v>67</v>
+      </c>
+      <c r="C72" s="15"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="19"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -6330,11 +6455,11 @@
     <row r="73" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="15">
-        <v>69</v>
-      </c>
-      <c r="C73" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C73" s="37"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="16"/>
+      <c r="E73" s="19"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -6344,9 +6469,9 @@
     <row r="74" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="15">
-        <v>70</v>
-      </c>
-      <c r="C74" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="C74" s="3"/>
       <c r="D74" s="18"/>
       <c r="E74" s="16"/>
       <c r="F74" s="17"/>
@@ -6358,7 +6483,7 @@
     <row r="75" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="18"/>
@@ -6372,7 +6497,7 @@
     <row r="76" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="15">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="18"/>
@@ -6386,7 +6511,7 @@
     <row r="77" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="15">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="18"/>
@@ -6400,7 +6525,7 @@
     <row r="78" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="15">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="18"/>
@@ -6414,7 +6539,7 @@
     <row r="79" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="18"/>
@@ -6428,9 +6553,9 @@
     <row r="80" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="15">
-        <v>76</v>
-      </c>
-      <c r="C80" s="37"/>
+        <v>75</v>
+      </c>
+      <c r="C80" s="15"/>
       <c r="D80" s="18"/>
       <c r="E80" s="16"/>
       <c r="F80" s="17"/>
@@ -6442,9 +6567,9 @@
     <row r="81" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="15">
-        <v>77</v>
-      </c>
-      <c r="C81" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C81" s="37"/>
       <c r="D81" s="18"/>
       <c r="E81" s="16"/>
       <c r="F81" s="17"/>
@@ -6456,7 +6581,7 @@
     <row r="82" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="15">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="18"/>
@@ -6469,13 +6594,13 @@
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
-      <c r="B83" s="48">
-        <v>79</v>
-      </c>
-      <c r="C83" s="50"/>
+      <c r="B83" s="15">
+        <v>78</v>
+      </c>
+      <c r="C83" s="3"/>
       <c r="D83" s="18"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="20"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="2"/>
@@ -6483,13 +6608,13 @@
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
-      <c r="B84" s="15">
-        <v>80</v>
+      <c r="B84" s="48">
+        <v>79</v>
       </c>
       <c r="C84" s="50"/>
       <c r="D84" s="18"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="17"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="20"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
       <c r="I84" s="2"/>
@@ -6498,7 +6623,7 @@
     <row r="85" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="15">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="50"/>
       <c r="D85" s="18"/>
@@ -6512,7 +6637,7 @@
     <row r="86" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="15">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="50"/>
       <c r="D86" s="18"/>
@@ -6526,7 +6651,7 @@
     <row r="87" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="15">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="50"/>
       <c r="D87" s="18"/>
@@ -6540,9 +6665,9 @@
     <row r="88" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="15">
-        <v>84</v>
-      </c>
-      <c r="C88" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="C88" s="50"/>
       <c r="D88" s="18"/>
       <c r="E88" s="16"/>
       <c r="F88" s="17"/>
@@ -6554,9 +6679,9 @@
     <row r="89" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="15">
-        <v>85</v>
-      </c>
-      <c r="C89" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C89" s="15"/>
       <c r="D89" s="18"/>
       <c r="E89" s="16"/>
       <c r="F89" s="17"/>
@@ -6568,7 +6693,7 @@
     <row r="90" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="15">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="18"/>
@@ -6582,7 +6707,7 @@
     <row r="91" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="18"/>
@@ -6596,7 +6721,7 @@
     <row r="92" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="18"/>
@@ -6609,10 +6734,10 @@
     </row>
     <row r="93" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
-      <c r="B93" s="48">
-        <v>89</v>
-      </c>
-      <c r="C93" s="37"/>
+      <c r="B93" s="15">
+        <v>88</v>
+      </c>
+      <c r="C93" s="3"/>
       <c r="D93" s="18"/>
       <c r="E93" s="16"/>
       <c r="F93" s="17"/>
@@ -6623,10 +6748,10 @@
     </row>
     <row r="94" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
-      <c r="B94" s="15">
-        <v>90</v>
-      </c>
-      <c r="C94" s="15"/>
+      <c r="B94" s="48">
+        <v>89</v>
+      </c>
+      <c r="C94" s="37"/>
       <c r="D94" s="18"/>
       <c r="E94" s="16"/>
       <c r="F94" s="17"/>
@@ -6638,7 +6763,7 @@
     <row r="95" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="15">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="18"/>
@@ -6652,7 +6777,7 @@
     <row r="96" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="15">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="18"/>
@@ -6666,7 +6791,7 @@
     <row r="97" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="15">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="18"/>
@@ -6680,7 +6805,7 @@
     <row r="98" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="15">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="18"/>
@@ -6694,12 +6819,12 @@
     <row r="99" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="15">
-        <v>95</v>
-      </c>
-      <c r="C99" s="37"/>
+        <v>94</v>
+      </c>
+      <c r="C99" s="15"/>
       <c r="D99" s="18"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="17"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="2"/>
@@ -6708,12 +6833,12 @@
     <row r="100" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="15">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="18"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="17"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="2"/>
@@ -6722,9 +6847,9 @@
     <row r="101" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="15">
-        <v>97</v>
-      </c>
-      <c r="C101" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="C101" s="37"/>
       <c r="D101" s="18"/>
       <c r="E101" s="16"/>
       <c r="F101" s="17"/>
@@ -6736,7 +6861,7 @@
     <row r="102" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="15">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="18"/>
@@ -6750,7 +6875,7 @@
     <row r="103" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="15">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="18"/>
@@ -6764,7 +6889,7 @@
     <row r="104" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="15">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="18"/>
@@ -6778,7 +6903,7 @@
     <row r="105" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="15">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="18"/>
@@ -6792,7 +6917,7 @@
     <row r="106" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="15">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="18"/>
@@ -6806,7 +6931,7 @@
     <row r="107" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="15">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="18"/>
@@ -6819,7 +6944,9 @@
     </row>
     <row r="108" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="15">
+        <v>103</v>
+      </c>
       <c r="C108" s="15"/>
       <c r="D108" s="18"/>
       <c r="E108" s="16"/>
@@ -6850,110 +6977,110 @@
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
-      <c r="I110" s="2" t="s">
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J110" s="2"/>
-    </row>
-    <row r="111" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="25">
-        <f>SUM(E3:E110)</f>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="25">
+        <f>SUM(E3:E111)</f>
         <v>1105</v>
       </c>
-      <c r="F111" s="26">
-        <f>SUM(F3:F110)</f>
-        <v>6851.5700000000215</v>
-      </c>
-      <c r="G111" s="26">
-        <f>SUM(G3:G110)</f>
+      <c r="F112" s="26">
+        <f>SUM(F3:F111)</f>
+        <v>7272.090000000022</v>
+      </c>
+      <c r="G112" s="26">
+        <f>SUM(G3:G111)</f>
         <v>2000.5</v>
       </c>
-      <c r="H111" s="26">
-        <f>SUM(H3:H110)</f>
+      <c r="H112" s="26">
+        <f>SUM(H3:H111)</f>
         <v>362.99999999999909</v>
       </c>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-    </row>
-    <row r="112" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="26">
-        <f>E111+Ausgaben!F175</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="26">
-        <f>F111+Ausgaben!G175</f>
-        <v>3410.4000000000219</v>
-      </c>
-      <c r="G113" s="26">
-        <f>G111+Ausgaben!H175</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H113" s="26">
-        <f>H111+Ausgaben!I175</f>
-        <v>193.96999999999909</v>
-      </c>
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="35"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
+      <c r="A114" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="26">
+        <f>E112+Ausgaben!F175</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="26">
+        <f>F112+Ausgaben!G175</f>
+        <v>3603.8600000000224</v>
+      </c>
+      <c r="G114" s="26">
+        <f>G112+Ausgaben!H175</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H114" s="26">
+        <f>H112+Ausgaben!I175</f>
+        <v>193.96999999999909</v>
+      </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="27">
-        <f>SUM(E113:H113)</f>
-        <v>5604.8700000000208</v>
-      </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
+      <c r="A115" s="35"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="17"/>
+      <c r="A116" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="27">
+        <f>SUM(E114:H114)</f>
+        <v>5798.3300000000218</v>
+      </c>
+      <c r="E116" s="16"/>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
@@ -6961,12 +7088,10 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
@@ -6978,7 +7103,9 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
@@ -7670,146 +7797,163 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
+    <row r="177" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J177" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A94:A97">
-    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A95:A98">
+    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="47" priority="184" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B84">
+    <cfRule type="cellIs" dxfId="48" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99:D100">
-    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C100:D101">
+    <cfRule type="cellIs" dxfId="47" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D73">
-    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D72:D74">
+    <cfRule type="cellIs" dxfId="46" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D89">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D84:D90">
+    <cfRule type="cellIs" dxfId="45" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:F82">
-    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D83:F83">
+    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:G70 E71:G71 E73:G73 G82:G83">
-    <cfRule type="cellIs" dxfId="42" priority="56" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D71:G71 E72:G72 E74:G74 G83:G84">
+    <cfRule type="cellIs" dxfId="43" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:G81">
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D75:G82">
+    <cfRule type="cellIs" dxfId="42" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D101:G110">
-    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D102:G111">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="39" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F37">
-    <cfRule type="cellIs" dxfId="38" priority="26" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E34:F38">
+    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:F43">
+    <cfRule type="cellIs" dxfId="38" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:F47">
+    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:F58">
+    <cfRule type="cellIs" dxfId="36" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:G14">
+    <cfRule type="cellIs" dxfId="35" priority="273" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:G41 G42">
+    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:G90 D91:G99">
+    <cfRule type="cellIs" dxfId="33" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:H3 G100 E101:G101 D111:H111 E112:H176 D116">
+    <cfRule type="cellIs" dxfId="32" priority="337" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:G25">
+    <cfRule type="cellIs" dxfId="31" priority="258" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73:G73">
+    <cfRule type="cellIs" dxfId="30" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H111 E61:G70 A94:C94 D4:D70">
+    <cfRule type="cellIs" dxfId="29" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G24">
+    <cfRule type="cellIs" dxfId="28" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="cellIs" dxfId="27" priority="255" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:G38">
+    <cfRule type="cellIs" dxfId="26" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G48 E49:G50 G51:G52 E52:F52 F53:G53 G54:G58 F59:G60">
+    <cfRule type="cellIs" dxfId="25" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="cellIs" dxfId="24" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F42">
-    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
-    <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:F57">
-    <cfRule type="cellIs" dxfId="35" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="34" priority="272" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:G41">
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:G89 D90:G98">
-    <cfRule type="cellIs" dxfId="32" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:H3 G99 E100:G100 D110:H110 E111:H175 D115">
-    <cfRule type="cellIs" dxfId="31" priority="336" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="30" priority="257" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="29" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H110 E60:G69 A93:C93 D4:D69">
-    <cfRule type="cellIs" dxfId="28" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="27" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="26" priority="254" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G37">
-    <cfRule type="cellIs" dxfId="25" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G47 E48:G49 G50:G51 E51:F51 F52:G52 G53:G57 F58:G59">
-    <cfRule type="cellIs" dxfId="24" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="23" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D110" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D111" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -7820,7 +7964,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="123" max="18" man="1"/>
+    <brk id="124" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -7833,8 +7977,8 @@
   <dimension ref="A1:IL241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9355,14 +9499,22 @@
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
-      <c r="B62" s="14"/>
+      <c r="B62" s="14">
+        <v>45789</v>
+      </c>
       <c r="C62" s="48">
         <v>60</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="21"/>
+      <c r="D62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F62" s="16"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="20">
+        <v>-44.28</v>
+      </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="4"/>
@@ -9371,14 +9523,22 @@
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="14">
+        <v>45791</v>
+      </c>
       <c r="C63" s="48">
         <v>61</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="21"/>
+      <c r="D63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F63" s="16"/>
-      <c r="G63" s="20"/>
+      <c r="G63" s="20">
+        <v>-25.94</v>
+      </c>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="4"/>
@@ -9387,14 +9547,22 @@
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
-      <c r="B64" s="14"/>
+      <c r="B64" s="14">
+        <v>45799</v>
+      </c>
       <c r="C64" s="48">
         <v>62</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="82"/>
+      <c r="D64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
+      <c r="G64" s="20">
+        <v>-12.99</v>
+      </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="4"/>
@@ -9403,14 +9571,22 @@
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
-      <c r="B65" s="14"/>
+      <c r="B65" s="14">
+        <v>45799</v>
+      </c>
       <c r="C65" s="48">
         <v>63</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="21"/>
+      <c r="D65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
+      <c r="G65" s="20">
+        <v>-88.47</v>
+      </c>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
       <c r="J65" s="4"/>
@@ -9419,14 +9595,22 @@
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
-      <c r="B66" s="14"/>
+      <c r="B66" s="14">
+        <v>45803</v>
+      </c>
       <c r="C66" s="48">
         <v>64</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="21"/>
+      <c r="D66" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="20"/>
+      <c r="G66" s="20">
+        <v>-55.38</v>
+      </c>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
       <c r="J66" s="4"/>
@@ -11175,7 +11359,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-3441.1699999999996</v>
+        <v>-3668.2299999999996</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -12099,112 +12283,117 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="22" priority="480" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="21" priority="474" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="475" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="20" priority="463" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="17" priority="710" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="16" priority="478" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="15" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="14" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="10" priority="662" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168:E173">
     <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F62:F63">
+    <cfRule type="cellIs" dxfId="7" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="5" priority="371" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="6" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="3" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="2" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="0" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037026C-1D35-47E9-BEEF-EC2738D86F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179F26E-08BD-4E9F-A36A-622EB5F25FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="110">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -328,6 +328,42 @@
   </si>
   <si>
     <t>Spenden Radservice</t>
+  </si>
+  <si>
+    <t>SPD Miete 7.5.</t>
+  </si>
+  <si>
+    <t>Radservice Jakob</t>
+  </si>
+  <si>
+    <t>Trauerkarte G.Kreis</t>
+  </si>
+  <si>
+    <t>Midsommer</t>
+  </si>
+  <si>
+    <t>Midsommer, tzgl</t>
+  </si>
+  <si>
+    <t>Individualhilfe</t>
+  </si>
+  <si>
+    <t>Trauerkarte Kauschke</t>
+  </si>
+  <si>
+    <t>Spende Radservice Medic</t>
+  </si>
+  <si>
+    <t>Awo Bund Rückverteilung</t>
+  </si>
+  <si>
+    <t>Spende Ponde</t>
+  </si>
+  <si>
+    <t>Spende Awo Waldheim Jugend</t>
+  </si>
+  <si>
+    <t>Abschlag Wasser</t>
   </si>
 </sst>
 </file>
@@ -995,17 +1031,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3821,17 +3847,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="52">
+    <format dxfId="50">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3930,17 +3956,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="55">
+    <format dxfId="53">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5067,8 +5093,8 @@
   <dimension ref="A1:IJ177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6033,12 +6059,18 @@
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14">
+        <v>45801</v>
+      </c>
       <c r="B43" s="15">
         <v>38</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -6047,84 +6079,132 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14">
+        <v>45804</v>
+      </c>
       <c r="B44" s="48">
         <v>39</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="H44" s="17">
+        <v>20</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14">
+        <v>45810</v>
+      </c>
       <c r="B45" s="15">
         <v>40</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
+      <c r="F45" s="20">
+        <v>101</v>
+      </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>45831</v>
+      </c>
       <c r="B46" s="15">
         <v>41</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="18"/>
+      <c r="C46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
+      <c r="F46" s="20">
+        <v>50</v>
+      </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14">
+        <v>45833</v>
+      </c>
       <c r="B47" s="15">
         <v>42</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="18"/>
+      <c r="C47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="F47" s="17">
+        <v>26.54</v>
+      </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14">
+        <v>45838</v>
+      </c>
       <c r="B48" s="15">
         <v>43</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="18"/>
+      <c r="C48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
+      <c r="F48" s="20">
+        <v>148</v>
+      </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14">
+        <v>45838</v>
+      </c>
       <c r="B49" s="15">
         <v>44</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="18"/>
+      <c r="C49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
+      <c r="F49" s="17">
+        <v>65</v>
+      </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="2"/>
@@ -7007,7 +7087,7 @@
       </c>
       <c r="F112" s="26">
         <f>SUM(F3:F111)</f>
-        <v>7272.090000000022</v>
+        <v>7662.6300000000219</v>
       </c>
       <c r="G112" s="26">
         <f>SUM(G3:G111)</f>
@@ -7015,7 +7095,7 @@
       </c>
       <c r="H112" s="26">
         <f>SUM(H3:H111)</f>
-        <v>362.99999999999909</v>
+        <v>382.99999999999909</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -7045,7 +7125,7 @@
       </c>
       <c r="F114" s="26">
         <f>F112+Ausgaben!G175</f>
-        <v>3603.8600000000224</v>
+        <v>2904.3400000000229</v>
       </c>
       <c r="G114" s="26">
         <f>G112+Ausgaben!H175</f>
@@ -7053,7 +7133,7 @@
       </c>
       <c r="H114" s="26">
         <f>H112+Ausgaben!I175</f>
-        <v>193.96999999999909</v>
+        <v>213.96999999999909</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -7078,7 +7158,7 @@
       <c r="C116" s="22"/>
       <c r="D116" s="27">
         <f>SUM(E114:H114)</f>
-        <v>5798.3300000000218</v>
+        <v>5118.8100000000222</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="17"/>
@@ -7818,137 +7898,132 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A95:A98">
-    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="48" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:D101">
-    <cfRule type="cellIs" dxfId="47" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:D74">
-    <cfRule type="cellIs" dxfId="46" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:D90">
-    <cfRule type="cellIs" dxfId="45" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:F83">
-    <cfRule type="cellIs" dxfId="44" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:G71 E72:G72 E74:G74 G83:G84">
-    <cfRule type="cellIs" dxfId="43" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:G82">
-    <cfRule type="cellIs" dxfId="42" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:G111">
-    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="40" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F38">
-    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:F43">
-    <cfRule type="cellIs" dxfId="38" priority="24" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E42:F43">
+    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:F58">
-    <cfRule type="cellIs" dxfId="36" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="35" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:G41 G42">
-    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E39:G41 G42:G48">
+    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:G50 G51:G52 E52:F52 F53:G53 G54:G58 F59:G60">
+    <cfRule type="cellIs" dxfId="31" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:G90 D91:G99">
-    <cfRule type="cellIs" dxfId="33" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H3 G100 E101:G101 D111:H111 E112:H176 D116">
-    <cfRule type="cellIs" dxfId="32" priority="337" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="337" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="31" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="30" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 H4:H27 H29:H111 E61:G70 A94:C94 D4:D70">
-    <cfRule type="cellIs" dxfId="29" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="28" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="27" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="26" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G48 E49:G50 G51:G52 E52:F52 F53:G53 G54:G58 F59:G60">
-    <cfRule type="cellIs" dxfId="25" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="24" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:F42">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7977,8 +8052,8 @@
   <dimension ref="A1:IL241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9619,14 +9694,22 @@
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
-      <c r="B67" s="14"/>
+      <c r="B67" s="14">
+        <v>45803</v>
+      </c>
       <c r="C67" s="48">
         <v>65</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="21"/>
+      <c r="D67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="20"/>
+      <c r="G67" s="20">
+        <v>-41.42</v>
+      </c>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="4"/>
@@ -9635,14 +9718,22 @@
     </row>
     <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
-      <c r="B68" s="14"/>
+      <c r="B68" s="14">
+        <v>45803</v>
+      </c>
       <c r="C68" s="48">
         <v>66</v>
       </c>
-      <c r="D68" s="81"/>
-      <c r="E68" s="82"/>
+      <c r="D68" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
+      <c r="G68" s="19">
+        <v>-10</v>
+      </c>
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
       <c r="J68" s="4"/>
@@ -9651,14 +9742,22 @@
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="14">
+        <v>45805</v>
+      </c>
       <c r="C69" s="48">
         <v>67</v>
       </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="82"/>
+      <c r="D69" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
+      <c r="G69" s="20">
+        <v>-5</v>
+      </c>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="4"/>
@@ -9667,14 +9766,22 @@
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="14">
+        <v>45805</v>
+      </c>
       <c r="C70" s="48">
         <v>68</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="82"/>
+      <c r="D70" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
+      <c r="G70" s="20">
+        <v>-25</v>
+      </c>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="4"/>
@@ -9683,14 +9790,22 @@
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
-      <c r="B71" s="14"/>
+      <c r="B71" s="14">
+        <v>45810</v>
+      </c>
       <c r="C71" s="48">
         <v>69</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="21"/>
+      <c r="D71" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="F71" s="19"/>
-      <c r="G71" s="20"/>
+      <c r="G71" s="20">
+        <v>-12</v>
+      </c>
       <c r="H71" s="19"/>
       <c r="I71" s="20"/>
       <c r="J71" s="4"/>
@@ -9699,14 +9814,22 @@
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
-      <c r="B72" s="14"/>
+      <c r="B72" s="14">
+        <v>45811</v>
+      </c>
       <c r="C72" s="48">
         <v>70</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="21"/>
+      <c r="D72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
+      <c r="G72" s="20">
+        <v>-52</v>
+      </c>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="4"/>
@@ -9715,14 +9838,22 @@
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="14">
+        <v>45811</v>
+      </c>
       <c r="C73" s="48">
         <v>71</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="21"/>
+      <c r="D73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F73" s="19"/>
-      <c r="G73" s="20"/>
+      <c r="G73" s="20">
+        <v>-112</v>
+      </c>
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
       <c r="J73" s="4"/>
@@ -9731,14 +9862,22 @@
     </row>
     <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
-      <c r="B74" s="14"/>
+      <c r="B74" s="14">
+        <v>45818</v>
+      </c>
       <c r="C74" s="48">
         <v>72</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="21"/>
+      <c r="D74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
+      <c r="G74" s="20">
+        <v>-13.2</v>
+      </c>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
       <c r="J74" s="4"/>
@@ -9747,14 +9886,22 @@
     </row>
     <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
-      <c r="B75" s="14"/>
+      <c r="B75" s="14">
+        <v>45828</v>
+      </c>
       <c r="C75" s="48">
         <v>73</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="21"/>
+      <c r="D75" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F75" s="19"/>
-      <c r="G75" s="20"/>
+      <c r="G75" s="20">
+        <v>-130.6</v>
+      </c>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
       <c r="J75" s="4"/>
@@ -9763,14 +9910,22 @@
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
-      <c r="B76" s="14"/>
+      <c r="B76" s="14">
+        <v>45828</v>
+      </c>
       <c r="C76" s="48">
         <v>74</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="82"/>
+      <c r="D76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="82" t="s">
+        <v>12</v>
+      </c>
       <c r="F76" s="19"/>
-      <c r="G76" s="20"/>
+      <c r="G76" s="20">
+        <v>-200</v>
+      </c>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
       <c r="J76" s="4"/>
@@ -9779,14 +9934,22 @@
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
-      <c r="B77" s="14"/>
+      <c r="B77" s="14">
+        <v>45828</v>
+      </c>
       <c r="C77" s="48">
         <v>75</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="21"/>
+      <c r="D77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F77" s="19"/>
-      <c r="G77" s="20"/>
+      <c r="G77" s="20">
+        <v>-25</v>
+      </c>
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
       <c r="J77" s="4"/>
@@ -9795,14 +9958,22 @@
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
-      <c r="B78" s="14"/>
+      <c r="B78" s="14">
+        <v>45831</v>
+      </c>
       <c r="C78" s="48">
         <v>76</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="21"/>
+      <c r="D78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
+      <c r="G78" s="20">
+        <v>-12.99</v>
+      </c>
       <c r="H78" s="20"/>
       <c r="I78" s="20"/>
       <c r="J78" s="4"/>
@@ -9811,14 +9982,22 @@
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
-      <c r="B79" s="14"/>
+      <c r="B79" s="14">
+        <v>45835</v>
+      </c>
       <c r="C79" s="48">
         <v>77</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="18"/>
+      <c r="D79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="82" t="s">
+        <v>12</v>
+      </c>
       <c r="F79" s="19"/>
-      <c r="G79" s="20"/>
+      <c r="G79" s="20">
+        <v>-300</v>
+      </c>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
       <c r="J79" s="4"/>
@@ -9827,14 +10006,22 @@
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
-      <c r="B80" s="14"/>
+      <c r="B80" s="14">
+        <v>45835</v>
+      </c>
       <c r="C80" s="48">
         <v>78</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="82"/>
+      <c r="D80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="82" t="s">
+        <v>12</v>
+      </c>
       <c r="F80" s="19"/>
-      <c r="G80" s="20"/>
+      <c r="G80" s="20">
+        <v>-120</v>
+      </c>
       <c r="H80" s="20"/>
       <c r="I80" s="20"/>
       <c r="J80" s="4"/>
@@ -9843,14 +10030,22 @@
     </row>
     <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
-      <c r="B81" s="14"/>
+      <c r="B81" s="14">
+        <v>45838</v>
+      </c>
       <c r="C81" s="48">
         <v>79</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="82"/>
+      <c r="D81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F81" s="19"/>
-      <c r="G81" s="20"/>
+      <c r="G81" s="20">
+        <v>-30.85</v>
+      </c>
       <c r="H81" s="20"/>
       <c r="I81" s="20"/>
       <c r="J81" s="4"/>
@@ -11359,7 +11554,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-3668.2299999999996</v>
+        <v>-4758.2899999999991</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -12283,125 +12478,120 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="23" priority="481" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="22" priority="475" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="475" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="21" priority="464" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="18" priority="711" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="17" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="16" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="15" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="11" priority="663" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="7" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="6" priority="11" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F66:F67">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="4" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="2" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80:E81 E120 E83:E98 E100:E116 E118 E123:E174 E3:E51 E53:E78" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E120 E83:E98 E100:E116 E118 E123:E174 E3:E51 E53:E81" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99 E82 E79 E119 E117 E121:E122 E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99 E82 E52 E119 E117 E121:E122" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179F26E-08BD-4E9F-A36A-622EB5F25FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F5F32-7493-46A2-B44F-3D4D00BED16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="111">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>Abschlag Wasser</t>
+  </si>
+  <si>
+    <t>Awo Busreise</t>
   </si>
 </sst>
 </file>
@@ -5092,9 +5095,9 @@
   </sheetPr>
   <dimension ref="A1:IJ177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6211,28 +6214,42 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14">
+        <v>45838</v>
+      </c>
       <c r="B50" s="15">
         <v>45</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="18"/>
+      <c r="C50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
+      <c r="F50" s="17">
+        <v>300</v>
+      </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
+      <c r="A51" s="14">
+        <v>45838</v>
+      </c>
       <c r="B51" s="15">
         <v>46</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
+      <c r="F51" s="20">
+        <v>78</v>
+      </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="2"/>
@@ -7087,7 +7104,7 @@
       </c>
       <c r="F112" s="26">
         <f>SUM(F3:F111)</f>
-        <v>7662.6300000000219</v>
+        <v>8040.6300000000219</v>
       </c>
       <c r="G112" s="26">
         <f>SUM(G3:G111)</f>
@@ -7125,7 +7142,7 @@
       </c>
       <c r="F114" s="26">
         <f>F112+Ausgaben!G175</f>
-        <v>2904.3400000000229</v>
+        <v>3106.3400000000229</v>
       </c>
       <c r="G114" s="26">
         <f>G112+Ausgaben!H175</f>
@@ -7158,7 +7175,7 @@
       <c r="C116" s="22"/>
       <c r="D116" s="27">
         <f>SUM(E114:H114)</f>
-        <v>5118.8100000000222</v>
+        <v>5320.8100000000222</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="17"/>
@@ -8051,9 +8068,9 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10054,14 +10071,22 @@
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
-      <c r="B82" s="14"/>
+      <c r="B82" s="14">
+        <v>45840</v>
+      </c>
       <c r="C82" s="48">
         <v>80</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="18"/>
+      <c r="D82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="20">
+        <v>-112</v>
+      </c>
       <c r="H82" s="20"/>
       <c r="I82" s="20"/>
       <c r="J82" s="4"/>
@@ -10070,14 +10095,22 @@
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
-      <c r="B83" s="14"/>
+      <c r="B83" s="14">
+        <v>45840</v>
+      </c>
       <c r="C83" s="48">
         <v>81</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="21"/>
+      <c r="D83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F83" s="19"/>
-      <c r="G83" s="20"/>
+      <c r="G83" s="20">
+        <v>-52</v>
+      </c>
       <c r="H83" s="20"/>
       <c r="I83" s="20"/>
       <c r="J83" s="4"/>
@@ -10086,14 +10119,22 @@
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
-      <c r="B84" s="14"/>
+      <c r="B84" s="14">
+        <v>45841</v>
+      </c>
       <c r="C84" s="48">
         <v>82</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="21"/>
+      <c r="D84" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="F84" s="19"/>
-      <c r="G84" s="20"/>
+      <c r="G84" s="20">
+        <v>-12</v>
+      </c>
       <c r="H84" s="20"/>
       <c r="I84" s="20"/>
       <c r="J84" s="4"/>
@@ -11554,7 +11595,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-4758.2899999999991</v>
+        <v>-4934.2899999999991</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -12588,10 +12629,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E120 E83:E98 E100:E116 E118 E123:E174 E3:E51 E53:E81" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E120 E100:E116 E118 E123:E174 E3:E51 E53:E98" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99 E82 E52 E119 E117 E121:E122" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99 E121:E122 E52 E119 E117" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F5F32-7493-46A2-B44F-3D4D00BED16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066B2E35-0C80-414E-B1B2-D48F7546A06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="117">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -367,6 +367,24 @@
   </si>
   <si>
     <t>Awo Busreise</t>
+  </si>
+  <si>
+    <t>Spende Grillkäse Stuhrmann</t>
+  </si>
+  <si>
+    <t>Sommerfest</t>
+  </si>
+  <si>
+    <t>Sommerfest Spendenbox</t>
+  </si>
+  <si>
+    <t>Sommerfest Einnahmen</t>
+  </si>
+  <si>
+    <t>Sommerfest Grill</t>
+  </si>
+  <si>
+    <t>Sommerfest Getränke</t>
   </si>
 </sst>
 </file>
@@ -5097,7 +5115,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6245,7 +6263,9 @@
       <c r="C51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E51" s="19"/>
       <c r="F51" s="20">
         <v>78</v>
@@ -6256,44 +6276,68 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
+      <c r="A52" s="14">
+        <v>45840</v>
+      </c>
       <c r="B52" s="15">
         <v>47</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="18"/>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
+      <c r="F52" s="17">
+        <v>0</v>
+      </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="14">
+        <v>45845</v>
+      </c>
       <c r="B53" s="15">
         <v>48</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="18"/>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E53" s="19"/>
-      <c r="F53" s="17"/>
+      <c r="F53" s="17">
+        <v>59</v>
+      </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="A54" s="14">
+        <v>45845</v>
+      </c>
       <c r="B54" s="15">
         <v>49</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="18"/>
+      <c r="C54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="H54" s="17">
+        <v>1131</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
@@ -7104,7 +7148,7 @@
       </c>
       <c r="F112" s="26">
         <f>SUM(F3:F111)</f>
-        <v>8040.6300000000219</v>
+        <v>8099.6300000000219</v>
       </c>
       <c r="G112" s="26">
         <f>SUM(G3:G111)</f>
@@ -7112,7 +7156,7 @@
       </c>
       <c r="H112" s="26">
         <f>SUM(H3:H111)</f>
-        <v>382.99999999999909</v>
+        <v>1513.9999999999991</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -7142,7 +7186,7 @@
       </c>
       <c r="F114" s="26">
         <f>F112+Ausgaben!G175</f>
-        <v>3106.3400000000229</v>
+        <v>2802.0700000000224</v>
       </c>
       <c r="G114" s="26">
         <f>G112+Ausgaben!H175</f>
@@ -7150,7 +7194,7 @@
       </c>
       <c r="H114" s="26">
         <f>H112+Ausgaben!I175</f>
-        <v>213.96999999999909</v>
+        <v>1344.9699999999991</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -7175,7 +7219,7 @@
       <c r="C116" s="22"/>
       <c r="D116" s="27">
         <f>SUM(E114:H114)</f>
-        <v>5320.8100000000222</v>
+        <v>6147.5400000000218</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="17"/>
@@ -8019,7 +8063,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H111 E61:G70 A94:C94 D4:D70">
+  <conditionalFormatting sqref="G4:G13 H4:H27 E61:G70 A94:C94 H29:H111 D4:D70">
     <cfRule type="cellIs" dxfId="26" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8069,8 +8113,8 @@
   <dimension ref="A1:IL241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10143,14 +10187,22 @@
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
-      <c r="B85" s="14"/>
+      <c r="B85" s="14">
+        <v>45845</v>
+      </c>
       <c r="C85" s="48">
         <v>83</v>
       </c>
-      <c r="D85" s="81"/>
-      <c r="E85" s="82"/>
+      <c r="D85" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F85" s="19"/>
-      <c r="G85" s="20"/>
+      <c r="G85" s="20">
+        <v>-52.76</v>
+      </c>
       <c r="H85" s="20"/>
       <c r="I85" s="20"/>
       <c r="J85" s="4"/>
@@ -10159,14 +10211,22 @@
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
-      <c r="B86" s="14"/>
+      <c r="B86" s="14">
+        <v>45846</v>
+      </c>
       <c r="C86" s="48">
         <v>84</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="82"/>
+      <c r="D86" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F86" s="19"/>
-      <c r="G86" s="20"/>
+      <c r="G86" s="20">
+        <v>-70</v>
+      </c>
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
       <c r="J86" s="4"/>
@@ -10175,14 +10235,22 @@
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
-      <c r="B87" s="14"/>
+      <c r="B87" s="14">
+        <v>45846</v>
+      </c>
       <c r="C87" s="48">
         <v>85</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="21"/>
+      <c r="D87" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
+      <c r="G87" s="20">
+        <v>-240.51</v>
+      </c>
       <c r="H87" s="20"/>
       <c r="I87" s="20"/>
       <c r="J87" s="4"/>
@@ -11595,7 +11663,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-4934.2899999999991</v>
+        <v>-5297.5599999999995</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066B2E35-0C80-414E-B1B2-D48F7546A06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDBD38-160D-4171-B725-C1938FB14611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="122">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -385,6 +385,21 @@
   </si>
   <si>
     <t>Sommerfest Getränke</t>
+  </si>
+  <si>
+    <t>Spende Steibing</t>
+  </si>
+  <si>
+    <t>Klausur Essensgeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Awo Bund Beiträge</t>
+  </si>
+  <si>
+    <t>Klausur weniger Teilnehmer und Spende</t>
+  </si>
+  <si>
+    <t>Klausur Essensgeld Spende Stuhrmann</t>
   </si>
 </sst>
 </file>
@@ -5113,9 +5128,9 @@
   </sheetPr>
   <dimension ref="A1:IJ177"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6342,56 +6357,88 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="14">
+        <v>45853</v>
+      </c>
       <c r="B55" s="15">
         <v>50</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="18"/>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="17">
+        <v>80</v>
+      </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="14">
+        <v>45861</v>
+      </c>
       <c r="B56" s="15">
         <v>51</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="18"/>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
+      <c r="F56" s="17">
+        <v>1339.8</v>
+      </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14">
+        <v>45866</v>
+      </c>
       <c r="B57" s="15">
         <v>52</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="18"/>
+      <c r="C57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
+      <c r="F57" s="17">
+        <v>45</v>
+      </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
+      <c r="A58" s="14">
+        <v>45866</v>
+      </c>
       <c r="B58" s="15">
         <v>53</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="18"/>
+      <c r="C58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
+      <c r="F58" s="17">
+        <v>15</v>
+      </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="2"/>
@@ -7148,7 +7195,7 @@
       </c>
       <c r="F112" s="26">
         <f>SUM(F3:F111)</f>
-        <v>8099.6300000000219</v>
+        <v>9579.4300000000221</v>
       </c>
       <c r="G112" s="26">
         <f>SUM(G3:G111)</f>
@@ -7186,7 +7233,7 @@
       </c>
       <c r="F114" s="26">
         <f>F112+Ausgaben!G175</f>
-        <v>2802.0700000000224</v>
+        <v>4085.5200000000232</v>
       </c>
       <c r="G114" s="26">
         <f>G112+Ausgaben!H175</f>
@@ -7219,7 +7266,7 @@
       <c r="C116" s="22"/>
       <c r="D116" s="27">
         <f>SUM(E114:H114)</f>
-        <v>6147.5400000000218</v>
+        <v>7430.9900000000225</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="17"/>
@@ -8063,7 +8110,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 E61:G70 A94:C94 H29:H111 D4:D70">
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H111 E61:G70 A94:C94 D4:D70">
     <cfRule type="cellIs" dxfId="26" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8112,9 +8159,9 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10259,14 +10306,22 @@
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
-      <c r="B88" s="14"/>
+      <c r="B88" s="14">
+        <v>45853</v>
+      </c>
       <c r="C88" s="48">
         <v>86</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="21"/>
+      <c r="D88" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F88" s="19"/>
-      <c r="G88" s="20"/>
+      <c r="G88" s="20">
+        <v>-18.36</v>
+      </c>
       <c r="H88" s="20"/>
       <c r="I88" s="20"/>
       <c r="J88" s="4"/>
@@ -10275,14 +10330,22 @@
     </row>
     <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
-      <c r="B89" s="14"/>
+      <c r="B89" s="14">
+        <v>45859</v>
+      </c>
       <c r="C89" s="48">
         <v>87</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="21"/>
+      <c r="D89" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
+      <c r="G89" s="20">
+        <v>-165</v>
+      </c>
       <c r="H89" s="20"/>
       <c r="I89" s="20"/>
       <c r="J89" s="4"/>
@@ -10291,14 +10354,22 @@
     </row>
     <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
-      <c r="B90" s="14"/>
+      <c r="B90" s="14">
+        <v>45861</v>
+      </c>
       <c r="C90" s="48">
         <v>88</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="21"/>
+      <c r="D90" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
+      <c r="G90" s="20">
+        <v>-12.99</v>
+      </c>
       <c r="H90" s="20"/>
       <c r="I90" s="20"/>
       <c r="J90" s="4"/>
@@ -11663,7 +11734,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-5297.5599999999995</v>
+        <v>-5493.9099999999989</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEDBD38-160D-4171-B725-C1938FB14611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DA3637-1A7C-4034-8D06-6DF32FD1D1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$J$170</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$I$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="132">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -400,6 +400,36 @@
   </si>
   <si>
     <t>Klausur Essensgeld Spende Stuhrmann</t>
+  </si>
+  <si>
+    <t>Spende Kinderschminken Sommerfest</t>
+  </si>
+  <si>
+    <t>47a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klausur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tzgl </t>
+  </si>
+  <si>
+    <t>Rote Sommerfest</t>
+  </si>
+  <si>
+    <t>Sommerfest Glasbrenner</t>
+  </si>
+  <si>
+    <t>Sommerfest Bäcker</t>
+  </si>
+  <si>
+    <t>Klausur Miete</t>
+  </si>
+  <si>
+    <t>Zinsen Awo Fonds</t>
+  </si>
+  <si>
+    <t>Ponde Jubiläum Werbeartikel</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1097,17 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1535,7 +1575,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:H111" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:H112" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -3883,17 +3923,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="50">
+    <format dxfId="52">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3992,17 +4032,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="53">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5126,11 +5166,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IJ177"/>
+  <dimension ref="A1:IJ178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6314,20 +6354,20 @@
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
-        <v>45845</v>
-      </c>
-      <c r="B53" s="15">
-        <v>48</v>
+        <v>45844</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="19"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="17">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -6339,61 +6379,61 @@
         <v>45845</v>
       </c>
       <c r="B54" s="15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E54" s="19"/>
-      <c r="F54" s="20"/>
+      <c r="F54" s="17">
+        <v>59</v>
+      </c>
       <c r="G54" s="17"/>
-      <c r="H54" s="17">
-        <v>1131</v>
-      </c>
+      <c r="H54" s="17"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
-        <v>45853</v>
+        <v>45845</v>
       </c>
       <c r="B55" s="15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
+      <c r="H55" s="17">
+        <v>1131</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
-        <v>45861</v>
+        <v>45853</v>
       </c>
       <c r="B56" s="15">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="17">
-        <v>1339.8</v>
+        <v>80</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
@@ -6402,20 +6442,20 @@
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
-        <v>45866</v>
+        <v>45861</v>
       </c>
       <c r="B57" s="15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="17">
-        <v>45</v>
+        <v>1339.8</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -6427,17 +6467,17 @@
         <v>45866</v>
       </c>
       <c r="B58" s="15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="17">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -6445,84 +6485,132 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14">
+        <v>45866</v>
+      </c>
       <c r="B59" s="15">
-        <v>54</v>
-      </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17">
+        <v>15</v>
+      </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14">
+        <v>45868</v>
+      </c>
       <c r="B60" s="15">
-        <v>55</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17">
+        <v>110</v>
+      </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="14">
+        <v>45869</v>
+      </c>
       <c r="B61" s="15">
-        <v>56</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="17">
+        <v>15</v>
+      </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14">
+        <v>45876</v>
+      </c>
       <c r="B62" s="15">
-        <v>57</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="17">
+        <v>15</v>
+      </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="48">
-        <v>58</v>
-      </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="18"/>
+      <c r="A63" s="14">
+        <v>45877</v>
+      </c>
+      <c r="B63" s="15">
+        <v>57</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
+      <c r="F63" s="17">
+        <v>250</v>
+      </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14">
+        <v>45898</v>
+      </c>
       <c r="B64" s="48">
-        <v>59</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E64" s="16"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="17">
+        <v>160</v>
+      </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="2"/>
@@ -6531,9 +6619,9 @@
     <row r="65" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="48">
-        <v>60</v>
-      </c>
-      <c r="C65" s="37"/>
+        <v>59</v>
+      </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="18"/>
       <c r="E65" s="16"/>
       <c r="F65" s="17"/>
@@ -6545,9 +6633,9 @@
     <row r="66" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="48">
-        <v>61</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C66" s="37"/>
       <c r="D66" s="18"/>
       <c r="E66" s="16"/>
       <c r="F66" s="17"/>
@@ -6559,7 +6647,7 @@
     <row r="67" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="48">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="18"/>
@@ -6572,10 +6660,10 @@
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
-      <c r="B68" s="15">
-        <v>63</v>
-      </c>
-      <c r="C68" s="37"/>
+      <c r="B68" s="48">
+        <v>62</v>
+      </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="18"/>
       <c r="E68" s="16"/>
       <c r="F68" s="17"/>
@@ -6586,8 +6674,8 @@
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
-      <c r="B69" s="48">
-        <v>64</v>
+      <c r="B69" s="15">
+        <v>63</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="18"/>
@@ -6600,10 +6688,10 @@
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
-      <c r="B70" s="15">
-        <v>65</v>
-      </c>
-      <c r="C70" s="15"/>
+      <c r="B70" s="48">
+        <v>64</v>
+      </c>
+      <c r="C70" s="37"/>
       <c r="D70" s="18"/>
       <c r="E70" s="16"/>
       <c r="F70" s="17"/>
@@ -6615,7 +6703,7 @@
     <row r="71" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="15">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="18"/>
@@ -6629,7 +6717,7 @@
     <row r="72" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="15">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="18"/>
@@ -6643,11 +6731,11 @@
     <row r="73" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="15">
-        <v>68</v>
-      </c>
-      <c r="C73" s="37"/>
+        <v>67</v>
+      </c>
+      <c r="C73" s="15"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="19"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -6657,11 +6745,11 @@
     <row r="74" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="15">
-        <v>69</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C74" s="37"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="16"/>
+      <c r="E74" s="19"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -6671,9 +6759,9 @@
     <row r="75" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="15">
-        <v>70</v>
-      </c>
-      <c r="C75" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="C75" s="3"/>
       <c r="D75" s="18"/>
       <c r="E75" s="16"/>
       <c r="F75" s="17"/>
@@ -6685,7 +6773,7 @@
     <row r="76" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="18"/>
@@ -6699,7 +6787,7 @@
     <row r="77" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="15">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="18"/>
@@ -6713,7 +6801,7 @@
     <row r="78" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="15">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="18"/>
@@ -6727,7 +6815,7 @@
     <row r="79" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="18"/>
@@ -6741,7 +6829,7 @@
     <row r="80" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="15">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="18"/>
@@ -6755,9 +6843,9 @@
     <row r="81" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="15">
-        <v>76</v>
-      </c>
-      <c r="C81" s="37"/>
+        <v>75</v>
+      </c>
+      <c r="C81" s="15"/>
       <c r="D81" s="18"/>
       <c r="E81" s="16"/>
       <c r="F81" s="17"/>
@@ -6769,9 +6857,9 @@
     <row r="82" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="15">
-        <v>77</v>
-      </c>
-      <c r="C82" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C82" s="37"/>
       <c r="D82" s="18"/>
       <c r="E82" s="16"/>
       <c r="F82" s="17"/>
@@ -6783,7 +6871,7 @@
     <row r="83" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="15">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="18"/>
@@ -6796,13 +6884,13 @@
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
-      <c r="B84" s="48">
-        <v>79</v>
-      </c>
-      <c r="C84" s="50"/>
+      <c r="B84" s="15">
+        <v>78</v>
+      </c>
+      <c r="C84" s="3"/>
       <c r="D84" s="18"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="20"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
       <c r="I84" s="2"/>
@@ -6810,13 +6898,13 @@
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
-      <c r="B85" s="15">
-        <v>80</v>
+      <c r="B85" s="48">
+        <v>79</v>
       </c>
       <c r="C85" s="50"/>
       <c r="D85" s="18"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="17"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="20"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="2"/>
@@ -6825,7 +6913,7 @@
     <row r="86" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="15">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="50"/>
       <c r="D86" s="18"/>
@@ -6839,7 +6927,7 @@
     <row r="87" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="15">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="50"/>
       <c r="D87" s="18"/>
@@ -6853,7 +6941,7 @@
     <row r="88" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="15">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="50"/>
       <c r="D88" s="18"/>
@@ -6867,9 +6955,9 @@
     <row r="89" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="15">
-        <v>84</v>
-      </c>
-      <c r="C89" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="C89" s="50"/>
       <c r="D89" s="18"/>
       <c r="E89" s="16"/>
       <c r="F89" s="17"/>
@@ -6881,9 +6969,9 @@
     <row r="90" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="15">
-        <v>85</v>
-      </c>
-      <c r="C90" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C90" s="15"/>
       <c r="D90" s="18"/>
       <c r="E90" s="16"/>
       <c r="F90" s="17"/>
@@ -6895,7 +6983,7 @@
     <row r="91" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="15">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="18"/>
@@ -6909,7 +6997,7 @@
     <row r="92" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="18"/>
@@ -6923,7 +7011,7 @@
     <row r="93" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="18"/>
@@ -6936,10 +7024,10 @@
     </row>
     <row r="94" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
-      <c r="B94" s="48">
-        <v>89</v>
-      </c>
-      <c r="C94" s="37"/>
+      <c r="B94" s="15">
+        <v>88</v>
+      </c>
+      <c r="C94" s="3"/>
       <c r="D94" s="18"/>
       <c r="E94" s="16"/>
       <c r="F94" s="17"/>
@@ -6950,10 +7038,10 @@
     </row>
     <row r="95" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
-      <c r="B95" s="15">
-        <v>90</v>
-      </c>
-      <c r="C95" s="15"/>
+      <c r="B95" s="48">
+        <v>89</v>
+      </c>
+      <c r="C95" s="37"/>
       <c r="D95" s="18"/>
       <c r="E95" s="16"/>
       <c r="F95" s="17"/>
@@ -6965,7 +7053,7 @@
     <row r="96" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="15">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="18"/>
@@ -6979,7 +7067,7 @@
     <row r="97" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="15">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="18"/>
@@ -6993,7 +7081,7 @@
     <row r="98" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="15">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="18"/>
@@ -7007,7 +7095,7 @@
     <row r="99" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="15">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="18"/>
@@ -7021,12 +7109,12 @@
     <row r="100" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="15">
-        <v>95</v>
-      </c>
-      <c r="C100" s="37"/>
+        <v>94</v>
+      </c>
+      <c r="C100" s="15"/>
       <c r="D100" s="18"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="2"/>
@@ -7035,12 +7123,12 @@
     <row r="101" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="15">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="17"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
       <c r="I101" s="2"/>
@@ -7049,9 +7137,9 @@
     <row r="102" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="15">
-        <v>97</v>
-      </c>
-      <c r="C102" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="C102" s="37"/>
       <c r="D102" s="18"/>
       <c r="E102" s="16"/>
       <c r="F102" s="17"/>
@@ -7063,7 +7151,7 @@
     <row r="103" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="15">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="18"/>
@@ -7077,7 +7165,7 @@
     <row r="104" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="15">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="18"/>
@@ -7091,7 +7179,7 @@
     <row r="105" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="15">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="18"/>
@@ -7105,7 +7193,7 @@
     <row r="106" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="15">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="18"/>
@@ -7119,7 +7207,7 @@
     <row r="107" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="15">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="18"/>
@@ -7133,7 +7221,7 @@
     <row r="108" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="15">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="18"/>
@@ -7146,7 +7234,9 @@
     </row>
     <row r="109" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="15">
+        <v>103</v>
+      </c>
       <c r="C109" s="15"/>
       <c r="D109" s="18"/>
       <c r="E109" s="16"/>
@@ -7177,110 +7267,110 @@
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
-      <c r="I111" s="2" t="s">
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J111" s="2"/>
-    </row>
-    <row r="112" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="25">
-        <f>SUM(E3:E111)</f>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="25">
+        <f>SUM(E3:E112)</f>
         <v>1105</v>
       </c>
-      <c r="F112" s="26">
-        <f>SUM(F3:F111)</f>
-        <v>9579.4300000000221</v>
-      </c>
-      <c r="G112" s="26">
-        <f>SUM(G3:G111)</f>
+      <c r="F113" s="26">
+        <f>SUM(F3:F112)</f>
+        <v>10129.430000000022</v>
+      </c>
+      <c r="G113" s="26">
+        <f>SUM(G3:G112)</f>
         <v>2000.5</v>
       </c>
-      <c r="H112" s="26">
-        <f>SUM(H3:H111)</f>
+      <c r="H113" s="26">
+        <f>SUM(H3:H112)</f>
         <v>1513.9999999999991</v>
       </c>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-    </row>
-    <row r="113" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="26">
-        <f>E112+Ausgaben!F175</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="26">
-        <f>F112+Ausgaben!G175</f>
-        <v>4085.5200000000232</v>
-      </c>
-      <c r="G114" s="26">
-        <f>G112+Ausgaben!H175</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H114" s="26">
-        <f>H112+Ausgaben!I175</f>
-        <v>1344.9699999999991</v>
-      </c>
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="35"/>
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
+      <c r="A115" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="26">
+        <f>E113+Ausgaben!F175</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="26">
+        <f>F113+Ausgaben!G175</f>
+        <v>3537.2500000000236</v>
+      </c>
+      <c r="G115" s="26">
+        <f>G113+Ausgaben!H175</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H115" s="26">
+        <f>H113+Ausgaben!I175</f>
+        <v>1344.9699999999991</v>
+      </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="27">
-        <f>SUM(E114:H114)</f>
-        <v>7430.9900000000225</v>
-      </c>
-      <c r="E116" s="16"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
+      <c r="A116" s="35"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="36"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="17"/>
+      <c r="A117" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="27">
+        <f>SUM(E115:H115)</f>
+        <v>6882.720000000023</v>
+      </c>
+      <c r="E117" s="16"/>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
@@ -7288,12 +7378,10 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
@@ -7305,7 +7393,9 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
@@ -7997,146 +8087,168 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
+    <row r="178" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J178" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A95:A98">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A96:A99">
+    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="46" priority="185" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B85">
+    <cfRule type="cellIs" dxfId="48" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100:D101">
-    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C101:D102">
+    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72:D74">
-    <cfRule type="cellIs" dxfId="44" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D73:D75">
+    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84:D90">
-    <cfRule type="cellIs" dxfId="43" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D85:D91">
+    <cfRule type="cellIs" dxfId="45" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83:F83">
-    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D84:F84">
+    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:G71 E72:G72 E74:G74 G83:G84">
-    <cfRule type="cellIs" dxfId="41" priority="57" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D72:G72 E73:G73 E75:G75 G84:G85">
+    <cfRule type="cellIs" dxfId="43" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:G82">
-    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D76:G83">
+    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102:G111">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D103:G112">
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="38" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F38">
-    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F43">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="35" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F58">
-    <cfRule type="cellIs" dxfId="34" priority="16" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E56:F60">
+    <cfRule type="cellIs" dxfId="36" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="33" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G41 G42:G48">
-    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:G50 G51:G52 E52:F52 F53:G53 G54:G58 F59:G60">
-    <cfRule type="cellIs" dxfId="31" priority="83" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E49:G50 G51:G53 E52:F53 F54:G54 G55:G60 F61:G61">
+    <cfRule type="cellIs" dxfId="33" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:G90 D91:G99">
-    <cfRule type="cellIs" dxfId="30" priority="39" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E86:G91 D92:G100">
+    <cfRule type="cellIs" dxfId="32" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:H3 G100 E101:G101 D111:H111 E112:H176 D116">
-    <cfRule type="cellIs" dxfId="29" priority="337" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:H3 G101 E102:G102 D112:H112 E113:H177 D117">
+    <cfRule type="cellIs" dxfId="31" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="28" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="27" priority="55" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F74:G74">
+    <cfRule type="cellIs" dxfId="29" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H111 E61:G70 A94:C94 D4:D70">
-    <cfRule type="cellIs" dxfId="26" priority="171" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H112 A95:C95 D63:G63 G62 D65:G71 G64 D4:D64">
+    <cfRule type="cellIs" dxfId="28" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="25" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="24" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="23" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="22" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:F64">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D111" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D112" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -8147,7 +8259,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="124" max="18" man="1"/>
+    <brk id="125" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8159,9 +8271,9 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10378,14 +10490,22 @@
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
-      <c r="B91" s="14"/>
+      <c r="B91" s="14">
+        <v>45867</v>
+      </c>
       <c r="C91" s="48">
         <v>89</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="21"/>
+      <c r="D91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F91" s="19"/>
-      <c r="G91" s="20"/>
+      <c r="G91" s="20">
+        <v>-35.020000000000003</v>
+      </c>
       <c r="H91" s="20"/>
       <c r="I91" s="20"/>
       <c r="J91" s="4"/>
@@ -10394,14 +10514,22 @@
     </row>
     <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
-      <c r="B92" s="14"/>
+      <c r="B92" s="14">
+        <v>45869</v>
+      </c>
       <c r="C92" s="48">
         <v>90</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="21"/>
+      <c r="D92" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F92" s="19"/>
-      <c r="G92" s="20"/>
+      <c r="G92" s="20">
+        <v>-324</v>
+      </c>
       <c r="H92" s="20"/>
       <c r="I92" s="20"/>
       <c r="J92" s="4"/>
@@ -10410,14 +10538,22 @@
     </row>
     <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
-      <c r="B93" s="14"/>
+      <c r="B93" s="14">
+        <v>45870</v>
+      </c>
       <c r="C93" s="48">
         <v>91</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="21"/>
+      <c r="D93" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="F93" s="19"/>
-      <c r="G93" s="20"/>
+      <c r="G93" s="20">
+        <v>-12</v>
+      </c>
       <c r="H93" s="20"/>
       <c r="I93" s="20"/>
       <c r="J93" s="4"/>
@@ -10426,14 +10562,22 @@
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
-      <c r="B94" s="14"/>
+      <c r="B94" s="14">
+        <v>45873</v>
+      </c>
       <c r="C94" s="48">
         <v>92</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="82"/>
+      <c r="D94" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F94" s="19"/>
-      <c r="G94" s="20"/>
+      <c r="G94" s="20">
+        <v>-52</v>
+      </c>
       <c r="H94" s="20"/>
       <c r="I94" s="20"/>
       <c r="J94" s="4"/>
@@ -10442,14 +10586,22 @@
     </row>
     <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
-      <c r="B95" s="14"/>
+      <c r="B95" s="14">
+        <v>45873</v>
+      </c>
       <c r="C95" s="48">
         <v>93</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="21"/>
+      <c r="D95" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F95" s="19"/>
-      <c r="G95" s="20"/>
+      <c r="G95" s="20">
+        <v>-112</v>
+      </c>
       <c r="H95" s="20"/>
       <c r="I95" s="20"/>
       <c r="J95" s="4"/>
@@ -10458,14 +10610,22 @@
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
-      <c r="B96" s="14"/>
+      <c r="B96" s="14">
+        <v>45873</v>
+      </c>
       <c r="C96" s="48">
         <v>94</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="21"/>
+      <c r="D96" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F96" s="16"/>
-      <c r="G96" s="20"/>
+      <c r="G96" s="20">
+        <v>-147.69</v>
+      </c>
       <c r="H96" s="20"/>
       <c r="I96" s="20"/>
       <c r="J96" s="4"/>
@@ -10474,14 +10634,22 @@
     </row>
     <row r="97" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
-      <c r="B97" s="14"/>
+      <c r="B97" s="14">
+        <v>45874</v>
+      </c>
       <c r="C97" s="48">
         <v>95</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="21"/>
+      <c r="D97" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F97" s="16"/>
-      <c r="G97" s="20"/>
+      <c r="G97" s="20">
+        <v>-10.37</v>
+      </c>
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
       <c r="J97" s="4"/>
@@ -10490,14 +10658,22 @@
     </row>
     <row r="98" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
-      <c r="B98" s="14"/>
+      <c r="B98" s="14">
+        <v>45874</v>
+      </c>
       <c r="C98" s="48">
         <v>96</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="21"/>
+      <c r="D98" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F98" s="19"/>
-      <c r="G98" s="20"/>
+      <c r="G98" s="20">
+        <v>-70</v>
+      </c>
       <c r="H98" s="20"/>
       <c r="I98" s="20"/>
       <c r="J98" s="4"/>
@@ -10506,14 +10682,22 @@
     </row>
     <row r="99" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
-      <c r="B99" s="14"/>
+      <c r="B99" s="14">
+        <v>45890</v>
+      </c>
       <c r="C99" s="48">
         <v>97</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="18"/>
+      <c r="D99" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F99" s="19"/>
-      <c r="G99" s="20"/>
+      <c r="G99" s="20">
+        <v>-12.99</v>
+      </c>
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
       <c r="J99" s="4"/>
@@ -10522,14 +10706,22 @@
     </row>
     <row r="100" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
-      <c r="B100" s="14"/>
+      <c r="B100" s="14">
+        <v>45895</v>
+      </c>
       <c r="C100" s="48">
         <v>98</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="21"/>
+      <c r="D100" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F100" s="19"/>
-      <c r="G100" s="20"/>
+      <c r="G100" s="20">
+        <v>-48.08</v>
+      </c>
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
       <c r="J100" s="4"/>
@@ -10540,14 +10732,22 @@
     </row>
     <row r="101" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
-      <c r="B101" s="14"/>
+      <c r="B101" s="14">
+        <v>45901</v>
+      </c>
       <c r="C101" s="48">
         <v>99</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="82"/>
+      <c r="D101" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="F101" s="19"/>
-      <c r="G101" s="20"/>
+      <c r="G101" s="20">
+        <v>-12</v>
+      </c>
       <c r="H101" s="20"/>
       <c r="I101" s="20"/>
       <c r="J101" s="4"/>
@@ -10556,14 +10756,22 @@
     </row>
     <row r="102" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
-      <c r="B102" s="14"/>
+      <c r="B102" s="14">
+        <v>45902</v>
+      </c>
       <c r="C102" s="48">
         <v>100</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="21"/>
+      <c r="D102" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F102" s="19"/>
-      <c r="G102" s="20"/>
+      <c r="G102" s="20">
+        <v>-52</v>
+      </c>
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
       <c r="J102" s="4"/>
@@ -10572,14 +10780,22 @@
     </row>
     <row r="103" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
-      <c r="B103" s="14"/>
+      <c r="B103" s="14">
+        <v>45902</v>
+      </c>
       <c r="C103" s="48">
         <v>101</v>
       </c>
-      <c r="D103" s="81"/>
-      <c r="E103" s="82"/>
+      <c r="D103" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F103" s="19"/>
-      <c r="G103" s="20"/>
+      <c r="G103" s="20">
+        <v>-112</v>
+      </c>
       <c r="H103" s="20"/>
       <c r="I103" s="20"/>
       <c r="J103" s="4"/>
@@ -10588,14 +10804,22 @@
     </row>
     <row r="104" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
-      <c r="B104" s="14"/>
+      <c r="B104" s="14">
+        <v>45908</v>
+      </c>
       <c r="C104" s="48">
         <v>102</v>
       </c>
-      <c r="D104" s="81"/>
-      <c r="E104" s="82"/>
+      <c r="D104" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E104" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F104" s="19"/>
-      <c r="G104" s="20"/>
+      <c r="G104" s="20">
+        <v>-98.12</v>
+      </c>
       <c r="H104" s="20"/>
       <c r="I104" s="20"/>
       <c r="J104" s="4"/>
@@ -11734,7 +11958,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-5493.9099999999989</v>
+        <v>-6592.1799999999985</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -12658,120 +12882,120 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="21" priority="481" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="20" priority="475" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="475" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="19" priority="464" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="16" priority="711" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="15" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="14" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="13" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="9" priority="663" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="5" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="3" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="2" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="0" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E120 E100:E116 E118 E123:E174 E3:E51 E53:E98" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E120 E118 E123:E174 E3:E51 E53:E116" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99 E121:E122 E52 E119 E117" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E117 E121:E122 E52 E119" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DA3637-1A7C-4034-8D06-6DF32FD1D1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DFFAF6-38B3-4833-B81B-F126B611463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$J$170</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$I$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="134">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>Ponde Jubiläum Werbeartikel</t>
+  </si>
+  <si>
+    <t>57a</t>
+  </si>
+  <si>
+    <t>49a</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1103,17 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1575,7 +1591,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:H112" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:H114" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -3923,17 +3939,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="52">
+    <format dxfId="54">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4032,17 +4048,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="55">
+    <format dxfId="57">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5166,11 +5182,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IJ178"/>
+  <dimension ref="A1:IJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6420,42 +6436,42 @@
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
-        <v>45853</v>
-      </c>
-      <c r="B56" s="15">
-        <v>50</v>
+        <v>45848</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E56" s="16"/>
-      <c r="F56" s="17">
-        <v>80</v>
-      </c>
+      <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="H56" s="17">
+        <v>75</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
-        <v>45861</v>
+        <v>45853</v>
       </c>
       <c r="B57" s="15">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="17">
-        <v>1339.8</v>
+        <v>80</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -6464,20 +6480,20 @@
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
-        <v>45866</v>
+        <v>45861</v>
       </c>
       <c r="B58" s="15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="17">
-        <v>45</v>
+        <v>1339.8</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -6489,17 +6505,17 @@
         <v>45866</v>
       </c>
       <c r="B59" s="15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="17">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -6508,20 +6524,20 @@
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
-        <v>45868</v>
+        <v>45866</v>
       </c>
       <c r="B60" s="15">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="17">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -6530,20 +6546,20 @@
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
-        <v>45869</v>
+        <v>45868</v>
       </c>
       <c r="B61" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="19"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="17">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -6552,10 +6568,10 @@
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
-        <v>45876</v>
+        <v>45869</v>
       </c>
       <c r="B62" s="15">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>126</v>
@@ -6574,20 +6590,20 @@
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
-        <v>45877</v>
+        <v>45876</v>
       </c>
       <c r="B63" s="15">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="19"/>
       <c r="F63" s="17">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -6596,20 +6612,20 @@
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
-        <v>45898</v>
-      </c>
-      <c r="B64" s="48">
-        <v>58</v>
+        <v>45877</v>
+      </c>
+      <c r="B64" s="15">
+        <v>57</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="17">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
@@ -6617,28 +6633,44 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="48">
-        <v>59</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="18"/>
+      <c r="A65" s="14">
+        <v>45887</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E65" s="16"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
+      <c r="H65" s="17">
+        <v>138</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
+      <c r="A66" s="14">
+        <v>45898</v>
+      </c>
       <c r="B66" s="48">
-        <v>60</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E66" s="16"/>
-      <c r="F66" s="17"/>
+      <c r="F66" s="17">
+        <v>160</v>
+      </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="2"/>
@@ -6647,7 +6679,7 @@
     <row r="67" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="48">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="18"/>
@@ -6661,9 +6693,9 @@
     <row r="68" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="48">
-        <v>62</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C68" s="37"/>
       <c r="D68" s="18"/>
       <c r="E68" s="16"/>
       <c r="F68" s="17"/>
@@ -6674,10 +6706,10 @@
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
-      <c r="B69" s="15">
-        <v>63</v>
-      </c>
-      <c r="C69" s="37"/>
+      <c r="B69" s="48">
+        <v>61</v>
+      </c>
+      <c r="C69" s="3"/>
       <c r="D69" s="18"/>
       <c r="E69" s="16"/>
       <c r="F69" s="17"/>
@@ -6689,9 +6721,9 @@
     <row r="70" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="48">
-        <v>64</v>
-      </c>
-      <c r="C70" s="37"/>
+        <v>62</v>
+      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="18"/>
       <c r="E70" s="16"/>
       <c r="F70" s="17"/>
@@ -6703,9 +6735,9 @@
     <row r="71" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="15">
-        <v>65</v>
-      </c>
-      <c r="C71" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="C71" s="37"/>
       <c r="D71" s="18"/>
       <c r="E71" s="16"/>
       <c r="F71" s="17"/>
@@ -6716,10 +6748,10 @@
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
-      <c r="B72" s="15">
-        <v>66</v>
-      </c>
-      <c r="C72" s="15"/>
+      <c r="B72" s="48">
+        <v>64</v>
+      </c>
+      <c r="C72" s="37"/>
       <c r="D72" s="18"/>
       <c r="E72" s="16"/>
       <c r="F72" s="17"/>
@@ -6731,7 +6763,7 @@
     <row r="73" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="15">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="18"/>
@@ -6745,11 +6777,11 @@
     <row r="74" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="15">
-        <v>68</v>
-      </c>
-      <c r="C74" s="37"/>
+        <v>66</v>
+      </c>
+      <c r="C74" s="15"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="19"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -6759,9 +6791,9 @@
     <row r="75" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="15">
-        <v>69</v>
-      </c>
-      <c r="C75" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="C75" s="15"/>
       <c r="D75" s="18"/>
       <c r="E75" s="16"/>
       <c r="F75" s="17"/>
@@ -6773,11 +6805,11 @@
     <row r="76" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="15">
-        <v>70</v>
-      </c>
-      <c r="C76" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="C76" s="37"/>
       <c r="D76" s="18"/>
-      <c r="E76" s="16"/>
+      <c r="E76" s="19"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -6787,9 +6819,9 @@
     <row r="77" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="15">
-        <v>71</v>
-      </c>
-      <c r="C77" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="C77" s="3"/>
       <c r="D77" s="18"/>
       <c r="E77" s="16"/>
       <c r="F77" s="17"/>
@@ -6801,7 +6833,7 @@
     <row r="78" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="15">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="18"/>
@@ -6815,7 +6847,7 @@
     <row r="79" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="18"/>
@@ -6829,7 +6861,7 @@
     <row r="80" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="15">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="18"/>
@@ -6843,7 +6875,7 @@
     <row r="81" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="15">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="18"/>
@@ -6857,9 +6889,9 @@
     <row r="82" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="15">
-        <v>76</v>
-      </c>
-      <c r="C82" s="37"/>
+        <v>74</v>
+      </c>
+      <c r="C82" s="15"/>
       <c r="D82" s="18"/>
       <c r="E82" s="16"/>
       <c r="F82" s="17"/>
@@ -6871,9 +6903,9 @@
     <row r="83" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="15">
-        <v>77</v>
-      </c>
-      <c r="C83" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C83" s="15"/>
       <c r="D83" s="18"/>
       <c r="E83" s="16"/>
       <c r="F83" s="17"/>
@@ -6885,9 +6917,9 @@
     <row r="84" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="15">
-        <v>78</v>
-      </c>
-      <c r="C84" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C84" s="37"/>
       <c r="D84" s="18"/>
       <c r="E84" s="16"/>
       <c r="F84" s="17"/>
@@ -6898,13 +6930,13 @@
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
-      <c r="B85" s="48">
-        <v>79</v>
-      </c>
-      <c r="C85" s="50"/>
+      <c r="B85" s="15">
+        <v>77</v>
+      </c>
+      <c r="C85" s="3"/>
       <c r="D85" s="18"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="20"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="2"/>
@@ -6913,9 +6945,9 @@
     <row r="86" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="15">
-        <v>80</v>
-      </c>
-      <c r="C86" s="50"/>
+        <v>78</v>
+      </c>
+      <c r="C86" s="3"/>
       <c r="D86" s="18"/>
       <c r="E86" s="16"/>
       <c r="F86" s="17"/>
@@ -6926,13 +6958,13 @@
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
-      <c r="B87" s="15">
-        <v>81</v>
+      <c r="B87" s="48">
+        <v>79</v>
       </c>
       <c r="C87" s="50"/>
       <c r="D87" s="18"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="17"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="20"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="2"/>
@@ -6941,7 +6973,7 @@
     <row r="88" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="15">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C88" s="50"/>
       <c r="D88" s="18"/>
@@ -6955,7 +6987,7 @@
     <row r="89" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="15">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C89" s="50"/>
       <c r="D89" s="18"/>
@@ -6969,9 +7001,9 @@
     <row r="90" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="15">
-        <v>84</v>
-      </c>
-      <c r="C90" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="C90" s="50"/>
       <c r="D90" s="18"/>
       <c r="E90" s="16"/>
       <c r="F90" s="17"/>
@@ -6983,9 +7015,9 @@
     <row r="91" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="15">
-        <v>85</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C91" s="50"/>
       <c r="D91" s="18"/>
       <c r="E91" s="16"/>
       <c r="F91" s="17"/>
@@ -6997,9 +7029,9 @@
     <row r="92" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="15">
-        <v>86</v>
-      </c>
-      <c r="C92" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C92" s="15"/>
       <c r="D92" s="18"/>
       <c r="E92" s="16"/>
       <c r="F92" s="17"/>
@@ -7011,7 +7043,7 @@
     <row r="93" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="15">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="18"/>
@@ -7025,7 +7057,7 @@
     <row r="94" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="15">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="18"/>
@@ -7038,10 +7070,10 @@
     </row>
     <row r="95" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
-      <c r="B95" s="48">
-        <v>89</v>
-      </c>
-      <c r="C95" s="37"/>
+      <c r="B95" s="15">
+        <v>87</v>
+      </c>
+      <c r="C95" s="3"/>
       <c r="D95" s="18"/>
       <c r="E95" s="16"/>
       <c r="F95" s="17"/>
@@ -7053,9 +7085,9 @@
     <row r="96" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="15">
-        <v>90</v>
-      </c>
-      <c r="C96" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="C96" s="3"/>
       <c r="D96" s="18"/>
       <c r="E96" s="16"/>
       <c r="F96" s="17"/>
@@ -7066,10 +7098,10 @@
     </row>
     <row r="97" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
-      <c r="B97" s="15">
-        <v>91</v>
-      </c>
-      <c r="C97" s="15"/>
+      <c r="B97" s="48">
+        <v>89</v>
+      </c>
+      <c r="C97" s="37"/>
       <c r="D97" s="18"/>
       <c r="E97" s="16"/>
       <c r="F97" s="17"/>
@@ -7081,7 +7113,7 @@
     <row r="98" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="15">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="18"/>
@@ -7095,7 +7127,7 @@
     <row r="99" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="15">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="18"/>
@@ -7109,7 +7141,7 @@
     <row r="100" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="15">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="18"/>
@@ -7123,12 +7155,12 @@
     <row r="101" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="15">
-        <v>95</v>
-      </c>
-      <c r="C101" s="37"/>
+        <v>93</v>
+      </c>
+      <c r="C101" s="15"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="17"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
       <c r="I101" s="2"/>
@@ -7137,9 +7169,9 @@
     <row r="102" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="15">
-        <v>96</v>
-      </c>
-      <c r="C102" s="37"/>
+        <v>94</v>
+      </c>
+      <c r="C102" s="15"/>
       <c r="D102" s="18"/>
       <c r="E102" s="16"/>
       <c r="F102" s="17"/>
@@ -7151,12 +7183,12 @@
     <row r="103" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="15">
-        <v>97</v>
-      </c>
-      <c r="C103" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="C103" s="37"/>
       <c r="D103" s="18"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="17"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="2"/>
@@ -7165,9 +7197,9 @@
     <row r="104" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="15">
-        <v>98</v>
-      </c>
-      <c r="C104" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="C104" s="37"/>
       <c r="D104" s="18"/>
       <c r="E104" s="16"/>
       <c r="F104" s="17"/>
@@ -7179,7 +7211,7 @@
     <row r="105" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="15">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="18"/>
@@ -7193,7 +7225,7 @@
     <row r="106" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="15">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="18"/>
@@ -7207,7 +7239,7 @@
     <row r="107" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="15">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="18"/>
@@ -7221,7 +7253,7 @@
     <row r="108" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="15">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="18"/>
@@ -7235,7 +7267,7 @@
     <row r="109" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="15">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="18"/>
@@ -7248,7 +7280,9 @@
     </row>
     <row r="110" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="15">
+        <v>102</v>
+      </c>
       <c r="C110" s="15"/>
       <c r="D110" s="18"/>
       <c r="E110" s="16"/>
@@ -7260,7 +7294,9 @@
     </row>
     <row r="111" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="15">
+        <v>103</v>
+      </c>
       <c r="C111" s="15"/>
       <c r="D111" s="18"/>
       <c r="E111" s="16"/>
@@ -7279,124 +7315,122 @@
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
-      <c r="I112" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="25">
-        <f>SUM(E3:E112)</f>
-        <v>1105</v>
-      </c>
-      <c r="F113" s="26">
-        <f>SUM(F3:F112)</f>
-        <v>10129.430000000022</v>
-      </c>
-      <c r="G113" s="26">
-        <f>SUM(G3:G112)</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H113" s="26">
-        <f>SUM(H3:H112)</f>
-        <v>1513.9999999999991</v>
-      </c>
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="33"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="2"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="26">
-        <f>E113+Ausgaben!F175</f>
-        <v>0</v>
+      <c r="D115" s="24"/>
+      <c r="E115" s="25">
+        <f>SUM(E3:E114)</f>
+        <v>1105</v>
       </c>
       <c r="F115" s="26">
-        <f>F113+Ausgaben!G175</f>
-        <v>3537.2500000000236</v>
+        <f>SUM(F3:F114)</f>
+        <v>10129.430000000022</v>
       </c>
       <c r="G115" s="26">
-        <f>G113+Ausgaben!H175</f>
+        <f>SUM(G3:G114)</f>
         <v>2000.5</v>
       </c>
       <c r="H115" s="26">
-        <f>H113+Ausgaben!I175</f>
-        <v>1344.9699999999991</v>
+        <f>SUM(H3:H114)</f>
+        <v>1726.9999999999991</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="35"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="27">
-        <f>SUM(E115:H115)</f>
-        <v>6882.720000000023</v>
-      </c>
-      <c r="E117" s="16"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
+      <c r="A117" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="26">
+        <f>E115+Ausgaben!F175</f>
+        <v>0</v>
+      </c>
+      <c r="F117" s="26">
+        <f>F115+Ausgaben!G175</f>
+        <v>3537.2500000000236</v>
+      </c>
+      <c r="G117" s="26">
+        <f>G115+Ausgaben!H175</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H117" s="26">
+        <f>H115+Ausgaben!I175</f>
+        <v>1557.9699999999991</v>
+      </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="36"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="17"/>
+      <c r="A119" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="27">
+        <f>SUM(E117:H117)</f>
+        <v>7095.720000000023</v>
+      </c>
+      <c r="E119" s="16"/>
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
@@ -7404,10 +7438,10 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
@@ -7419,7 +7453,9 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
@@ -8099,156 +8135,190 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
+    <row r="179" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J180" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A96:A99">
-    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A98:A101">
+    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="48" priority="187" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B87">
+    <cfRule type="cellIs" dxfId="50" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C101:D102">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C103:D104">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D75">
-    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D75:D77">
+    <cfRule type="cellIs" dxfId="48" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85:D91">
-    <cfRule type="cellIs" dxfId="45" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D87:D93">
+    <cfRule type="cellIs" dxfId="47" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84:F84">
-    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D86:F86">
+    <cfRule type="cellIs" dxfId="46" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72:G72 E73:G73 E75:G75 G84:G85">
-    <cfRule type="cellIs" dxfId="43" priority="59" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D67:G74 E75:G75 E77:G77 G86:G87">
+    <cfRule type="cellIs" dxfId="45" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76:G83">
-    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D78:G85">
+    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103:G112">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D105:G114">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="40" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F38">
-    <cfRule type="cellIs" dxfId="39" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F43">
-    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="37" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F60">
-    <cfRule type="cellIs" dxfId="36" priority="18" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E57:F61">
+    <cfRule type="cellIs" dxfId="38" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="35" priority="275" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G41 G42:G48">
-    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:G50 G51:G53 E52:F53 F54:G54 G55:G60 F61:G61">
-    <cfRule type="cellIs" dxfId="33" priority="85" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E49:G50 G51:G53 E52:F53 F54:G54 G55 G57:G61">
+    <cfRule type="cellIs" dxfId="35" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86:G91 D92:G100">
-    <cfRule type="cellIs" dxfId="32" priority="41" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E66:G66">
+    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:H3 G101 E102:G102 D112:H112 E113:H177 D117">
-    <cfRule type="cellIs" dxfId="31" priority="339" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E88:G93 D94:G102">
+    <cfRule type="cellIs" dxfId="33" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:H3 G103 E104:G104 D114:H114 E115:H179 D119">
+    <cfRule type="cellIs" dxfId="32" priority="341" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="30" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="29" priority="57" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F62:G63">
+    <cfRule type="cellIs" dxfId="30" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H112 A95:C95 D63:G63 G62 D65:G71 G64 D4:D64">
-    <cfRule type="cellIs" dxfId="28" priority="173" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F76:G76">
+    <cfRule type="cellIs" dxfId="29" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H55 D64:G64 A97:C97 G65 H57:H114 G56:H56 D4:D66">
+    <cfRule type="cellIs" dxfId="28" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="27" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="26" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="25" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="24" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E65:F65">
+    <cfRule type="cellIs" dxfId="23" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64:F64">
+  <conditionalFormatting sqref="E56:F56">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D112" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D114" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -8259,7 +8329,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="125" max="18" man="1"/>
+    <brk id="127" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8271,7 +8341,7 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
@@ -12882,112 +12952,112 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="23" priority="481" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="22" priority="475" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="475" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="21" priority="464" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="18" priority="711" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="17" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="16" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="15" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="11" priority="663" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="7" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="4" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="2" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DFFAF6-38B3-4833-B81B-F126B611463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB318491-FA50-4651-A8BB-428EF044F19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="139">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>49a</t>
+  </si>
+  <si>
+    <t>Drillisch</t>
+  </si>
+  <si>
+    <t>Awo Zeitung</t>
+  </si>
+  <si>
+    <t>Kinderschminken Ponde</t>
+  </si>
+  <si>
+    <t>SPD Raummiete 17.9.</t>
+  </si>
+  <si>
+    <t>Taschen</t>
   </si>
 </sst>
 </file>
@@ -5185,8 +5200,8 @@
   <dimension ref="A1:IJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6677,44 +6692,68 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="14">
+        <v>45936</v>
+      </c>
       <c r="B67" s="48">
         <v>59</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="18"/>
+      <c r="C67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E67" s="16"/>
-      <c r="F67" s="17"/>
+      <c r="F67" s="17">
+        <v>128</v>
+      </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14">
+        <v>45936</v>
+      </c>
       <c r="B68" s="48">
         <v>60</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="18"/>
+      <c r="C68" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E68" s="16"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
+      <c r="H68" s="17">
+        <v>20</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="14">
+        <v>45945</v>
+      </c>
       <c r="B69" s="48">
         <v>61</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="18"/>
+      <c r="C69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E69" s="16"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
+      <c r="H69" s="17">
+        <v>76</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
@@ -7357,7 +7396,7 @@
       </c>
       <c r="F115" s="26">
         <f>SUM(F3:F114)</f>
-        <v>10129.430000000022</v>
+        <v>10257.430000000022</v>
       </c>
       <c r="G115" s="26">
         <f>SUM(G3:G114)</f>
@@ -7365,7 +7404,7 @@
       </c>
       <c r="H115" s="26">
         <f>SUM(H3:H114)</f>
-        <v>1726.9999999999991</v>
+        <v>1822.9999999999991</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -7395,7 +7434,7 @@
       </c>
       <c r="F117" s="26">
         <f>F115+Ausgaben!G175</f>
-        <v>3537.2500000000236</v>
+        <v>2917.0400000000245</v>
       </c>
       <c r="G117" s="26">
         <f>G115+Ausgaben!H175</f>
@@ -7403,7 +7442,7 @@
       </c>
       <c r="H117" s="26">
         <f>H115+Ausgaben!I175</f>
-        <v>1557.9699999999991</v>
+        <v>1653.9699999999991</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -7428,7 +7467,7 @@
       <c r="C119" s="22"/>
       <c r="D119" s="27">
         <f>SUM(E117:H117)</f>
-        <v>7095.720000000023</v>
+        <v>6571.5100000000239</v>
       </c>
       <c r="E119" s="16"/>
       <c r="F119" s="17"/>
@@ -8168,151 +8207,151 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A98:A101">
-    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="50" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:D104">
-    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:D77">
-    <cfRule type="cellIs" dxfId="48" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:D93">
-    <cfRule type="cellIs" dxfId="47" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86:F86">
-    <cfRule type="cellIs" dxfId="46" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67:G74 E75:G75 E77:G77 G86:G87">
-    <cfRule type="cellIs" dxfId="45" priority="61" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D70:G74 E75:G75 E77:G77 G86:G87 G67 E68:G68">
+    <cfRule type="cellIs" dxfId="45" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:G85">
-    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105:G114">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="42" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F38">
-    <cfRule type="cellIs" dxfId="41" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F43">
-    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57:F61">
-    <cfRule type="cellIs" dxfId="38" priority="20" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E56:F61">
+    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="37" priority="277" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G41 G42:G48">
-    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:G50 G51:G53 E52:F53 F54:G54 G55 G57:G61">
-    <cfRule type="cellIs" dxfId="35" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:G66">
-    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E65:G66">
+    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:G93 D94:G102">
-    <cfRule type="cellIs" dxfId="33" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H3 G103 E104:G104 D114:H114 E115:H179 D119">
-    <cfRule type="cellIs" dxfId="32" priority="341" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="31" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:G63">
-    <cfRule type="cellIs" dxfId="30" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="29" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H55 D64:G64 A97:C97 G65 H57:H114 G56:H56 D4:D66">
-    <cfRule type="cellIs" dxfId="28" priority="175" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H55 G56:H56 D64:G64 A97:C97 H57:H114 D4:D69">
+    <cfRule type="cellIs" dxfId="28" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="27" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="26" priority="259" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="25" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="24" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:F65">
-    <cfRule type="cellIs" dxfId="23" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E67:F67">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F56">
+  <conditionalFormatting sqref="E69:G69">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8342,8 +8381,8 @@
   <dimension ref="A1:IL241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10898,14 +10937,22 @@
     </row>
     <row r="105" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
-      <c r="B105" s="14"/>
+      <c r="B105" s="14">
+        <v>45918</v>
+      </c>
       <c r="C105" s="48">
         <v>103</v>
       </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="21"/>
+      <c r="D105" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F105" s="19"/>
-      <c r="G105" s="20"/>
+      <c r="G105" s="20">
+        <v>-12.98</v>
+      </c>
       <c r="H105" s="20"/>
       <c r="I105" s="20"/>
       <c r="J105" s="4"/>
@@ -10914,14 +10961,22 @@
     </row>
     <row r="106" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
-      <c r="B106" s="14"/>
+      <c r="B106" s="14">
+        <v>45922</v>
+      </c>
       <c r="C106" s="48">
         <v>104</v>
       </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="21"/>
+      <c r="D106" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F106" s="19"/>
-      <c r="G106" s="20"/>
+      <c r="G106" s="20">
+        <v>-16.39</v>
+      </c>
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
       <c r="J106" s="4"/>
@@ -10930,14 +10985,22 @@
     </row>
     <row r="107" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
-      <c r="B107" s="14"/>
+      <c r="B107" s="14">
+        <v>45929</v>
+      </c>
       <c r="C107" s="48">
         <v>105</v>
       </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="82"/>
+      <c r="D107" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F107" s="19"/>
-      <c r="G107" s="20"/>
+      <c r="G107" s="20">
+        <v>-17.97</v>
+      </c>
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
       <c r="J107" s="4"/>
@@ -10946,14 +11009,22 @@
     </row>
     <row r="108" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
-      <c r="B108" s="14"/>
+      <c r="B108" s="14">
+        <v>45930</v>
+      </c>
       <c r="C108" s="48">
         <v>106</v>
       </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="20"/>
+      <c r="D108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="19"/>
+      <c r="G108" s="20">
+        <v>-0.95</v>
+      </c>
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
       <c r="J108" s="4"/>
@@ -10962,14 +11033,22 @@
     </row>
     <row r="109" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
-      <c r="B109" s="14"/>
+      <c r="B109" s="14">
+        <v>45931</v>
+      </c>
       <c r="C109" s="48">
         <v>107</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="21"/>
+      <c r="D109" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F109" s="19"/>
-      <c r="G109" s="20"/>
+      <c r="G109" s="20">
+        <v>-30.85</v>
+      </c>
       <c r="H109" s="20"/>
       <c r="I109" s="20"/>
       <c r="J109" s="4"/>
@@ -10978,14 +11057,22 @@
     </row>
     <row r="110" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
-      <c r="B110" s="14"/>
+      <c r="B110" s="14">
+        <v>45931</v>
+      </c>
       <c r="C110" s="48">
         <v>108</v>
       </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="82"/>
+      <c r="D110" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="F110" s="19"/>
-      <c r="G110" s="20"/>
+      <c r="G110" s="20">
+        <v>-12</v>
+      </c>
       <c r="H110" s="20"/>
       <c r="I110" s="20"/>
       <c r="J110" s="4"/>
@@ -10994,14 +11081,22 @@
     </row>
     <row r="111" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
-      <c r="B111" s="14"/>
+      <c r="B111" s="14">
+        <v>45932</v>
+      </c>
       <c r="C111" s="48">
         <v>109</v>
       </c>
-      <c r="D111" s="81"/>
-      <c r="E111" s="82"/>
+      <c r="D111" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F111" s="19"/>
-      <c r="G111" s="20"/>
+      <c r="G111" s="20">
+        <v>-52</v>
+      </c>
       <c r="H111" s="20"/>
       <c r="I111" s="20"/>
       <c r="J111" s="4"/>
@@ -11010,14 +11105,22 @@
     </row>
     <row r="112" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
-      <c r="B112" s="14"/>
+      <c r="B112" s="14">
+        <v>45932</v>
+      </c>
       <c r="C112" s="48">
         <v>110</v>
       </c>
-      <c r="D112" s="81"/>
-      <c r="E112" s="82"/>
+      <c r="D112" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F112" s="19"/>
-      <c r="G112" s="20"/>
+      <c r="G112" s="20">
+        <v>-112</v>
+      </c>
       <c r="H112" s="20"/>
       <c r="I112" s="20"/>
       <c r="J112" s="4"/>
@@ -11026,14 +11129,22 @@
     </row>
     <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
-      <c r="B113" s="14"/>
+      <c r="B113" s="14">
+        <v>45936</v>
+      </c>
       <c r="C113" s="48">
         <v>111</v>
       </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="21"/>
+      <c r="D113" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F113" s="19"/>
-      <c r="G113" s="20"/>
+      <c r="G113" s="20">
+        <v>-95</v>
+      </c>
       <c r="H113" s="20"/>
       <c r="I113" s="20"/>
       <c r="J113" s="4"/>
@@ -11042,14 +11153,22 @@
     </row>
     <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
-      <c r="B114" s="14"/>
+      <c r="B114" s="14">
+        <v>45936</v>
+      </c>
       <c r="C114" s="48">
         <v>112</v>
       </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="21"/>
+      <c r="D114" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F114" s="16"/>
-      <c r="G114" s="20"/>
+      <c r="G114" s="20">
+        <v>-120</v>
+      </c>
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
       <c r="J114" s="4"/>
@@ -11058,14 +11177,22 @@
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
-      <c r="B115" s="14"/>
+      <c r="B115" s="14">
+        <v>45939</v>
+      </c>
       <c r="C115" s="48">
         <v>113</v>
       </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="21"/>
+      <c r="D115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="F115" s="19"/>
-      <c r="G115" s="20"/>
+      <c r="G115" s="20">
+        <v>-83.98</v>
+      </c>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
       <c r="J115" s="4"/>
@@ -11074,14 +11201,22 @@
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
-      <c r="B116" s="14"/>
+      <c r="B116" s="14">
+        <v>45939</v>
+      </c>
       <c r="C116" s="48">
         <v>114</v>
       </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="21"/>
+      <c r="D116" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E116" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F116" s="19"/>
-      <c r="G116" s="20"/>
+      <c r="G116" s="20">
+        <v>-157.79</v>
+      </c>
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
       <c r="J116" s="4"/>
@@ -11090,14 +11225,22 @@
     </row>
     <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
-      <c r="B117" s="14"/>
+      <c r="B117" s="14">
+        <v>45945</v>
+      </c>
       <c r="C117" s="48">
         <v>115</v>
       </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="18"/>
+      <c r="D117" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F117" s="19"/>
-      <c r="G117" s="20"/>
+      <c r="G117" s="20">
+        <v>-18.36</v>
+      </c>
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
       <c r="J117" s="4"/>
@@ -11106,14 +11249,22 @@
     </row>
     <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
-      <c r="B118" s="14"/>
+      <c r="B118" s="14">
+        <v>45945</v>
+      </c>
       <c r="C118" s="48">
         <v>116</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="21"/>
+      <c r="D118" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F118" s="19"/>
-      <c r="G118" s="20"/>
+      <c r="G118" s="20">
+        <v>-17.940000000000001</v>
+      </c>
       <c r="H118" s="20"/>
       <c r="I118" s="20"/>
       <c r="J118" s="4"/>
@@ -12028,7 +12179,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-6592.1799999999985</v>
+        <v>-7340.3899999999976</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -12952,120 +13103,115 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="22" priority="481" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="21" priority="475" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="475" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="20" priority="464" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="18" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="17" priority="711" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="16" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="15" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="14" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="10" priority="663" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="6" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="4" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="3" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E120 E118 E123:E174 E3:E51 E53:E116" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E120 E123:E174 E3:E51 E53:E118" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E117 E121:E122 E52 E119" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E119 E121:E122 E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB318491-FA50-4651-A8BB-428EF044F19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4917C-8F5B-43D4-8CF5-7D21FB1D0F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="143">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>Taschen</t>
+  </si>
+  <si>
+    <t>Freenet Abschlussrechnung</t>
+  </si>
+  <si>
+    <t>Trauerkarte H.Fante</t>
+  </si>
+  <si>
+    <t>Taschen W.feier</t>
+  </si>
+  <si>
+    <t>Abfall</t>
   </si>
 </sst>
 </file>
@@ -1118,22 +1130,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3954,17 +3951,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="54">
+    <format dxfId="51">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4063,17 +4060,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="57">
+    <format dxfId="54">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5200,8 +5197,8 @@
   <dimension ref="A1:IJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6758,14 +6755,22 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
+      <c r="A70" s="14">
+        <v>45964</v>
+      </c>
       <c r="B70" s="48">
         <v>62</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="18"/>
+      <c r="C70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E70" s="16"/>
-      <c r="F70" s="17"/>
+      <c r="F70" s="17">
+        <v>104</v>
+      </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="2"/>
@@ -7396,7 +7401,7 @@
       </c>
       <c r="F115" s="26">
         <f>SUM(F3:F114)</f>
-        <v>10257.430000000022</v>
+        <v>10361.430000000022</v>
       </c>
       <c r="G115" s="26">
         <f>SUM(G3:G114)</f>
@@ -7434,7 +7439,7 @@
       </c>
       <c r="F117" s="26">
         <f>F115+Ausgaben!G175</f>
-        <v>2917.0400000000245</v>
+        <v>2517.1800000000248</v>
       </c>
       <c r="G117" s="26">
         <f>G115+Ausgaben!H175</f>
@@ -7467,7 +7472,7 @@
       <c r="C119" s="22"/>
       <c r="D119" s="27">
         <f>SUM(E117:H117)</f>
-        <v>6571.5100000000239</v>
+        <v>6171.6500000000242</v>
       </c>
       <c r="E119" s="16"/>
       <c r="F119" s="17"/>
@@ -8207,152 +8212,142 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A98:A101">
-    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="50" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:D104">
-    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:D77">
-    <cfRule type="cellIs" dxfId="48" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:D93">
-    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86:F86">
-    <cfRule type="cellIs" dxfId="46" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:G74 E75:G75 E77:G77 G86:G87 G67 E68:G68">
-    <cfRule type="cellIs" dxfId="45" priority="63" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D71:G74 E75:G75 E77:G77 G86:G87 E70:G70">
+    <cfRule type="cellIs" dxfId="42" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78:G85">
-    <cfRule type="cellIs" dxfId="44" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105:G114">
-    <cfRule type="cellIs" dxfId="43" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="42" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:F38">
-    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:F43">
-    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="39" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:F61">
-    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="37" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:G41 G42:G48">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:G50 G51:G53 E52:F53 F54:G54 G55 G57:G61">
-    <cfRule type="cellIs" dxfId="35" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:G66">
-    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E65:G69">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:G93 D94:G102">
-    <cfRule type="cellIs" dxfId="33" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H3 G103 E104:G104 D114:H114 E115:H179 D119">
-    <cfRule type="cellIs" dxfId="32" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="31" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:G63">
-    <cfRule type="cellIs" dxfId="30" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="29" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H55 G56:H56 D64:G64 A97:C97 H57:H114 D4:D69">
-    <cfRule type="cellIs" dxfId="28" priority="177" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H55 G56:H56 H57:H114 D64:G64 A97:C97 D4:D70">
+    <cfRule type="cellIs" dxfId="25" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="27" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="26" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="25" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="24" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:F67">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8381,8 +8376,8 @@
   <dimension ref="A1:IL241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
+      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11273,14 +11268,22 @@
     </row>
     <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
-      <c r="B119" s="14"/>
+      <c r="B119" s="14">
+        <v>45952</v>
+      </c>
       <c r="C119" s="48">
         <v>117</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="18"/>
+      <c r="D119" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E119" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F119" s="19"/>
-      <c r="G119" s="20"/>
+      <c r="G119" s="20">
+        <v>-40.92</v>
+      </c>
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
       <c r="J119" s="4"/>
@@ -11289,14 +11292,22 @@
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
-      <c r="B120" s="14"/>
+      <c r="B120" s="14">
+        <v>45957</v>
+      </c>
       <c r="C120" s="48">
         <v>118</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="82"/>
+      <c r="D120" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E120" s="82" t="s">
+        <v>22</v>
+      </c>
       <c r="F120" s="19"/>
-      <c r="G120" s="20"/>
+      <c r="G120" s="20">
+        <v>-20</v>
+      </c>
       <c r="H120" s="20"/>
       <c r="I120" s="20"/>
       <c r="J120" s="4"/>
@@ -11305,14 +11316,22 @@
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
-      <c r="B121" s="14"/>
+      <c r="B121" s="14">
+        <v>45957</v>
+      </c>
       <c r="C121" s="48">
         <v>119</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="18"/>
+      <c r="D121" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F121" s="19"/>
-      <c r="G121" s="20"/>
+      <c r="G121" s="20">
+        <v>-0.67</v>
+      </c>
       <c r="H121" s="20"/>
       <c r="I121" s="20"/>
       <c r="J121" s="4"/>
@@ -11321,14 +11340,22 @@
     </row>
     <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
-      <c r="B122" s="14"/>
+      <c r="B122" s="14">
+        <v>45959</v>
+      </c>
       <c r="C122" s="48">
         <v>120</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="18"/>
+      <c r="D122" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F122" s="19"/>
-      <c r="G122" s="20"/>
+      <c r="G122" s="20">
+        <v>-104.13</v>
+      </c>
       <c r="H122" s="20"/>
       <c r="I122" s="20"/>
       <c r="J122" s="4"/>
@@ -11337,14 +11364,22 @@
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
-      <c r="B123" s="14"/>
+      <c r="B123" s="14">
+        <v>45959</v>
+      </c>
       <c r="C123" s="48">
         <v>121</v>
       </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="21"/>
+      <c r="D123" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F123" s="19"/>
-      <c r="G123" s="20"/>
+      <c r="G123" s="20">
+        <v>-6.99</v>
+      </c>
       <c r="H123" s="20"/>
       <c r="I123" s="20"/>
       <c r="J123" s="4"/>
@@ -11353,14 +11388,22 @@
     </row>
     <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
-      <c r="B124" s="14"/>
+      <c r="B124" s="14">
+        <v>45964</v>
+      </c>
       <c r="C124" s="48">
         <v>122</v>
       </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="21"/>
+      <c r="D124" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="F124" s="19"/>
-      <c r="G124" s="20"/>
+      <c r="G124" s="20">
+        <v>-12</v>
+      </c>
       <c r="H124" s="20"/>
       <c r="I124" s="20"/>
       <c r="J124" s="4"/>
@@ -11369,14 +11412,22 @@
     </row>
     <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
-      <c r="B125" s="14"/>
+      <c r="B125" s="14">
+        <v>45964</v>
+      </c>
       <c r="C125" s="48">
         <v>123</v>
       </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="82"/>
+      <c r="D125" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E125" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F125" s="19"/>
-      <c r="G125" s="20"/>
+      <c r="G125" s="20">
+        <v>-143.16</v>
+      </c>
       <c r="H125" s="20"/>
       <c r="I125" s="20"/>
       <c r="J125" s="4"/>
@@ -11385,14 +11436,22 @@
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="41"/>
-      <c r="B126" s="14"/>
+      <c r="B126" s="14">
+        <v>45964</v>
+      </c>
       <c r="C126" s="48">
         <v>124</v>
       </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="21"/>
+      <c r="D126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F126" s="19"/>
-      <c r="G126" s="20"/>
+      <c r="G126" s="20">
+        <v>-11.99</v>
+      </c>
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
       <c r="J126" s="4"/>
@@ -11401,14 +11460,22 @@
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
-      <c r="B127" s="14"/>
+      <c r="B127" s="14">
+        <v>45965</v>
+      </c>
       <c r="C127" s="48">
         <v>125</v>
       </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="82"/>
+      <c r="D127" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E127" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F127" s="19"/>
-      <c r="G127" s="20"/>
+      <c r="G127" s="20">
+        <v>-52</v>
+      </c>
       <c r="H127" s="20"/>
       <c r="I127" s="20"/>
       <c r="J127" s="4"/>
@@ -11417,14 +11484,22 @@
     </row>
     <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
-      <c r="B128" s="14"/>
+      <c r="B128" s="14">
+        <v>45965</v>
+      </c>
       <c r="C128" s="48">
         <v>126</v>
       </c>
-      <c r="D128" s="81"/>
-      <c r="E128" s="82"/>
+      <c r="D128" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F128" s="19"/>
-      <c r="G128" s="20"/>
+      <c r="G128" s="20">
+        <v>-112</v>
+      </c>
       <c r="H128" s="20"/>
       <c r="I128" s="20"/>
       <c r="J128" s="4"/>
@@ -12179,7 +12254,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-7340.3899999999976</v>
+        <v>-7844.2499999999973</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -13103,115 +13178,115 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="23" priority="481" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="22" priority="475" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="475" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="21" priority="464" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="18" priority="711" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="17" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="16" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="15" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="11" priority="663" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E160">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E121 E123:E160">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="7" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="2" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E120 E123:E174 E3:E51 E53:E118" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E3:E51 E123:E174" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E119 E121:E122 E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4917C-8F5B-43D4-8CF5-7D21FB1D0F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CF36E5-3D7B-4C54-AB3E-C1DFBC508CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$J$170</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$I$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$119</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="156">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -463,6 +463,45 @@
   </si>
   <si>
     <t>Abfall</t>
+  </si>
+  <si>
+    <t>26a</t>
+  </si>
+  <si>
+    <t>Spendenartikel Muttertagsbasteln Antonia</t>
+  </si>
+  <si>
+    <t>spd miete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.feier Eine Welt </t>
+  </si>
+  <si>
+    <t>W.markt</t>
+  </si>
+  <si>
+    <t>Fehlüberweisung</t>
+  </si>
+  <si>
+    <t>Fehlüberweisung Ausgleich</t>
+  </si>
+  <si>
+    <t>Glühwein</t>
+  </si>
+  <si>
+    <t>Umschläge</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Briefkasten</t>
+  </si>
+  <si>
+    <t>DNT Vermietung</t>
+  </si>
+  <si>
+    <t>SPD Getränke</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1169,22 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1603,7 +1657,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:H114" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:H115" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -3951,17 +4005,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="51">
+    <format dxfId="54">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4060,17 +4114,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="54">
+    <format dxfId="57">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5194,11 +5248,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IJ180"/>
+  <dimension ref="A1:IJ181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5914,20 +5968,20 @@
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <v>45789</v>
-      </c>
-      <c r="B31" s="15">
-        <v>27</v>
+        <v>45787</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -5936,20 +5990,20 @@
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <v>45790</v>
+        <v>45789</v>
       </c>
       <c r="B32" s="15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="20">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -5958,20 +6012,20 @@
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <v>45791</v>
+        <v>45790</v>
       </c>
       <c r="B33" s="15">
-        <v>29</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="20">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -5980,20 +6034,20 @@
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
-        <v>45793</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>92</v>
+        <v>45791</v>
+      </c>
+      <c r="B34" s="15">
+        <v>29</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17">
-        <v>136.52000000000001</v>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20">
+        <v>131</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -6002,19 +6056,21 @@
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <v>45801</v>
-      </c>
-      <c r="B35" s="15">
-        <v>30</v>
+        <v>45793</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="17">
+        <v>136.52000000000001</v>
+      </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="2"/>
@@ -6025,7 +6081,7 @@
         <v>45801</v>
       </c>
       <c r="B36" s="15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>88</v>
@@ -6045,7 +6101,7 @@
         <v>45801</v>
       </c>
       <c r="B37" s="15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>88</v>
@@ -6065,7 +6121,7 @@
         <v>45801</v>
       </c>
       <c r="B38" s="15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>88</v>
@@ -6085,7 +6141,7 @@
         <v>45801</v>
       </c>
       <c r="B39" s="15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>88</v>
@@ -6104,8 +6160,8 @@
       <c r="A40" s="14">
         <v>45801</v>
       </c>
-      <c r="B40" s="48">
-        <v>35</v>
+      <c r="B40" s="15">
+        <v>34</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>88</v>
@@ -6124,11 +6180,11 @@
       <c r="A41" s="14">
         <v>45801</v>
       </c>
-      <c r="B41" s="15">
-        <v>36</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>96</v>
+      <c r="B41" s="48">
+        <v>35</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>12</v>
@@ -6142,21 +6198,19 @@
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
-        <v>45803</v>
+        <v>45801</v>
       </c>
       <c r="B42" s="15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E42" s="16"/>
-      <c r="F42" s="17">
-        <v>85</v>
-      </c>
+      <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="2"/>
@@ -6164,19 +6218,21 @@
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
-        <v>45801</v>
+        <v>45803</v>
       </c>
       <c r="B43" s="15">
-        <v>38</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
+      <c r="F43" s="17">
+        <v>85</v>
+      </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="2"/>
@@ -6184,64 +6240,62 @@
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
-        <v>45804</v>
-      </c>
-      <c r="B44" s="48">
-        <v>39</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>98</v>
+        <v>45801</v>
+      </c>
+      <c r="B44" s="15">
+        <v>38</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="17">
-        <v>20</v>
-      </c>
+      <c r="H44" s="17"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
-        <v>45810</v>
-      </c>
-      <c r="B45" s="15">
-        <v>40</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>46</v>
+        <v>45804</v>
+      </c>
+      <c r="B45" s="48">
+        <v>39</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>98</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="20">
-        <v>101</v>
-      </c>
+      <c r="F45" s="20"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
+      <c r="H45" s="17">
+        <v>20</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
-        <v>45831</v>
+        <v>45810</v>
       </c>
       <c r="B46" s="15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="20">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -6250,20 +6304,20 @@
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
-        <v>45833</v>
+        <v>45831</v>
       </c>
       <c r="B47" s="15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17">
-        <v>26.54</v>
+        <v>12</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20">
+        <v>50</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -6272,20 +6326,20 @@
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
-        <v>45838</v>
+        <v>45833</v>
       </c>
       <c r="B48" s="15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20">
-        <v>148</v>
+        <v>25</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17">
+        <v>26.54</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -6297,17 +6351,17 @@
         <v>45838</v>
       </c>
       <c r="B49" s="15">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20">
+        <v>148</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -6319,17 +6373,17 @@
         <v>45838</v>
       </c>
       <c r="B50" s="15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="17">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
@@ -6341,17 +6395,17 @@
         <v>45838</v>
       </c>
       <c r="B51" s="15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17">
+        <v>300</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -6360,20 +6414,20 @@
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
-        <v>45840</v>
+        <v>45838</v>
       </c>
       <c r="B52" s="15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17">
         <v>0</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20">
+        <v>78</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -6382,13 +6436,13 @@
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
-        <v>45844</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>123</v>
+        <v>45840</v>
+      </c>
+      <c r="B53" s="15">
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>12</v>
@@ -6404,20 +6458,20 @@
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
-        <v>45845</v>
-      </c>
-      <c r="B54" s="15">
-        <v>48</v>
+        <v>45844</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="19"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="17">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -6429,83 +6483,83 @@
         <v>45845</v>
       </c>
       <c r="B55" s="15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
+      <c r="F55" s="17">
+        <v>59</v>
+      </c>
       <c r="G55" s="17"/>
-      <c r="H55" s="17">
-        <v>1131</v>
-      </c>
+      <c r="H55" s="17"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
-        <v>45848</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>133</v>
+        <v>45845</v>
+      </c>
+      <c r="B56" s="15">
+        <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17">
-        <v>75</v>
+        <v>1131</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
-        <v>45853</v>
-      </c>
-      <c r="B57" s="15">
-        <v>50</v>
+        <v>45848</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="17">
-        <v>80</v>
-      </c>
+      <c r="F57" s="17"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="H57" s="17">
+        <v>75</v>
+      </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
-        <v>45861</v>
+        <v>45853</v>
       </c>
       <c r="B58" s="15">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="17">
-        <v>1339.8</v>
+        <v>80</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -6514,20 +6568,20 @@
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
-        <v>45866</v>
+        <v>45861</v>
       </c>
       <c r="B59" s="15">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="17">
-        <v>45</v>
+        <v>1339.8</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -6539,17 +6593,17 @@
         <v>45866</v>
       </c>
       <c r="B60" s="15">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="17">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -6558,20 +6612,20 @@
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
-        <v>45868</v>
+        <v>45866</v>
       </c>
       <c r="B61" s="15">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -6580,20 +6634,20 @@
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
-        <v>45869</v>
+        <v>45868</v>
       </c>
       <c r="B62" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="17">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -6602,10 +6656,10 @@
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
-        <v>45876</v>
+        <v>45869</v>
       </c>
       <c r="B63" s="15">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>126</v>
@@ -6624,20 +6678,20 @@
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
-        <v>45877</v>
+        <v>45876</v>
       </c>
       <c r="B64" s="15">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="19"/>
       <c r="F64" s="17">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
@@ -6646,32 +6700,32 @@
     </row>
     <row r="65" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
-        <v>45887</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>132</v>
+        <v>45877</v>
+      </c>
+      <c r="B65" s="15">
+        <v>57</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16"/>
-      <c r="F65" s="17"/>
+      <c r="F65" s="17">
+        <v>250</v>
+      </c>
       <c r="G65" s="17"/>
-      <c r="H65" s="17">
-        <v>138</v>
-      </c>
+      <c r="H65" s="17"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
-        <v>45898</v>
-      </c>
-      <c r="B66" s="48">
-        <v>58</v>
+        <v>45887</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>125</v>
@@ -6680,20 +6734,20 @@
         <v>0</v>
       </c>
       <c r="E66" s="16"/>
-      <c r="F66" s="17">
-        <v>160</v>
-      </c>
+      <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+      <c r="H66" s="17">
+        <v>138</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
-        <v>45936</v>
+        <v>45898</v>
       </c>
       <c r="B67" s="48">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>125</v>
@@ -6703,7 +6757,7 @@
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="17">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -6715,32 +6769,32 @@
         <v>45936</v>
       </c>
       <c r="B68" s="48">
-        <v>60</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>137</v>
+        <v>59</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
+      <c r="F68" s="17">
+        <v>128</v>
+      </c>
       <c r="G68" s="17"/>
-      <c r="H68" s="17">
-        <v>20</v>
-      </c>
+      <c r="H68" s="17"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
-        <v>45945</v>
+        <v>45936</v>
       </c>
       <c r="B69" s="48">
-        <v>61</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>0</v>
@@ -6749,17 +6803,17 @@
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
-        <v>45964</v>
+        <v>45945</v>
       </c>
       <c r="B70" s="48">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>46</v>
@@ -6768,106 +6822,154 @@
         <v>0</v>
       </c>
       <c r="E70" s="16"/>
-      <c r="F70" s="17">
-        <v>104</v>
-      </c>
+      <c r="F70" s="17"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+      <c r="H70" s="17">
+        <v>76</v>
+      </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15">
-        <v>63</v>
-      </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="18"/>
+      <c r="A71" s="14">
+        <v>45964</v>
+      </c>
+      <c r="B71" s="48">
+        <v>62</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E71" s="16"/>
-      <c r="F71" s="17"/>
+      <c r="F71" s="17">
+        <v>104</v>
+      </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="48">
-        <v>64</v>
-      </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="18"/>
+      <c r="A72" s="14">
+        <v>45975</v>
+      </c>
+      <c r="B72" s="15">
+        <v>63</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
+      <c r="H72" s="17">
+        <v>60</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15">
-        <v>65</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="18"/>
+      <c r="A73" s="14">
+        <v>45979</v>
+      </c>
+      <c r="B73" s="48">
+        <v>64</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="E73" s="16"/>
-      <c r="F73" s="17"/>
+      <c r="F73" s="17">
+        <v>8</v>
+      </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
+      <c r="A74" s="14">
+        <v>45982</v>
+      </c>
       <c r="B74" s="15">
-        <v>66</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E74" s="16"/>
-      <c r="F74" s="17"/>
+      <c r="F74" s="17">
+        <v>168</v>
+      </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14">
+        <v>45982</v>
+      </c>
       <c r="B75" s="15">
-        <v>67</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E75" s="16"/>
-      <c r="F75" s="17"/>
+      <c r="F75" s="17">
+        <v>15</v>
+      </c>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14">
+        <v>45985</v>
+      </c>
       <c r="B76" s="15">
-        <v>68</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="16"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
+      <c r="H76" s="17">
+        <v>20</v>
+      </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="15">
-        <v>69</v>
-      </c>
-      <c r="C77" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C77" s="37"/>
       <c r="D77" s="18"/>
-      <c r="E77" s="16"/>
+      <c r="E77" s="19"/>
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -6877,9 +6979,9 @@
     <row r="78" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="15">
-        <v>70</v>
-      </c>
-      <c r="C78" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="C78" s="3"/>
       <c r="D78" s="18"/>
       <c r="E78" s="16"/>
       <c r="F78" s="17"/>
@@ -6891,7 +6993,7 @@
     <row r="79" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="18"/>
@@ -6905,7 +7007,7 @@
     <row r="80" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="15">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="18"/>
@@ -6919,7 +7021,7 @@
     <row r="81" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="15">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="18"/>
@@ -6933,7 +7035,7 @@
     <row r="82" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="15">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="18"/>
@@ -6947,7 +7049,7 @@
     <row r="83" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="15">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="18"/>
@@ -6961,9 +7063,9 @@
     <row r="84" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="15">
-        <v>76</v>
-      </c>
-      <c r="C84" s="37"/>
+        <v>75</v>
+      </c>
+      <c r="C84" s="15"/>
       <c r="D84" s="18"/>
       <c r="E84" s="16"/>
       <c r="F84" s="17"/>
@@ -6975,9 +7077,9 @@
     <row r="85" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="15">
-        <v>77</v>
-      </c>
-      <c r="C85" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C85" s="37"/>
       <c r="D85" s="18"/>
       <c r="E85" s="16"/>
       <c r="F85" s="17"/>
@@ -6989,7 +7091,7 @@
     <row r="86" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="15">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="18"/>
@@ -7002,13 +7104,13 @@
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
-      <c r="B87" s="48">
-        <v>79</v>
-      </c>
-      <c r="C87" s="50"/>
+      <c r="B87" s="15">
+        <v>78</v>
+      </c>
+      <c r="C87" s="3"/>
       <c r="D87" s="18"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="20"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="2"/>
@@ -7016,13 +7118,13 @@
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
-      <c r="B88" s="15">
-        <v>80</v>
+      <c r="B88" s="48">
+        <v>79</v>
       </c>
       <c r="C88" s="50"/>
       <c r="D88" s="18"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="17"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="20"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
       <c r="I88" s="2"/>
@@ -7031,7 +7133,7 @@
     <row r="89" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="15">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="50"/>
       <c r="D89" s="18"/>
@@ -7045,7 +7147,7 @@
     <row r="90" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="15">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" s="50"/>
       <c r="D90" s="18"/>
@@ -7059,7 +7161,7 @@
     <row r="91" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="15">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" s="50"/>
       <c r="D91" s="18"/>
@@ -7073,9 +7175,9 @@
     <row r="92" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="15">
-        <v>84</v>
-      </c>
-      <c r="C92" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="C92" s="50"/>
       <c r="D92" s="18"/>
       <c r="E92" s="16"/>
       <c r="F92" s="17"/>
@@ -7087,9 +7189,9 @@
     <row r="93" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="15">
-        <v>85</v>
-      </c>
-      <c r="C93" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C93" s="15"/>
       <c r="D93" s="18"/>
       <c r="E93" s="16"/>
       <c r="F93" s="17"/>
@@ -7101,7 +7203,7 @@
     <row r="94" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="15">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="18"/>
@@ -7115,7 +7217,7 @@
     <row r="95" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="18"/>
@@ -7129,7 +7231,7 @@
     <row r="96" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="18"/>
@@ -7142,10 +7244,10 @@
     </row>
     <row r="97" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
-      <c r="B97" s="48">
-        <v>89</v>
-      </c>
-      <c r="C97" s="37"/>
+      <c r="B97" s="15">
+        <v>88</v>
+      </c>
+      <c r="C97" s="3"/>
       <c r="D97" s="18"/>
       <c r="E97" s="16"/>
       <c r="F97" s="17"/>
@@ -7156,10 +7258,10 @@
     </row>
     <row r="98" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
-      <c r="B98" s="15">
-        <v>90</v>
-      </c>
-      <c r="C98" s="15"/>
+      <c r="B98" s="48">
+        <v>89</v>
+      </c>
+      <c r="C98" s="37"/>
       <c r="D98" s="18"/>
       <c r="E98" s="16"/>
       <c r="F98" s="17"/>
@@ -7171,7 +7273,7 @@
     <row r="99" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="15">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="18"/>
@@ -7185,7 +7287,7 @@
     <row r="100" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="15">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="18"/>
@@ -7199,7 +7301,7 @@
     <row r="101" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="15">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="18"/>
@@ -7213,7 +7315,7 @@
     <row r="102" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="15">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="18"/>
@@ -7227,12 +7329,12 @@
     <row r="103" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="15">
-        <v>95</v>
-      </c>
-      <c r="C103" s="37"/>
+        <v>94</v>
+      </c>
+      <c r="C103" s="15"/>
       <c r="D103" s="18"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="2"/>
@@ -7241,12 +7343,12 @@
     <row r="104" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="15">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="18"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="17"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="2"/>
@@ -7255,9 +7357,9 @@
     <row r="105" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="15">
-        <v>97</v>
-      </c>
-      <c r="C105" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="C105" s="37"/>
       <c r="D105" s="18"/>
       <c r="E105" s="16"/>
       <c r="F105" s="17"/>
@@ -7269,7 +7371,7 @@
     <row r="106" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="15">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="18"/>
@@ -7283,7 +7385,7 @@
     <row r="107" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="15">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="18"/>
@@ -7297,7 +7399,7 @@
     <row r="108" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="15">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="18"/>
@@ -7311,7 +7413,7 @@
     <row r="109" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="15">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="18"/>
@@ -7325,7 +7427,7 @@
     <row r="110" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="15">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="18"/>
@@ -7339,7 +7441,7 @@
     <row r="111" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="15">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="18"/>
@@ -7352,7 +7454,9 @@
     </row>
     <row r="112" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="15">
+        <v>103</v>
+      </c>
       <c r="C112" s="15"/>
       <c r="D112" s="18"/>
       <c r="E112" s="16"/>
@@ -7383,110 +7487,110 @@
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
-      <c r="I114" s="2" t="s">
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J114" s="2"/>
-    </row>
-    <row r="115" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="25">
-        <f>SUM(E3:E114)</f>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="25">
+        <f>SUM(E3:E115)</f>
         <v>1105</v>
       </c>
-      <c r="F115" s="26">
-        <f>SUM(F3:F114)</f>
-        <v>10361.430000000022</v>
-      </c>
-      <c r="G115" s="26">
-        <f>SUM(G3:G114)</f>
+      <c r="F116" s="26">
+        <f>SUM(F3:F115)</f>
+        <v>10552.430000000022</v>
+      </c>
+      <c r="G116" s="26">
+        <f>SUM(G3:G115)</f>
         <v>2000.5</v>
       </c>
-      <c r="H115" s="26">
-        <f>SUM(H3:H114)</f>
-        <v>1822.9999999999991</v>
-      </c>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-    </row>
-    <row r="116" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="33"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
+      <c r="H116" s="26">
+        <f>SUM(H3:H115)</f>
+        <v>1902.9999999999991</v>
+      </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="26">
-        <f>E115+Ausgaben!F175</f>
-        <v>0</v>
-      </c>
-      <c r="F117" s="26">
-        <f>F115+Ausgaben!G175</f>
-        <v>2517.1800000000248</v>
-      </c>
-      <c r="G117" s="26">
-        <f>G115+Ausgaben!H175</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H117" s="26">
-        <f>H115+Ausgaben!I175</f>
-        <v>1653.9699999999991</v>
-      </c>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="35"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
+      <c r="A118" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="26">
+        <f>E116+Ausgaben!F175</f>
+        <v>0</v>
+      </c>
+      <c r="F118" s="26">
+        <f>F116+Ausgaben!G175</f>
+        <v>1915.7500000000255</v>
+      </c>
+      <c r="G118" s="26">
+        <f>G116+Ausgaben!H175</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H118" s="26">
+        <f>H116+Ausgaben!I175</f>
+        <v>1733.9699999999991</v>
+      </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="27">
-        <f>SUM(E117:H117)</f>
-        <v>6171.6500000000242</v>
-      </c>
-      <c r="E119" s="16"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="17"/>
+      <c r="A120" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="27">
+        <f>SUM(E118:H118)</f>
+        <v>5650.2200000000248</v>
+      </c>
+      <c r="E120" s="16"/>
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
@@ -7494,12 +7598,10 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
@@ -7511,7 +7613,9 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="D122" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
@@ -8203,156 +8307,183 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
+    <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J181" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A98:A101">
-    <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A99:A102">
+    <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="47" priority="191" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B88">
+    <cfRule type="cellIs" dxfId="50" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:D104">
-    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C104:D105">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D77">
-    <cfRule type="cellIs" dxfId="45" priority="13" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D77:D78">
+    <cfRule type="cellIs" dxfId="48" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:D93">
-    <cfRule type="cellIs" dxfId="44" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D88:D94">
+    <cfRule type="cellIs" dxfId="47" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86:F86">
-    <cfRule type="cellIs" dxfId="43" priority="9" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D87:F87">
+    <cfRule type="cellIs" dxfId="46" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:G74 E75:G75 E77:G77 G86:G87 E70:G70">
-    <cfRule type="cellIs" dxfId="42" priority="63" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D73:G73 E78:G78 G87:G88 E72:G72 E74:G76">
+    <cfRule type="cellIs" dxfId="45" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78:G85">
-    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D79:G86">
+    <cfRule type="cellIs" dxfId="44" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D105:G114">
-    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D106:G115">
+    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="39" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:F38">
-    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E35:F39">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:F43">
-    <cfRule type="cellIs" dxfId="37" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E43:F44">
+    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47:F47">
-    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E48:F48">
+    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F61">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E57:F62">
+    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="34" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:G41 G42:G48">
-    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E40:G42 G43:G49">
+    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:G50 G51:G53 E52:F53 F54:G54 G55 G57:G61">
-    <cfRule type="cellIs" dxfId="32" priority="89" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E50:G51 G52:G54 E53:F54 F55:G55 G56 G58:G62">
+    <cfRule type="cellIs" dxfId="35" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:G69">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E66:G71">
+    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88:G93 D94:G102">
-    <cfRule type="cellIs" dxfId="30" priority="45" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E89:G94 D95:G103">
+    <cfRule type="cellIs" dxfId="33" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:H3 G103 E104:G104 D114:H114 E115:H179 D119">
-    <cfRule type="cellIs" dxfId="29" priority="343" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:H3 G104 E105:G105 D115:H115 E116:H180 D120">
+    <cfRule type="cellIs" dxfId="32" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="28" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62:G63">
-    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F63:G64">
+    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="26" priority="61" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F77:G77">
+    <cfRule type="cellIs" dxfId="29" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H55 G56:H56 H57:H114 D64:G64 A97:C97 D4:D70">
-    <cfRule type="cellIs" dxfId="25" priority="177" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 H4:H27 D4:D71 H29:H56 G57:H57 D65:G65 A98:C98 H58:H115">
+    <cfRule type="cellIs" dxfId="28" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="24" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="23" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G38">
-    <cfRule type="cellIs" dxfId="22" priority="118" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G29:G39">
+    <cfRule type="cellIs" dxfId="25" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="21" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74:D75">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D114" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -8363,7 +8494,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="127" max="18" man="1"/>
+    <brk id="128" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8375,9 +8506,9 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11508,14 +11639,22 @@
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
-      <c r="B129" s="14"/>
+      <c r="B129" s="14">
+        <v>45974</v>
+      </c>
       <c r="C129" s="48">
         <v>127</v>
       </c>
-      <c r="D129" s="81"/>
-      <c r="E129" s="82"/>
+      <c r="D129" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F129" s="19"/>
-      <c r="G129" s="20"/>
+      <c r="G129" s="20">
+        <v>-96.99</v>
+      </c>
       <c r="H129" s="20"/>
       <c r="I129" s="20"/>
       <c r="J129" s="4"/>
@@ -11524,14 +11663,22 @@
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
-      <c r="B130" s="14"/>
+      <c r="B130" s="14">
+        <v>45978</v>
+      </c>
       <c r="C130" s="48">
         <v>128</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="21"/>
+      <c r="D130" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F130" s="19"/>
-      <c r="G130" s="20"/>
+      <c r="G130" s="20">
+        <v>-440.5</v>
+      </c>
       <c r="H130" s="20"/>
       <c r="I130" s="20"/>
       <c r="J130" s="4"/>
@@ -11540,14 +11687,22 @@
     </row>
     <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
-      <c r="B131" s="14"/>
+      <c r="B131" s="14">
+        <v>45978</v>
+      </c>
       <c r="C131" s="48">
         <v>129</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="21"/>
+      <c r="D131" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E131" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F131" s="19"/>
-      <c r="G131" s="20"/>
+      <c r="G131" s="20">
+        <v>-40</v>
+      </c>
       <c r="H131" s="20"/>
       <c r="I131" s="20"/>
       <c r="J131" s="4"/>
@@ -11556,14 +11711,22 @@
     </row>
     <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
-      <c r="B132" s="14"/>
+      <c r="B132" s="14">
+        <v>45979</v>
+      </c>
       <c r="C132" s="48">
         <v>130</v>
       </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="21"/>
+      <c r="D132" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="F132" s="19"/>
-      <c r="G132" s="20"/>
+      <c r="G132" s="20">
+        <v>-8</v>
+      </c>
       <c r="H132" s="20"/>
       <c r="I132" s="20"/>
       <c r="J132" s="4"/>
@@ -11572,14 +11735,22 @@
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
-      <c r="B133" s="14"/>
+      <c r="B133" s="14">
+        <v>45979</v>
+      </c>
       <c r="C133" s="48">
         <v>131</v>
       </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="82"/>
+      <c r="D133" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E133" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F133" s="19"/>
-      <c r="G133" s="20"/>
+      <c r="G133" s="20">
+        <v>-39.89</v>
+      </c>
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
       <c r="J133" s="4"/>
@@ -11588,14 +11759,22 @@
     </row>
     <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
-      <c r="B134" s="14"/>
+      <c r="B134" s="14">
+        <v>45980</v>
+      </c>
       <c r="C134" s="48">
         <v>132</v>
       </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="21"/>
+      <c r="D134" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="F134" s="19"/>
-      <c r="G134" s="20"/>
+      <c r="G134" s="20">
+        <v>-11.97</v>
+      </c>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
       <c r="J134" s="4"/>
@@ -11604,14 +11783,22 @@
     </row>
     <row r="135" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
-      <c r="B135" s="14"/>
+      <c r="B135" s="14">
+        <v>45980</v>
+      </c>
       <c r="C135" s="48">
         <v>133</v>
       </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="21"/>
+      <c r="D135" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="F135" s="19"/>
-      <c r="G135" s="20"/>
+      <c r="G135" s="20">
+        <v>-28.5</v>
+      </c>
       <c r="H135" s="20"/>
       <c r="I135" s="20"/>
       <c r="J135" s="4"/>
@@ -11620,14 +11807,22 @@
     </row>
     <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
-      <c r="B136" s="14"/>
+      <c r="B136" s="14">
+        <v>45980</v>
+      </c>
       <c r="C136" s="48">
         <v>134</v>
       </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="82"/>
+      <c r="D136" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E136" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F136" s="19"/>
-      <c r="G136" s="20"/>
+      <c r="G136" s="20">
+        <v>-93.09</v>
+      </c>
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
       <c r="J136" s="4"/>
@@ -11636,14 +11831,22 @@
     </row>
     <row r="137" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
-      <c r="B137" s="14"/>
+      <c r="B137" s="14">
+        <v>45985</v>
+      </c>
       <c r="C137" s="48">
         <v>135</v>
       </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="21"/>
+      <c r="D137" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="F137" s="19"/>
-      <c r="G137" s="20"/>
+      <c r="G137" s="20">
+        <v>-28.5</v>
+      </c>
       <c r="H137" s="20"/>
       <c r="I137" s="20"/>
       <c r="J137" s="4"/>
@@ -11652,14 +11855,22 @@
     </row>
     <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
-      <c r="B138" s="14"/>
+      <c r="B138" s="14">
+        <v>45986</v>
+      </c>
       <c r="C138" s="48">
         <v>136</v>
       </c>
-      <c r="D138" s="81"/>
-      <c r="E138" s="82"/>
+      <c r="D138" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F138" s="19"/>
-      <c r="G138" s="20"/>
+      <c r="G138" s="20">
+        <v>-4.99</v>
+      </c>
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
       <c r="J138" s="4"/>
@@ -12254,7 +12465,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-7844.2499999999973</v>
+        <v>-8636.6799999999967</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -13178,112 +13389,112 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="20" priority="481" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B134">
-    <cfRule type="cellIs" dxfId="19" priority="475" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B127:B136">
+    <cfRule type="cellIs" dxfId="22" priority="475" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="18" priority="464" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B137:B140">
+    <cfRule type="cellIs" dxfId="21" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="17" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="16" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="15" priority="711" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="14" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="13" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="12" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="8" priority="663" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E121 E123:E160">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E121 E123:E129 E131:E160">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="4" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="2" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="0" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E3:E51 E123:E174" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E3:E51 E123:E129 E131:E174" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CF36E5-3D7B-4C54-AB3E-C1DFBC508CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB07A04D-8051-4F58-8C23-159DD2B29C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="164">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -502,6 +502,30 @@
   </si>
   <si>
     <t>SPD Getränke</t>
+  </si>
+  <si>
+    <t>Trauerkarte Jelic</t>
+  </si>
+  <si>
+    <t>W.markt, Waffeln</t>
+  </si>
+  <si>
+    <t>W.päckle</t>
+  </si>
+  <si>
+    <t>W.markt, Glühw, Würstle</t>
+  </si>
+  <si>
+    <t>tzgl 25.11.</t>
+  </si>
+  <si>
+    <t>günne senioren 27.11.</t>
+  </si>
+  <si>
+    <t>W.feier (W.Markt 1145, 795 W.feier)</t>
+  </si>
+  <si>
+    <t>Spende W.feier Fr. Fanta</t>
   </si>
 </sst>
 </file>
@@ -1169,17 +1193,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4005,17 +4019,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="54">
+    <format dxfId="52">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4114,17 +4128,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="57">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5250,9 +5264,9 @@
   </sheetPr>
   <dimension ref="A1:IJ181"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6963,70 +6977,110 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14">
+        <v>45993</v>
+      </c>
       <c r="B77" s="15">
         <v>68</v>
       </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="18"/>
+      <c r="C77" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E77" s="19"/>
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="H77" s="17">
+        <v>103</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
+      <c r="A78" s="14">
+        <v>45993</v>
+      </c>
       <c r="B78" s="15">
         <v>69</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="18"/>
+      <c r="C78" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E78" s="16"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+      <c r="H78" s="17">
+        <v>70</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
+      <c r="A79" s="14">
+        <v>46006</v>
+      </c>
       <c r="B79" s="15">
         <v>70</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="18"/>
+      <c r="C79" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E79" s="16"/>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
+      <c r="H79" s="17">
+        <v>104</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
+      <c r="A80" s="14">
+        <v>46006</v>
+      </c>
       <c r="B80" s="15">
         <v>71</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="18"/>
+      <c r="C80" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E80" s="16"/>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="H80" s="17">
+        <v>1940</v>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
+      <c r="A81" s="14">
+        <v>46014</v>
+      </c>
       <c r="B81" s="15">
         <v>72</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="18"/>
+      <c r="C81" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E81" s="16"/>
-      <c r="F81" s="17"/>
+      <c r="F81" s="17">
+        <v>100</v>
+      </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="2"/>
@@ -7517,7 +7571,7 @@
       </c>
       <c r="F116" s="26">
         <f>SUM(F3:F115)</f>
-        <v>10552.430000000022</v>
+        <v>10652.430000000022</v>
       </c>
       <c r="G116" s="26">
         <f>SUM(G3:G115)</f>
@@ -7525,7 +7579,7 @@
       </c>
       <c r="H116" s="26">
         <f>SUM(H3:H115)</f>
-        <v>1902.9999999999991</v>
+        <v>4119.9999999999991</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -7555,7 +7609,7 @@
       </c>
       <c r="F118" s="26">
         <f>F116+Ausgaben!G175</f>
-        <v>1915.7500000000255</v>
+        <v>896.7800000000243</v>
       </c>
       <c r="G118" s="26">
         <f>G116+Ausgaben!H175</f>
@@ -7563,7 +7617,7 @@
       </c>
       <c r="H118" s="26">
         <f>H116+Ausgaben!I175</f>
-        <v>1733.9699999999991</v>
+        <v>3950.9699999999989</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -7588,7 +7642,7 @@
       <c r="C120" s="22"/>
       <c r="D120" s="27">
         <f>SUM(E118:H118)</f>
-        <v>5650.2200000000248</v>
+        <v>6848.2500000000236</v>
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="17"/>
@@ -8328,156 +8382,151 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A99:A102">
-    <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="50" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:D105">
-    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="48" priority="16" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D4:D72">
+    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74:D82">
+    <cfRule type="cellIs" dxfId="45" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:D94">
-    <cfRule type="cellIs" dxfId="47" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:F87">
-    <cfRule type="cellIs" dxfId="46" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:G73 E78:G78 G87:G88 E72:G72 E74:G76">
-    <cfRule type="cellIs" dxfId="45" priority="66" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D73:G73 E74:G76 G87:G88">
+    <cfRule type="cellIs" dxfId="42" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D79:G86">
-    <cfRule type="cellIs" dxfId="44" priority="13" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D83:G86 E79:G82">
+    <cfRule type="cellIs" dxfId="41" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:G115">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="42" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F39">
-    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F44">
-    <cfRule type="cellIs" dxfId="40" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:F62">
-    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="37" priority="282" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42 G43:G49">
-    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:G51 G52:G54 E53:F54 F55:G55 G56 G58:G62">
-    <cfRule type="cellIs" dxfId="35" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:G71">
-    <cfRule type="cellIs" dxfId="34" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E66:G72">
+    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89:G94 D95:G103">
-    <cfRule type="cellIs" dxfId="33" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H3 G104 E105:G105 D115:H115 E116:H180 D120">
-    <cfRule type="cellIs" dxfId="32" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="347" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="31" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:G64">
-    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="29" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 D4:D71 H29:H56 G57:H57 D65:G65 A98:C98 H58:H115">
-    <cfRule type="cellIs" dxfId="28" priority="180" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H56 G57:H57 D65:G65 A98:C98 H58:H115">
+    <cfRule type="cellIs" dxfId="25" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="27" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="26" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G39">
-    <cfRule type="cellIs" dxfId="25" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="24" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D75">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8506,9 +8555,9 @@
   </sheetPr>
   <dimension ref="A1:IL241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11879,14 +11928,22 @@
     </row>
     <row r="139" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="41"/>
-      <c r="B139" s="14"/>
+      <c r="B139" s="14">
+        <v>45992</v>
+      </c>
       <c r="C139" s="48">
         <v>137</v>
       </c>
-      <c r="D139" s="81"/>
-      <c r="E139" s="82"/>
+      <c r="D139" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F139" s="19"/>
-      <c r="G139" s="20"/>
+      <c r="G139" s="20">
+        <v>-36.26</v>
+      </c>
       <c r="H139" s="20"/>
       <c r="I139" s="20"/>
       <c r="J139" s="4"/>
@@ -11895,14 +11952,22 @@
     </row>
     <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
-      <c r="B140" s="14"/>
+      <c r="B140" s="14">
+        <v>45992</v>
+      </c>
       <c r="C140" s="48">
         <v>138</v>
       </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="21"/>
+      <c r="D140" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="F140" s="19"/>
-      <c r="G140" s="20"/>
+      <c r="G140" s="20">
+        <v>-12</v>
+      </c>
       <c r="H140" s="20"/>
       <c r="I140" s="20"/>
       <c r="J140" s="4"/>
@@ -11911,14 +11976,22 @@
     </row>
     <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
-      <c r="B141" s="14"/>
+      <c r="B141" s="14">
+        <v>45995</v>
+      </c>
       <c r="C141" s="48">
         <v>139</v>
       </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="21"/>
+      <c r="D141" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E141" s="82" t="s">
+        <v>22</v>
+      </c>
       <c r="F141" s="19"/>
-      <c r="G141" s="20"/>
+      <c r="G141" s="20">
+        <v>-20</v>
+      </c>
       <c r="H141" s="20"/>
       <c r="I141" s="20"/>
       <c r="J141" s="4"/>
@@ -11927,14 +12000,22 @@
     </row>
     <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
-      <c r="B142" s="14"/>
+      <c r="B142" s="14">
+        <v>46002</v>
+      </c>
       <c r="C142" s="48">
         <v>140</v>
       </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="21"/>
+      <c r="D142" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F142" s="19"/>
-      <c r="G142" s="20"/>
+      <c r="G142" s="20">
+        <v>-35.68</v>
+      </c>
       <c r="H142" s="20"/>
       <c r="I142" s="20"/>
       <c r="J142" s="4"/>
@@ -11943,14 +12024,22 @@
     </row>
     <row r="143" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="41"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="14">
+        <v>46003</v>
+      </c>
       <c r="C143" s="48">
         <v>141</v>
       </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="21"/>
+      <c r="D143" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F143" s="19"/>
-      <c r="G143" s="20"/>
+      <c r="G143" s="20">
+        <v>-347.62</v>
+      </c>
       <c r="H143" s="20"/>
       <c r="I143" s="20"/>
       <c r="J143" s="4"/>
@@ -11959,14 +12048,22 @@
     </row>
     <row r="144" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="41"/>
-      <c r="B144" s="14"/>
+      <c r="B144" s="14">
+        <v>46006</v>
+      </c>
       <c r="C144" s="48">
         <v>142</v>
       </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="21"/>
+      <c r="D144" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F144" s="19"/>
-      <c r="G144" s="20"/>
+      <c r="G144" s="20">
+        <v>-52.82</v>
+      </c>
       <c r="H144" s="20"/>
       <c r="I144" s="20"/>
       <c r="J144" s="4"/>
@@ -11975,14 +12072,22 @@
     </row>
     <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="41"/>
-      <c r="B145" s="14"/>
+      <c r="B145" s="14">
+        <v>46008</v>
+      </c>
       <c r="C145" s="48">
         <v>143</v>
       </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="21"/>
+      <c r="D145" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="F145" s="19"/>
-      <c r="G145" s="20"/>
+      <c r="G145" s="20">
+        <v>-600</v>
+      </c>
       <c r="H145" s="20"/>
       <c r="I145" s="20"/>
       <c r="J145" s="4"/>
@@ -11991,14 +12096,22 @@
     </row>
     <row r="146" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="41"/>
-      <c r="B146" s="14"/>
+      <c r="B146" s="14">
+        <v>46013</v>
+      </c>
       <c r="C146" s="48">
         <v>144</v>
       </c>
-      <c r="D146" s="37"/>
-      <c r="E146" s="21"/>
+      <c r="D146" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E146" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F146" s="19"/>
-      <c r="G146" s="20"/>
+      <c r="G146" s="20">
+        <v>-14.59</v>
+      </c>
       <c r="H146" s="20"/>
       <c r="I146" s="20"/>
       <c r="J146" s="4"/>
@@ -12465,7 +12578,7 @@
       </c>
       <c r="G175" s="32">
         <f>SUM(G3:G174)</f>
-        <v>-8636.6799999999967</v>
+        <v>-9755.6499999999978</v>
       </c>
       <c r="H175" s="32">
         <f>SUM(H3:H174)</f>
@@ -13389,112 +13502,107 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="23" priority="481" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B136">
-    <cfRule type="cellIs" dxfId="22" priority="475" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137:B140">
-    <cfRule type="cellIs" dxfId="21" priority="464" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B127:B140">
+    <cfRule type="cellIs" dxfId="19" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="18" priority="711" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="17" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="16" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="15" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="11" priority="663" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E121 E123:E129 E131:E160">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E121 E123:E129 E131:E142 E144:E160">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="7" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="3" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E3:E51 E123:E129 E131:E174" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E3:E51 E123:E129 E131:E142 E144:E174" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB07A04D-8051-4F58-8C23-159DD2B29C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B0259-BD54-4BB6-8A3A-8685C0C0B998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Gesamt" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$J$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$J$173</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$112</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$I$174</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$I$177</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="167">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -477,9 +477,6 @@
     <t xml:space="preserve">W.feier Eine Welt </t>
   </si>
   <si>
-    <t>W.markt</t>
-  </si>
-  <si>
     <t>Fehlüberweisung</t>
   </si>
   <si>
@@ -507,12 +504,6 @@
     <t>Trauerkarte Jelic</t>
   </si>
   <si>
-    <t>W.markt, Waffeln</t>
-  </si>
-  <si>
-    <t>W.päckle</t>
-  </si>
-  <si>
     <t>W.markt, Glühw, Würstle</t>
   </si>
   <si>
@@ -526,6 +517,24 @@
   </si>
   <si>
     <t>Spende W.feier Fr. Fanta</t>
+  </si>
+  <si>
+    <t>W.markt, Standgeld</t>
+  </si>
+  <si>
+    <t>W.markt, Waffeln, Mus</t>
+  </si>
+  <si>
+    <t>W.päckle Schoki</t>
+  </si>
+  <si>
+    <t>W.markt Wasser, Schnaps, Sekt</t>
+  </si>
+  <si>
+    <t>138a</t>
+  </si>
+  <si>
+    <t>138b</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1633,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550578707" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E2:I170" sheet="Ausgaben"/>
+    <worksheetSource ref="E2:I173" sheet="Ausgaben"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -3932,24 +3941,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="14">
+      <items count="12">
         <item h="1" x="6"/>
+        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
-        <item m="1" x="12"/>
-        <item x="2"/>
-        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item m="1" x="11"/>
-        <item h="1" m="1" x="10"/>
-        <item x="7"/>
-        <item h="1" m="1" x="9"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3962,12 +3969,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3979,13 +3989,7 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -4046,22 +4050,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="14">
         <item h="1" x="6"/>
-        <item x="7"/>
         <item x="5"/>
         <item x="4"/>
+        <item m="1" x="12"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
+        <item x="7"/>
+        <item h="1" m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4074,15 +4080,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4094,7 +4097,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -5264,8 +5273,8 @@
   </sheetPr>
   <dimension ref="A1:IJ181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -6896,7 +6905,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>27</v>
@@ -6918,7 +6927,7 @@
         <v>65</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>0</v>
@@ -6940,7 +6949,7 @@
         <v>66</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>0</v>
@@ -6984,7 +6993,7 @@
         <v>68</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>0</v>
@@ -7006,7 +7015,7 @@
         <v>69</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>0</v>
@@ -7050,7 +7059,7 @@
         <v>71</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>0</v>
@@ -7072,7 +7081,7 @@
         <v>72</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>0</v>
@@ -7604,19 +7613,19 @@
       <c r="C118" s="23"/>
       <c r="D118" s="45"/>
       <c r="E118" s="26">
-        <f>E116+Ausgaben!F175</f>
+        <f>E116+Ausgaben!F178</f>
         <v>0</v>
       </c>
       <c r="F118" s="26">
-        <f>F116+Ausgaben!G175</f>
-        <v>896.7800000000243</v>
+        <f>F116+Ausgaben!G178</f>
+        <v>732.7800000000243</v>
       </c>
       <c r="G118" s="26">
-        <f>G116+Ausgaben!H175</f>
+        <f>G116+Ausgaben!H178</f>
         <v>2000.5</v>
       </c>
       <c r="H118" s="26">
-        <f>H116+Ausgaben!I175</f>
+        <f>H116+Ausgaben!I178</f>
         <v>3950.9699999999989</v>
       </c>
       <c r="I118" s="2"/>
@@ -7642,7 +7651,7 @@
       <c r="C120" s="22"/>
       <c r="D120" s="27">
         <f>SUM(E118:H118)</f>
-        <v>6848.2500000000236</v>
+        <v>6684.2500000000236</v>
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="17"/>
@@ -8421,7 +8430,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83:G86 E79:G82">
+  <conditionalFormatting sqref="D83:G86">
     <cfRule type="cellIs" dxfId="41" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8476,58 +8485,58 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E78:G82">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E89:G94 D95:G103">
-    <cfRule type="cellIs" dxfId="30" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H3 G104 E105:G105 D115:H115 E116:H180 D120">
-    <cfRule type="cellIs" dxfId="29" priority="347" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="347" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="28" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:G64">
-    <cfRule type="cellIs" dxfId="27" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="26" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H56 G57:H57 D65:G65 A98:C98 H58:H115">
-    <cfRule type="cellIs" dxfId="25" priority="181" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H56 G57:H57 H58:H115 D65:G65 A98:C98">
+    <cfRule type="cellIs" dxfId="24" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="24" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="23" priority="265" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G39">
-    <cfRule type="cellIs" dxfId="22" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="21" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8553,11 +8562,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IL241"/>
+  <dimension ref="A1:IL244"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G147" sqref="G147"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11743,7 +11752,7 @@
         <v>129</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E131" s="82" t="s">
         <v>0</v>
@@ -11767,7 +11776,7 @@
         <v>130</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E132" s="21" t="s">
         <v>27</v>
@@ -11791,7 +11800,7 @@
         <v>131</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E133" s="82" t="s">
         <v>0</v>
@@ -11815,7 +11824,7 @@
         <v>132</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>14</v>
@@ -11839,7 +11848,7 @@
         <v>133</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E135" s="21" t="s">
         <v>14</v>
@@ -11863,7 +11872,7 @@
         <v>134</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E136" s="82" t="s">
         <v>0</v>
@@ -11887,7 +11896,7 @@
         <v>135</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E137" s="21" t="s">
         <v>14</v>
@@ -11977,20 +11986,20 @@
     <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="14">
-        <v>45995</v>
-      </c>
-      <c r="C141" s="48">
-        <v>139</v>
+        <v>45993</v>
+      </c>
+      <c r="C141" s="48" t="s">
+        <v>165</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="E141" s="82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F141" s="19"/>
       <c r="G141" s="20">
-        <v>-20</v>
+        <v>-52</v>
       </c>
       <c r="H141" s="20"/>
       <c r="I141" s="20"/>
@@ -12001,20 +12010,20 @@
     <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
       <c r="B142" s="14">
-        <v>46002</v>
-      </c>
-      <c r="C142" s="48">
-        <v>140</v>
+        <v>45993</v>
+      </c>
+      <c r="C142" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="E142" s="82" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F142" s="19"/>
       <c r="G142" s="20">
-        <v>-35.68</v>
+        <v>-112</v>
       </c>
       <c r="H142" s="20"/>
       <c r="I142" s="20"/>
@@ -12025,20 +12034,20 @@
     <row r="143" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="41"/>
       <c r="B143" s="14">
-        <v>46003</v>
+        <v>45995</v>
       </c>
       <c r="C143" s="48">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>18</v>
+        <v>155</v>
+      </c>
+      <c r="E143" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="F143" s="19"/>
       <c r="G143" s="20">
-        <v>-347.62</v>
+        <v>-20</v>
       </c>
       <c r="H143" s="20"/>
       <c r="I143" s="20"/>
@@ -12049,20 +12058,20 @@
     <row r="144" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="41"/>
       <c r="B144" s="14">
-        <v>46006</v>
+        <v>46002</v>
       </c>
       <c r="C144" s="48">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E144" s="82" t="s">
         <v>0</v>
       </c>
       <c r="F144" s="19"/>
       <c r="G144" s="20">
-        <v>-52.82</v>
+        <v>-35.68</v>
       </c>
       <c r="H144" s="20"/>
       <c r="I144" s="20"/>
@@ -12073,20 +12082,20 @@
     <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="41"/>
       <c r="B145" s="14">
-        <v>46008</v>
+        <v>46003</v>
       </c>
       <c r="C145" s="48">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F145" s="19"/>
       <c r="G145" s="20">
-        <v>-600</v>
+        <v>-272.87</v>
       </c>
       <c r="H145" s="20"/>
       <c r="I145" s="20"/>
@@ -12097,20 +12106,20 @@
     <row r="146" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="41"/>
       <c r="B146" s="14">
-        <v>46013</v>
+        <v>46003</v>
       </c>
       <c r="C146" s="48">
-        <v>144</v>
-      </c>
-      <c r="D146" s="37" t="s">
-        <v>46</v>
+        <v>141</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E146" s="82" t="s">
         <v>0</v>
       </c>
       <c r="F146" s="19"/>
       <c r="G146" s="20">
-        <v>-14.59</v>
+        <v>-74.75</v>
       </c>
       <c r="H146" s="20"/>
       <c r="I146" s="20"/>
@@ -12120,29 +12129,46 @@
     </row>
     <row r="147" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="41"/>
-      <c r="B147" s="14"/>
+      <c r="B147" s="14">
+        <v>46006</v>
+      </c>
       <c r="C147" s="48">
-        <v>145</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="82"/>
+        <v>142</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E147" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F147" s="19"/>
-      <c r="G147" s="20"/>
+      <c r="G147" s="20">
+        <v>-52.82</v>
+      </c>
       <c r="H147" s="20"/>
       <c r="I147" s="20"/>
       <c r="J147" s="4"/>
       <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
     </row>
     <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="41"/>
-      <c r="B148" s="14"/>
+      <c r="B148" s="14">
+        <v>46008</v>
+      </c>
       <c r="C148" s="48">
-        <v>146</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="19"/>
+      <c r="G148" s="20">
+        <v>-600</v>
+      </c>
       <c r="H148" s="20"/>
       <c r="I148" s="20"/>
       <c r="J148" s="4"/>
@@ -12151,14 +12177,22 @@
     </row>
     <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="41"/>
-      <c r="B149" s="14"/>
+      <c r="B149" s="14">
+        <v>46013</v>
+      </c>
       <c r="C149" s="48">
-        <v>147</v>
-      </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="21"/>
+        <v>144</v>
+      </c>
+      <c r="D149" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E149" s="82" t="s">
+        <v>0</v>
+      </c>
       <c r="F149" s="19"/>
-      <c r="G149" s="20"/>
+      <c r="G149" s="20">
+        <v>-14.59</v>
+      </c>
       <c r="H149" s="20"/>
       <c r="I149" s="20"/>
       <c r="J149" s="4"/>
@@ -12169,27 +12203,26 @@
       <c r="A150" s="41"/>
       <c r="B150" s="14"/>
       <c r="C150" s="48">
-        <v>148</v>
-      </c>
-      <c r="D150" s="37"/>
-      <c r="E150" s="21"/>
+        <v>145</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="82"/>
       <c r="F150" s="19"/>
       <c r="G150" s="20"/>
       <c r="H150" s="20"/>
       <c r="I150" s="20"/>
       <c r="J150" s="4"/>
       <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
     </row>
     <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="14"/>
       <c r="C151" s="48">
-        <v>148</v>
-      </c>
-      <c r="D151" s="37"/>
+        <v>146</v>
+      </c>
+      <c r="D151" s="3"/>
       <c r="E151" s="21"/>
-      <c r="F151" s="19"/>
+      <c r="F151" s="16"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
@@ -12201,10 +12234,10 @@
       <c r="A152" s="41"/>
       <c r="B152" s="14"/>
       <c r="C152" s="48">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D152" s="3"/>
-      <c r="E152" s="82"/>
+      <c r="E152" s="21"/>
       <c r="F152" s="19"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
@@ -12217,10 +12250,10 @@
       <c r="A153" s="41"/>
       <c r="B153" s="14"/>
       <c r="C153" s="48">
-        <v>149.69999999999999</v>
-      </c>
-      <c r="D153" s="81"/>
-      <c r="E153" s="82"/>
+        <v>148</v>
+      </c>
+      <c r="D153" s="37"/>
+      <c r="E153" s="21"/>
       <c r="F153" s="19"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
@@ -12233,10 +12266,10 @@
       <c r="A154" s="41"/>
       <c r="B154" s="14"/>
       <c r="C154" s="48">
-        <v>151</v>
-      </c>
-      <c r="D154" s="81"/>
-      <c r="E154" s="82"/>
+        <v>148</v>
+      </c>
+      <c r="D154" s="37"/>
+      <c r="E154" s="21"/>
       <c r="F154" s="19"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
@@ -12249,10 +12282,10 @@
       <c r="A155" s="41"/>
       <c r="B155" s="14"/>
       <c r="C155" s="48">
-        <v>152</v>
-      </c>
-      <c r="D155" s="37"/>
-      <c r="E155" s="21"/>
+        <v>149</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="82"/>
       <c r="F155" s="19"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
@@ -12265,10 +12298,10 @@
       <c r="A156" s="41"/>
       <c r="B156" s="14"/>
       <c r="C156" s="48">
-        <v>153</v>
-      </c>
-      <c r="D156" s="37"/>
-      <c r="E156" s="21"/>
+        <v>149.69999999999999</v>
+      </c>
+      <c r="D156" s="81"/>
+      <c r="E156" s="82"/>
       <c r="F156" s="19"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
@@ -12281,10 +12314,10 @@
       <c r="A157" s="41"/>
       <c r="B157" s="14"/>
       <c r="C157" s="48">
-        <v>154.03</v>
-      </c>
-      <c r="D157" s="37"/>
-      <c r="E157" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="D157" s="81"/>
+      <c r="E157" s="82"/>
       <c r="F157" s="19"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
@@ -12297,7 +12330,7 @@
       <c r="A158" s="41"/>
       <c r="B158" s="14"/>
       <c r="C158" s="48">
-        <v>155.06</v>
+        <v>152</v>
       </c>
       <c r="D158" s="37"/>
       <c r="E158" s="21"/>
@@ -12313,7 +12346,7 @@
       <c r="A159" s="41"/>
       <c r="B159" s="14"/>
       <c r="C159" s="48">
-        <v>156.09</v>
+        <v>153</v>
       </c>
       <c r="D159" s="37"/>
       <c r="E159" s="21"/>
@@ -12329,7 +12362,7 @@
       <c r="A160" s="41"/>
       <c r="B160" s="14"/>
       <c r="C160" s="48">
-        <v>157.12</v>
+        <v>154.03</v>
       </c>
       <c r="D160" s="37"/>
       <c r="E160" s="21"/>
@@ -12341,14 +12374,14 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="41"/>
       <c r="B161" s="14"/>
       <c r="C161" s="48">
-        <v>158.15</v>
+        <v>155.06</v>
       </c>
       <c r="D161" s="37"/>
-      <c r="E161" s="18"/>
+      <c r="E161" s="21"/>
       <c r="F161" s="19"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
@@ -12357,11 +12390,11 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="14"/>
       <c r="C162" s="48">
-        <v>159.18</v>
+        <v>156.09</v>
       </c>
       <c r="D162" s="37"/>
       <c r="E162" s="21"/>
@@ -12373,15 +12406,15 @@
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="41"/>
       <c r="B163" s="14"/>
       <c r="C163" s="48">
-        <v>160.21</v>
+        <v>157.12</v>
       </c>
       <c r="D163" s="37"/>
       <c r="E163" s="21"/>
-      <c r="F163" s="20"/>
+      <c r="F163" s="19"/>
       <c r="G163" s="20"/>
       <c r="H163" s="20"/>
       <c r="I163" s="20"/>
@@ -12389,14 +12422,14 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="14"/>
       <c r="C164" s="48">
-        <v>161.24</v>
+        <v>158.15</v>
       </c>
       <c r="D164" s="37"/>
-      <c r="E164" s="21"/>
+      <c r="E164" s="18"/>
       <c r="F164" s="19"/>
       <c r="G164" s="20"/>
       <c r="H164" s="20"/>
@@ -12405,14 +12438,14 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="14"/>
       <c r="C165" s="48">
-        <v>162.27000000000001</v>
-      </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="82"/>
+        <v>159.18</v>
+      </c>
+      <c r="D165" s="37"/>
+      <c r="E165" s="21"/>
       <c r="F165" s="19"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
@@ -12421,15 +12454,15 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="41"/>
       <c r="B166" s="14"/>
       <c r="C166" s="48">
-        <v>163.30000000000001</v>
+        <v>160.21</v>
       </c>
       <c r="D166" s="37"/>
       <c r="E166" s="21"/>
-      <c r="F166" s="19"/>
+      <c r="F166" s="20"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
       <c r="I166" s="20"/>
@@ -12437,14 +12470,14 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="41"/>
       <c r="B167" s="14"/>
       <c r="C167" s="48">
-        <v>164.33</v>
+        <v>161.24</v>
       </c>
       <c r="D167" s="37"/>
-      <c r="E167" s="18"/>
+      <c r="E167" s="21"/>
       <c r="F167" s="19"/>
       <c r="G167" s="20"/>
       <c r="H167" s="20"/>
@@ -12453,14 +12486,14 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="14"/>
       <c r="C168" s="48">
-        <v>165.36</v>
-      </c>
-      <c r="D168" s="37"/>
-      <c r="E168" s="21"/>
+        <v>162.27000000000001</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="82"/>
       <c r="F168" s="19"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
@@ -12469,14 +12502,14 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="41"/>
       <c r="B169" s="14"/>
       <c r="C169" s="48">
-        <v>166.39</v>
-      </c>
-      <c r="D169" s="15"/>
-      <c r="E169" s="18"/>
+        <v>163.30000000000001</v>
+      </c>
+      <c r="D169" s="37"/>
+      <c r="E169" s="21"/>
       <c r="F169" s="19"/>
       <c r="G169" s="20"/>
       <c r="H169" s="20"/>
@@ -12485,13 +12518,13 @@
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="41"/>
       <c r="B170" s="14"/>
       <c r="C170" s="48">
-        <v>167.42</v>
-      </c>
-      <c r="D170" s="15"/>
+        <v>164.33</v>
+      </c>
+      <c r="D170" s="37"/>
       <c r="E170" s="18"/>
       <c r="F170" s="19"/>
       <c r="G170" s="20"/>
@@ -12501,27 +12534,27 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="14"/>
       <c r="C171" s="48">
-        <v>168.45</v>
-      </c>
-      <c r="D171" s="15"/>
-      <c r="E171" s="18"/>
+        <v>165.36</v>
+      </c>
+      <c r="D171" s="37"/>
+      <c r="E171" s="21"/>
       <c r="F171" s="19"/>
       <c r="G171" s="20"/>
       <c r="H171" s="20"/>
       <c r="I171" s="20"/>
-      <c r="J171" s="44"/>
+      <c r="J171" s="4"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
       <c r="B172" s="14"/>
       <c r="C172" s="48">
-        <v>169.48</v>
+        <v>166.39</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="18"/>
@@ -12529,15 +12562,15 @@
       <c r="G172" s="20"/>
       <c r="H172" s="20"/>
       <c r="I172" s="20"/>
-      <c r="J172" s="44"/>
+      <c r="J172" s="4"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="14"/>
       <c r="C173" s="48">
-        <v>170.51</v>
+        <v>167.42</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="18"/>
@@ -12545,15 +12578,17 @@
       <c r="G173" s="20"/>
       <c r="H173" s="20"/>
       <c r="I173" s="20"/>
-      <c r="J173" s="44"/>
+      <c r="J173" s="4"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="41"/>
       <c r="B174" s="14"/>
-      <c r="C174" s="48"/>
-      <c r="D174" s="37"/>
+      <c r="C174" s="48">
+        <v>168.45</v>
+      </c>
+      <c r="D174" s="15"/>
       <c r="E174" s="18"/>
       <c r="F174" s="19"/>
       <c r="G174" s="20"/>
@@ -12562,79 +12597,83 @@
       <c r="J174" s="44"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
-      <c r="IL174"/>
-    </row>
-    <row r="175" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="42"/>
-      <c r="B175" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" s="49"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="30"/>
-      <c r="F175" s="31">
-        <f>SUM(F3:F174)</f>
-        <v>-1105</v>
-      </c>
-      <c r="G175" s="32">
-        <f>SUM(G3:G174)</f>
-        <v>-9755.6499999999978</v>
-      </c>
-      <c r="H175" s="32">
-        <f>SUM(H3:H174)</f>
-        <v>0</v>
-      </c>
-      <c r="I175" s="32">
-        <f>SUM(I3:I174)</f>
-        <v>-169.03</v>
-      </c>
-      <c r="J175" s="2"/>
+    </row>
+    <row r="175" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="41"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="48">
+        <v>169.48</v>
+      </c>
+      <c r="D175" s="15"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="44"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="42"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="2"/>
+    <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="41"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="48">
+        <v>170.51</v>
+      </c>
+      <c r="D176" s="15"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="44"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="42"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
-      <c r="I177" s="17"/>
-      <c r="J177" s="2"/>
+    <row r="177" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="41"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="37"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="44"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
-    </row>
-    <row r="178" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="IL177"/>
+    </row>
+    <row r="178" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="42"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
+      <c r="B178" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="49"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="31">
+        <f>SUM(F3:F177)</f>
+        <v>-1105</v>
+      </c>
+      <c r="G178" s="32">
+        <f>SUM(G3:G177)</f>
+        <v>-9919.6499999999978</v>
+      </c>
+      <c r="H178" s="32">
+        <f>SUM(H3:H177)</f>
+        <v>0</v>
+      </c>
+      <c r="I178" s="32">
+        <f>SUM(I3:I177)</f>
+        <v>-169.03</v>
+      </c>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="42"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -12648,7 +12687,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="42"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -12662,7 +12701,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="42"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -12676,7 +12715,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="42"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -12690,7 +12729,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="42"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -12704,7 +12743,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="42"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -12718,7 +12757,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="42"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -12732,7 +12771,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="42"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -12746,7 +12785,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="42"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -12760,7 +12799,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="42"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -12774,7 +12813,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="42"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -12788,7 +12827,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="42"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -12802,7 +12841,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="42"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -12816,7 +12855,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:246" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="42"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -13485,124 +13524,166 @@
       <c r="H239" s="17"/>
       <c r="I239" s="17"/>
       <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
       <c r="L239" s="2"/>
     </row>
     <row r="240" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="42"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
+      <c r="D240" s="17"/>
+      <c r="E240" s="17"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
       <c r="I240" s="17"/>
-    </row>
-    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+    </row>
+    <row r="241" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="42"/>
       <c r="B241" s="17"/>
+      <c r="C241" s="17"/>
+      <c r="D241" s="17"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
       <c r="I241" s="17"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+    </row>
+    <row r="242" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="42"/>
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="17"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="17"/>
+      <c r="I242" s="17"/>
+      <c r="J242" s="2"/>
+      <c r="L242" s="2"/>
+    </row>
+    <row r="243" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="I243" s="17"/>
+    </row>
+    <row r="244" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="17"/>
+      <c r="I244" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:J170" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:J173" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A239">
-    <cfRule type="cellIs" dxfId="20" priority="481" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A242">
+    <cfRule type="cellIs" dxfId="19" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B140">
-    <cfRule type="cellIs" dxfId="19" priority="464" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B127:B142">
+    <cfRule type="cellIs" dxfId="18" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153:B241">
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B156:B244">
+    <cfRule type="cellIs" dxfId="17" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C152 C154 C156 C158 C160 C162 C164 C170 C172">
-    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C155 C157 C159 C161 C163 C165 C167 C173 C175">
+    <cfRule type="cellIs" dxfId="16" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174:C240 J176 I176:I241">
-    <cfRule type="cellIs" dxfId="16" priority="711" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C177:C243 J179 I179:I244">
+    <cfRule type="cellIs" dxfId="15" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="15" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="14" priority="66" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D149">
+    <cfRule type="cellIs" dxfId="13" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D150:D151">
-    <cfRule type="cellIs" dxfId="13" priority="450" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D153:D154">
+    <cfRule type="cellIs" dxfId="12" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155:D160">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D158:D163">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E162 D163:D164 C166:D166 D167:E167 C168:D168">
-    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D164:E165 D166:D167 C169:D169 D170:E170 C171:D171">
+    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D174:E176">
-    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D177:E179">
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="9" priority="663" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D179:H242">
+    <cfRule type="cellIs" dxfId="8" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E121 E123:E129 E131:E142 E144:E160">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E121 E123:E129 E146:E163 E131:E144">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E163:E166">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E166:E169">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E168:E173">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E171:E176">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="5" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="3" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F151">
+    <cfRule type="cellIs" dxfId="0" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E3:E51 E123:E129 E131:E142 E144:E174" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E3:E51 E123:E129 E146:E177 E131:E144" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B0259-BD54-4BB6-8A3A-8685C0C0B998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7304CD2-3492-4169-8764-1C424934A0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$J$173</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$H$117</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$I$177</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$120</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$H$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="178">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -516,9 +516,6 @@
     <t>W.feier (W.Markt 1145, 795 W.feier)</t>
   </si>
   <si>
-    <t>Spende W.feier Fr. Fanta</t>
-  </si>
-  <si>
     <t>W.markt, Standgeld</t>
   </si>
   <si>
@@ -535,6 +532,42 @@
   </si>
   <si>
     <t>138b</t>
+  </si>
+  <si>
+    <t>W.markt Gulasch Kosten</t>
+  </si>
+  <si>
+    <t>67a</t>
+  </si>
+  <si>
+    <t>Spende Tombola Haka</t>
+  </si>
+  <si>
+    <t>67b</t>
+  </si>
+  <si>
+    <t>Spende Tombola Brunnen Apotheke</t>
+  </si>
+  <si>
+    <t>67c</t>
+  </si>
+  <si>
+    <t>Spende Kuchen Steibing (100€)</t>
+  </si>
+  <si>
+    <t>69a</t>
+  </si>
+  <si>
+    <t>Spende Fr.Fanta (100€)</t>
+  </si>
+  <si>
+    <t>71a</t>
+  </si>
+  <si>
+    <t>Spende Tombola Gutscheine 50€+Orangen+Deko für Päckle</t>
+  </si>
+  <si>
+    <t>Spende W.feier Fr. Fanta (siehe E69a)</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1235,12 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1680,7 +1718,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:H115" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:H120" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -4023,17 +4061,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="52">
+    <format dxfId="53">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4137,17 +4175,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="55">
+    <format dxfId="56">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5271,11 +5309,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IJ181"/>
+  <dimension ref="A1:IJ186"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6987,179 +7025,219 @@
     </row>
     <row r="77" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
-        <v>45993</v>
-      </c>
-      <c r="B77" s="15">
-        <v>68</v>
+        <v>45986</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D77" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="17">
         <v>0</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="17"/>
       <c r="G77" s="17"/>
-      <c r="H77" s="17">
-        <v>103</v>
-      </c>
+      <c r="H77" s="17"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
-        <v>45993</v>
-      </c>
-      <c r="B78" s="15">
-        <v>69</v>
+        <v>45988</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D78" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="17">
         <v>0</v>
       </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="17"/>
       <c r="G78" s="17"/>
-      <c r="H78" s="17">
-        <v>70</v>
-      </c>
+      <c r="H78" s="17"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
-        <v>46006</v>
-      </c>
-      <c r="B79" s="15">
-        <v>70</v>
+        <v>45992</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="D79" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17">
         <v>0</v>
       </c>
-      <c r="E79" s="16"/>
-      <c r="F79" s="17"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="17">
-        <v>104</v>
-      </c>
+      <c r="H79" s="17"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
-        <v>46006</v>
+        <v>45993</v>
       </c>
       <c r="B80" s="15">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="16"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17">
-        <v>1940</v>
+        <v>103</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
-        <v>46014</v>
+        <v>45993</v>
       </c>
       <c r="B81" s="15">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E81" s="16"/>
-      <c r="F81" s="17">
-        <v>100</v>
-      </c>
+      <c r="F81" s="17"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
+      <c r="H81" s="17">
+        <v>70</v>
+      </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15">
-        <v>73</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="18"/>
+      <c r="A82" s="14">
+        <v>46005</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E82" s="16"/>
-      <c r="F82" s="17"/>
+      <c r="F82" s="17">
+        <v>0</v>
+      </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
+      <c r="A83" s="14">
+        <v>46006</v>
+      </c>
       <c r="B83" s="15">
-        <v>74</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E83" s="16"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
+      <c r="H83" s="17">
+        <v>104</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="14"/>
+      <c r="A84" s="14">
+        <v>46006</v>
+      </c>
       <c r="B84" s="15">
-        <v>75</v>
-      </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E84" s="16"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
+      <c r="H84" s="17">
+        <v>1940</v>
+      </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15">
-        <v>76</v>
-      </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="18"/>
+      <c r="A85" s="14">
+        <v>46007</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="E85" s="16"/>
-      <c r="F85" s="17"/>
+      <c r="F85" s="17">
+        <v>0</v>
+      </c>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="14"/>
+      <c r="A86" s="14">
+        <v>46014</v>
+      </c>
       <c r="B86" s="15">
-        <v>77</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="E86" s="16"/>
-      <c r="F86" s="17"/>
+      <c r="F86" s="17">
+        <v>100</v>
+      </c>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="2"/>
@@ -7168,9 +7246,9 @@
     <row r="87" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="15">
-        <v>78</v>
-      </c>
-      <c r="C87" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C87" s="15"/>
       <c r="D87" s="18"/>
       <c r="E87" s="16"/>
       <c r="F87" s="17"/>
@@ -7181,13 +7259,13 @@
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
-      <c r="B88" s="48">
-        <v>79</v>
-      </c>
-      <c r="C88" s="50"/>
+      <c r="B88" s="15">
+        <v>74</v>
+      </c>
+      <c r="C88" s="15"/>
       <c r="D88" s="18"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="20"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
       <c r="I88" s="2"/>
@@ -7196,9 +7274,9 @@
     <row r="89" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="15">
-        <v>80</v>
-      </c>
-      <c r="C89" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="C89" s="15"/>
       <c r="D89" s="18"/>
       <c r="E89" s="16"/>
       <c r="F89" s="17"/>
@@ -7210,9 +7288,9 @@
     <row r="90" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="15">
-        <v>81</v>
-      </c>
-      <c r="C90" s="50"/>
+        <v>76</v>
+      </c>
+      <c r="C90" s="37"/>
       <c r="D90" s="18"/>
       <c r="E90" s="16"/>
       <c r="F90" s="17"/>
@@ -7224,9 +7302,9 @@
     <row r="91" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="15">
-        <v>82</v>
-      </c>
-      <c r="C91" s="50"/>
+        <v>77</v>
+      </c>
+      <c r="C91" s="3"/>
       <c r="D91" s="18"/>
       <c r="E91" s="16"/>
       <c r="F91" s="17"/>
@@ -7238,9 +7316,9 @@
     <row r="92" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="15">
-        <v>83</v>
-      </c>
-      <c r="C92" s="50"/>
+        <v>78</v>
+      </c>
+      <c r="C92" s="3"/>
       <c r="D92" s="18"/>
       <c r="E92" s="16"/>
       <c r="F92" s="17"/>
@@ -7251,13 +7329,13 @@
     </row>
     <row r="93" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
-      <c r="B93" s="15">
-        <v>84</v>
-      </c>
-      <c r="C93" s="15"/>
+      <c r="B93" s="48">
+        <v>79</v>
+      </c>
+      <c r="C93" s="50"/>
       <c r="D93" s="18"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="17"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="20"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="2"/>
@@ -7266,9 +7344,9 @@
     <row r="94" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="15">
-        <v>85</v>
-      </c>
-      <c r="C94" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C94" s="50"/>
       <c r="D94" s="18"/>
       <c r="E94" s="16"/>
       <c r="F94" s="17"/>
@@ -7280,9 +7358,9 @@
     <row r="95" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="15">
-        <v>86</v>
-      </c>
-      <c r="C95" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C95" s="50"/>
       <c r="D95" s="18"/>
       <c r="E95" s="16"/>
       <c r="F95" s="17"/>
@@ -7294,9 +7372,9 @@
     <row r="96" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="15">
-        <v>87</v>
-      </c>
-      <c r="C96" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C96" s="50"/>
       <c r="D96" s="18"/>
       <c r="E96" s="16"/>
       <c r="F96" s="17"/>
@@ -7308,9 +7386,9 @@
     <row r="97" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="15">
-        <v>88</v>
-      </c>
-      <c r="C97" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="C97" s="50"/>
       <c r="D97" s="18"/>
       <c r="E97" s="16"/>
       <c r="F97" s="17"/>
@@ -7321,10 +7399,10 @@
     </row>
     <row r="98" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
-      <c r="B98" s="48">
-        <v>89</v>
-      </c>
-      <c r="C98" s="37"/>
+      <c r="B98" s="15">
+        <v>84</v>
+      </c>
+      <c r="C98" s="15"/>
       <c r="D98" s="18"/>
       <c r="E98" s="16"/>
       <c r="F98" s="17"/>
@@ -7336,9 +7414,9 @@
     <row r="99" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="15">
-        <v>90</v>
-      </c>
-      <c r="C99" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="C99" s="3"/>
       <c r="D99" s="18"/>
       <c r="E99" s="16"/>
       <c r="F99" s="17"/>
@@ -7350,9 +7428,9 @@
     <row r="100" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="15">
-        <v>91</v>
-      </c>
-      <c r="C100" s="15"/>
+        <v>86</v>
+      </c>
+      <c r="C100" s="3"/>
       <c r="D100" s="18"/>
       <c r="E100" s="16"/>
       <c r="F100" s="17"/>
@@ -7364,9 +7442,9 @@
     <row r="101" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="15">
-        <v>92</v>
-      </c>
-      <c r="C101" s="15"/>
+        <v>87</v>
+      </c>
+      <c r="C101" s="3"/>
       <c r="D101" s="18"/>
       <c r="E101" s="16"/>
       <c r="F101" s="17"/>
@@ -7378,9 +7456,9 @@
     <row r="102" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="15">
-        <v>93</v>
-      </c>
-      <c r="C102" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="C102" s="3"/>
       <c r="D102" s="18"/>
       <c r="E102" s="16"/>
       <c r="F102" s="17"/>
@@ -7391,10 +7469,10 @@
     </row>
     <row r="103" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
-      <c r="B103" s="15">
-        <v>94</v>
-      </c>
-      <c r="C103" s="15"/>
+      <c r="B103" s="48">
+        <v>89</v>
+      </c>
+      <c r="C103" s="37"/>
       <c r="D103" s="18"/>
       <c r="E103" s="16"/>
       <c r="F103" s="17"/>
@@ -7406,12 +7484,12 @@
     <row r="104" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="15">
-        <v>95</v>
-      </c>
-      <c r="C104" s="37"/>
+        <v>90</v>
+      </c>
+      <c r="C104" s="15"/>
       <c r="D104" s="18"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="17"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="2"/>
@@ -7420,9 +7498,9 @@
     <row r="105" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="15">
-        <v>96</v>
-      </c>
-      <c r="C105" s="37"/>
+        <v>91</v>
+      </c>
+      <c r="C105" s="15"/>
       <c r="D105" s="18"/>
       <c r="E105" s="16"/>
       <c r="F105" s="17"/>
@@ -7434,7 +7512,7 @@
     <row r="106" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="15">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="18"/>
@@ -7448,7 +7526,7 @@
     <row r="107" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="15">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="18"/>
@@ -7462,7 +7540,7 @@
     <row r="108" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="15">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="18"/>
@@ -7476,12 +7554,12 @@
     <row r="109" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="15">
-        <v>100</v>
-      </c>
-      <c r="C109" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="C109" s="37"/>
       <c r="D109" s="18"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="17"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="2"/>
@@ -7490,9 +7568,9 @@
     <row r="110" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="15">
-        <v>101</v>
-      </c>
-      <c r="C110" s="15"/>
+        <v>96</v>
+      </c>
+      <c r="C110" s="37"/>
       <c r="D110" s="18"/>
       <c r="E110" s="16"/>
       <c r="F110" s="17"/>
@@ -7504,7 +7582,7 @@
     <row r="111" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="15">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="18"/>
@@ -7518,7 +7596,7 @@
     <row r="112" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="15">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="18"/>
@@ -7531,7 +7609,9 @@
     </row>
     <row r="113" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
-      <c r="B113" s="15"/>
+      <c r="B113" s="15">
+        <v>99</v>
+      </c>
       <c r="C113" s="15"/>
       <c r="D113" s="18"/>
       <c r="E113" s="16"/>
@@ -7543,7 +7623,9 @@
     </row>
     <row r="114" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="15">
+        <v>100</v>
+      </c>
       <c r="C114" s="15"/>
       <c r="D114" s="18"/>
       <c r="E114" s="16"/>
@@ -7555,167 +7637,171 @@
     </row>
     <row r="115" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="15">
+        <v>101</v>
+      </c>
       <c r="C115" s="15"/>
       <c r="D115" s="18"/>
       <c r="E115" s="16"/>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
-      <c r="I115" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="25">
-        <f>SUM(E3:E115)</f>
-        <v>1105</v>
-      </c>
-      <c r="F116" s="26">
-        <f>SUM(F3:F115)</f>
-        <v>10652.430000000022</v>
-      </c>
-      <c r="G116" s="26">
-        <f>SUM(G3:G115)</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H116" s="26">
-        <f>SUM(H3:H115)</f>
-        <v>4119.9999999999991</v>
-      </c>
+      <c r="A116" s="14"/>
+      <c r="B116" s="15">
+        <v>102</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="33"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="15">
+        <v>103</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="26">
-        <f>E116+Ausgaben!F178</f>
-        <v>0</v>
-      </c>
-      <c r="F118" s="26">
-        <f>F116+Ausgaben!G178</f>
-        <v>732.7800000000243</v>
-      </c>
-      <c r="G118" s="26">
-        <f>G116+Ausgaben!H178</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H118" s="26">
-        <f>H116+Ausgaben!I178</f>
-        <v>3950.9699999999989</v>
-      </c>
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="35"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
+      <c r="A119" s="14"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="27">
-        <f>SUM(E118:H118)</f>
-        <v>6684.2500000000236</v>
-      </c>
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="16"/>
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
-      <c r="I120" s="2"/>
+      <c r="I120" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
+      <c r="A121" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="25">
+        <f>SUM(E3:E120)</f>
+        <v>1105</v>
+      </c>
+      <c r="F121" s="26">
+        <f>SUM(F3:F120)</f>
+        <v>10652.430000000022</v>
+      </c>
+      <c r="G121" s="26">
+        <f>SUM(G3:G120)</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H121" s="26">
+        <f>SUM(H3:H120)</f>
+        <v>4119.9999999999991</v>
+      </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
+      <c r="A123" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="26">
+        <f>E121+Ausgaben!F178</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="26">
+        <f>F121+Ausgaben!G178</f>
+        <v>577.79000000002452</v>
+      </c>
+      <c r="G123" s="26">
+        <f>G121+Ausgaben!H178</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H123" s="26">
+        <f>H121+Ausgaben!I178</f>
+        <v>3950.9699999999989</v>
+      </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="17"/>
+      <c r="A125" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="27">
+        <f>SUM(E123:H123)</f>
+        <v>6529.2600000000239</v>
+      </c>
+      <c r="E125" s="16"/>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
@@ -7723,10 +7809,10 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
@@ -7738,7 +7824,9 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
@@ -8382,166 +8470,236 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="2"/>
       <c r="J181" s="2"/>
     </row>
+    <row r="182" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J186" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H117" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A99:A102">
-    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A104:A107">
+    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="48" priority="195" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B93">
+    <cfRule type="cellIs" dxfId="49" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104:D105">
-    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C109:D110">
+    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D72">
-    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D82">
-    <cfRule type="cellIs" dxfId="45" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D74:D87">
+    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88:D94">
-    <cfRule type="cellIs" dxfId="44" priority="12" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D93:D99">
+    <cfRule type="cellIs" dxfId="45" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:F87">
-    <cfRule type="cellIs" dxfId="43" priority="13" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D92:F92">
+    <cfRule type="cellIs" dxfId="44" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:G73 E74:G76 G87:G88">
-    <cfRule type="cellIs" dxfId="42" priority="67" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D73:G73 G92:G93 E74:G79">
+    <cfRule type="cellIs" dxfId="43" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83:G86">
-    <cfRule type="cellIs" dxfId="41" priority="14" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D88:G91">
+    <cfRule type="cellIs" dxfId="42" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D106:G115">
-    <cfRule type="cellIs" dxfId="40" priority="46" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D111:G120">
+    <cfRule type="cellIs" dxfId="41" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="39" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F39">
-    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F44">
-    <cfRule type="cellIs" dxfId="37" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:F62">
-    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="34" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42 G43:G49">
-    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:G51 G52:G54 E53:F54 F55:G55 G56 G58:G62">
-    <cfRule type="cellIs" dxfId="32" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:G72">
-    <cfRule type="cellIs" dxfId="31" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G82">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E81:G81 E83:G84 G82 E86:G87 G85">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89:G94 D95:G103">
-    <cfRule type="cellIs" dxfId="29" priority="49" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E94:G99 D100:G108">
+    <cfRule type="cellIs" dxfId="30" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:H3 G104 E105:G105 D115:H115 E116:H180 D120">
-    <cfRule type="cellIs" dxfId="28" priority="347" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:H3 G109 E110:G110 D120:H120 E121:H185 D125">
+    <cfRule type="cellIs" dxfId="29" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="27" priority="268" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:G64">
-    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="25" priority="65" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F80:G80">
+    <cfRule type="cellIs" dxfId="26" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H56 G57:H57 H58:H115 D65:G65 A98:C98">
-    <cfRule type="cellIs" dxfId="24" priority="181" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G4:G13 H4:H27 H29:H56 G57:H57 H58:H120 D65:G65 A103:C103">
+    <cfRule type="cellIs" dxfId="25" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="23" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="22" priority="265" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G39">
-    <cfRule type="cellIs" dxfId="21" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="20" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:F82">
+    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:F85">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D115" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D120" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -8552,7 +8710,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="128" max="18" man="1"/>
+    <brk id="133" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8564,9 +8722,9 @@
   </sheetPr>
   <dimension ref="A1:IL244"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J135" sqref="J135"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11752,7 +11910,7 @@
         <v>129</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E131" s="82" t="s">
         <v>0</v>
@@ -11989,7 +12147,7 @@
         <v>45993</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>45</v>
@@ -12013,7 +12171,7 @@
         <v>45993</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>45</v>
@@ -12064,7 +12222,7 @@
         <v>140</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E144" s="82" t="s">
         <v>0</v>
@@ -12088,7 +12246,7 @@
         <v>141</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>18</v>
@@ -12112,7 +12270,7 @@
         <v>141</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E146" s="82" t="s">
         <v>0</v>
@@ -12201,14 +12359,22 @@
     </row>
     <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="41"/>
-      <c r="B150" s="14"/>
+      <c r="B150" s="14">
+        <v>46011</v>
+      </c>
       <c r="C150" s="48">
         <v>145</v>
       </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="82"/>
+      <c r="D150" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E150" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F150" s="19"/>
-      <c r="G150" s="20"/>
+      <c r="G150" s="20">
+        <v>-4.99</v>
+      </c>
       <c r="H150" s="20"/>
       <c r="I150" s="20"/>
       <c r="J150" s="4"/>
@@ -12216,14 +12382,22 @@
     </row>
     <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
-      <c r="B151" s="14"/>
+      <c r="B151" s="14">
+        <v>46021</v>
+      </c>
       <c r="C151" s="48">
         <v>146</v>
       </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="20"/>
+      <c r="D151" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E151" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="19"/>
+      <c r="G151" s="20">
+        <v>-150</v>
+      </c>
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
       <c r="J151" s="4"/>
@@ -12659,7 +12833,7 @@
       </c>
       <c r="G178" s="32">
         <f>SUM(G3:G177)</f>
-        <v>-9919.6499999999978</v>
+        <v>-10074.639999999998</v>
       </c>
       <c r="H178" s="32">
         <f>SUM(H3:H177)</f>
@@ -13642,7 +13816,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E121 E123:E129 E146:E163 E131:E144">
+  <conditionalFormatting sqref="E3:E121 E123:E129 E131:E144 E146:E163">
     <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -13677,13 +13851,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
-    <cfRule type="cellIs" dxfId="0" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E3:E51 E123:E129 E146:E177 E131:E144" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E121 E3:E51 E123:E129 E131:E144 E146:E177" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$L$1:$L$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7304CD2-3492-4169-8764-1C424934A0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C9DDAB-B075-4BA5-BDD8-5890455DF084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="179">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>Spende W.feier Fr. Fanta (siehe E69a)</t>
+  </si>
+  <si>
+    <t>Spende Müssle</t>
   </si>
 </sst>
 </file>
@@ -1235,17 +1238,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4061,17 +4054,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="53">
+    <format dxfId="51">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4175,17 +4168,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="56">
+    <format dxfId="54">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5312,8 +5305,8 @@
   <dimension ref="A1:IJ186"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7244,16 +7237,24 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
+      <c r="A87" s="14">
+        <v>46020</v>
+      </c>
       <c r="B87" s="15">
         <v>73</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="18"/>
+      <c r="C87" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E87" s="16"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
+      <c r="H87" s="17">
+        <v>100</v>
+      </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
@@ -7736,7 +7737,7 @@
       </c>
       <c r="H121" s="26">
         <f>SUM(H3:H120)</f>
-        <v>4119.9999999999991</v>
+        <v>4219.9999999999991</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -7774,7 +7775,7 @@
       </c>
       <c r="H123" s="26">
         <f>H121+Ausgaben!I178</f>
-        <v>3950.9699999999989</v>
+        <v>4050.9699999999989</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -7799,7 +7800,7 @@
       <c r="C125" s="22"/>
       <c r="D125" s="27">
         <f>SUM(E123:H123)</f>
-        <v>6529.2600000000239</v>
+        <v>6629.2600000000239</v>
       </c>
       <c r="E125" s="16"/>
       <c r="F125" s="17"/>
@@ -8539,162 +8540,152 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A104:A107">
-    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="cellIs" dxfId="49" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109:D110">
-    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D72">
-    <cfRule type="cellIs" dxfId="47" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:D87">
-    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:D99">
-    <cfRule type="cellIs" dxfId="45" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:F92">
-    <cfRule type="cellIs" dxfId="44" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:G73 G92:G93 E74:G79">
-    <cfRule type="cellIs" dxfId="43" priority="69" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D73:G73 E74:G79 G92:G93">
+    <cfRule type="cellIs" dxfId="41" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:G91">
-    <cfRule type="cellIs" dxfId="42" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:G120">
-    <cfRule type="cellIs" dxfId="41" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="40" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F39">
-    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F44">
-    <cfRule type="cellIs" dxfId="38" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:F62">
-    <cfRule type="cellIs" dxfId="36" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="cellIs" dxfId="35" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G42 G43:G49">
-    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:G51 G52:G54 E53:F54 F55:G55 G56 G58:G62">
-    <cfRule type="cellIs" dxfId="33" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:G72">
-    <cfRule type="cellIs" dxfId="32" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:G81 E83:G84 G82 E86:G87 G85">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E81:G87">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94:G99 D100:G108">
-    <cfRule type="cellIs" dxfId="30" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:H3 G109 E110:G110 D120:H120 E121:H185 D125">
-    <cfRule type="cellIs" dxfId="29" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="28" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:G64">
-    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:G80">
-    <cfRule type="cellIs" dxfId="26" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G13 H4:H27 H29:H56 G57:H57 H58:H120 D65:G65 A103:C103">
-    <cfRule type="cellIs" dxfId="25" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G24">
-    <cfRule type="cellIs" dxfId="24" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="cellIs" dxfId="23" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G39">
-    <cfRule type="cellIs" dxfId="22" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="cellIs" dxfId="21" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:F82">
-    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:F85">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13757,97 +13748,97 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A242">
-    <cfRule type="cellIs" dxfId="19" priority="481" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B142">
-    <cfRule type="cellIs" dxfId="18" priority="464" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:B244">
-    <cfRule type="cellIs" dxfId="17" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155 C157 C159 C161 C163 C165 C167 C173 C175">
-    <cfRule type="cellIs" dxfId="16" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177:C243 J179 I179:I244">
-    <cfRule type="cellIs" dxfId="15" priority="711" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="711" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="cellIs" dxfId="14" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="cellIs" dxfId="13" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:D154">
-    <cfRule type="cellIs" dxfId="12" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D163">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D164:E165 D166:D167 C169:D169 D170:E170 C171:D171">
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177:E179">
-    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179:H242">
-    <cfRule type="cellIs" dxfId="8" priority="663" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="663" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E121 E123:E129 E131:E144 E146:E163">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166:E169">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E176">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="4" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F67">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="2" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
+++ b/2025/AWO_Einnahmen_Ausgaben_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C9DDAB-B075-4BA5-BDD8-5890455DF084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C59A82-A908-4DFE-A608-134CFF810A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="183">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -571,6 +571,18 @@
   </si>
   <si>
     <t>Spende Müssle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rückverteilung Awo Kreis</t>
+  </si>
+  <si>
+    <t>Awo Soli aus E74</t>
+  </si>
+  <si>
+    <t>Awo Kap.ertr.steuer aus E74</t>
   </si>
 </sst>
 </file>
@@ -5305,8 +5317,8 @@
   <dimension ref="A1:IJ186"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7259,16 +7271,26 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
+      <c r="A88" s="14">
+        <v>46021</v>
+      </c>
       <c r="B88" s="15">
         <v>74</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="18"/>
+      <c r="C88" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E88" s="16"/>
-      <c r="F88" s="17"/>
+      <c r="F88" s="17">
+        <v>8.02</v>
+      </c>
       <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
+      <c r="H88" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
@@ -7729,7 +7751,7 @@
       </c>
       <c r="F121" s="26">
         <f>SUM(F3:F120)</f>
-        <v>10652.430000000022</v>
+        <v>10660.450000000023</v>
       </c>
       <c r="G121" s="26">
         <f>SUM(G3:G120)</f>
@@ -7767,7 +7789,7 @@
       </c>
       <c r="F123" s="26">
         <f>F121+Ausgaben!G178</f>
-        <v>577.79000000002452</v>
+        <v>583.69000000002416</v>
       </c>
       <c r="G123" s="26">
         <f>G121+Ausgaben!H178</f>
@@ -7800,7 +7822,7 @@
       <c r="C125" s="22"/>
       <c r="D125" s="27">
         <f>SUM(E123:H123)</f>
-        <v>6629.2600000000239</v>
+        <v>6635.1600000000235</v>
       </c>
       <c r="E125" s="16"/>
       <c r="F125" s="17"/>
@@ -8579,7 +8601,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88:G91">
+  <conditionalFormatting sqref="D89:G91 E88:G88">
     <cfRule type="cellIs" dxfId="40" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8690,7 +8712,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D120" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D87 D89:D120" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$1:$J$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -8714,8 +8736,8 @@
   <dimension ref="A1:IL244"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
+      <pane ySplit="2" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12397,14 +12419,22 @@
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="41"/>
-      <c r="B152" s="14"/>
+      <c r="B152" s="14">
+        <v>46021</v>
+      </c>
       <c r="C152" s="48">
         <v>147</v>
       </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="21"/>
+      <c r="D152" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E152" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F152" s="19"/>
-      <c r="G152" s="20"/>
+      <c r="G152" s="20">
+        <v>-0.11</v>
+      </c>
       <c r="H152" s="20"/>
       <c r="I152" s="20"/>
       <c r="J152" s="4"/>
@@ -12413,14 +12443,22 @@
     </row>
     <row r="153" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="41"/>
-      <c r="B153" s="14"/>
+      <c r="B153" s="14">
+        <v>46021</v>
+      </c>
       <c r="C153" s="48">
         <v>148</v>
       </c>
-      <c r="D153" s="37"/>
-      <c r="E153" s="21"/>
+      <c r="D153" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E153" s="82" t="s">
+        <v>13</v>
+      </c>
       <c r="F153" s="19"/>
-      <c r="G153" s="20"/>
+      <c r="G153" s="20">
+        <v>-2.0099999999999998</v>
+      </c>
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
       <c r="J153" s="4"/>
@@ -12824,7 +12862,7 @@
       </c>
       <c r="G178" s="32">
         <f>SUM(G3:G177)</f>
-        <v>-10074.639999999998</v>
+        <v>-10076.759999999998</v>
       </c>
       <c r="H178" s="32">
         <f>SUM(H3:H177)</f>
@@ -13782,7 +13820,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D153:D154">
+  <conditionalFormatting sqref="D154">
     <cfRule type="cellIs" dxfId="11" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
